--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388685249519494</v>
+        <v>0.9388685249519497</v>
       </c>
       <c r="D2">
-        <v>0.9526494840346595</v>
+        <v>0.9526494840346601</v>
       </c>
       <c r="E2">
-        <v>0.9531398457626282</v>
+        <v>0.9531398457626287</v>
       </c>
       <c r="F2">
         <v>0.9574483746524478</v>
@@ -439,16 +439,16 @@
         <v>1.035912032281259</v>
       </c>
       <c r="J2">
-        <v>0.9630451709914014</v>
+        <v>0.9630451709914017</v>
       </c>
       <c r="K2">
-        <v>0.9648104267525165</v>
+        <v>0.9648104267525169</v>
       </c>
       <c r="L2">
-        <v>0.9652930656161064</v>
+        <v>0.9652930656161069</v>
       </c>
       <c r="M2">
-        <v>0.9695341727913888</v>
+        <v>0.9695341727913889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9530001763524646</v>
+        <v>0.9530001763524644</v>
       </c>
       <c r="D3">
         <v>0.9652047430049697</v>
       </c>
       <c r="E3">
-        <v>0.9650458409855319</v>
+        <v>0.9650458409855318</v>
       </c>
       <c r="F3">
-        <v>0.9708877213658383</v>
+        <v>0.9708877213658386</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>0.9763030842206586</v>
       </c>
       <c r="L3">
-        <v>0.9761464050269347</v>
+        <v>0.9761464050269346</v>
       </c>
       <c r="M3">
-        <v>0.9819071683009619</v>
+        <v>0.9819071683009621</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9616229102857351</v>
+        <v>0.9616229102857354</v>
       </c>
       <c r="D4">
-        <v>0.9728745002290926</v>
+        <v>0.9728745002290928</v>
       </c>
       <c r="E4">
-        <v>0.972322539835349</v>
+        <v>0.9723225398353492</v>
       </c>
       <c r="F4">
-        <v>0.9790880204455821</v>
+        <v>0.9790880204455824</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041063655474035</v>
+        <v>1.041063655474036</v>
       </c>
       <c r="J4">
-        <v>0.9820619967013312</v>
+        <v>0.9820619967013314</v>
       </c>
       <c r="K4">
-        <v>0.9833117194512185</v>
+        <v>0.9833117194512188</v>
       </c>
       <c r="L4">
-        <v>0.9827668984650026</v>
+        <v>0.9827668984650029</v>
       </c>
       <c r="M4">
-        <v>0.9894455637403997</v>
+        <v>0.9894455637403999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.965136358140626</v>
+        <v>0.9651363581406256</v>
       </c>
       <c r="D5">
-        <v>0.9760014665053921</v>
+        <v>0.9760014665053919</v>
       </c>
       <c r="E5">
-        <v>0.9752900588988195</v>
+        <v>0.9752900588988189</v>
       </c>
       <c r="F5">
-        <v>0.9824289400463905</v>
+        <v>0.9824289400463903</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.041843536806222</v>
       </c>
       <c r="J5">
-        <v>0.9849949345899707</v>
+        <v>0.9849949345899702</v>
       </c>
       <c r="K5">
-        <v>0.9861663096741727</v>
+        <v>0.9861663096741725</v>
       </c>
       <c r="L5">
-        <v>0.985463801355829</v>
+        <v>0.9854638013558283</v>
       </c>
       <c r="M5">
-        <v>0.9925141063350881</v>
+        <v>0.992514106335088</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9657200823504545</v>
+        <v>0.9657200823504549</v>
       </c>
       <c r="D6">
-        <v>0.9765210797924768</v>
+        <v>0.9765210797924772</v>
       </c>
       <c r="E6">
-        <v>0.9757832225055284</v>
+        <v>0.9757832225055288</v>
       </c>
       <c r="F6">
         <v>0.9829839663286525</v>
@@ -591,13 +591,13 @@
         <v>1.041972639724243</v>
       </c>
       <c r="J6">
-        <v>0.9854821026397077</v>
+        <v>0.9854821026397081</v>
       </c>
       <c r="K6">
-        <v>0.9866404958776284</v>
+        <v>0.9866404958776287</v>
       </c>
       <c r="L6">
-        <v>0.9859118167932353</v>
+        <v>0.9859118167932355</v>
       </c>
       <c r="M6">
         <v>0.9930237229175723</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616702796795724</v>
+        <v>0.9616702796795717</v>
       </c>
       <c r="D7">
-        <v>0.9729166520867663</v>
+        <v>0.9729166520867658</v>
       </c>
       <c r="E7">
-        <v>0.9723625391943234</v>
+        <v>0.9723625391943229</v>
       </c>
       <c r="F7">
-        <v>0.9791330658415015</v>
+        <v>0.9791330658415013</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041074201400328</v>
       </c>
       <c r="J7">
-        <v>0.9821015468043139</v>
+        <v>0.9821015468043135</v>
       </c>
       <c r="K7">
-        <v>0.9833502108816768</v>
+        <v>0.9833502108816766</v>
       </c>
       <c r="L7">
-        <v>0.9828032620528456</v>
+        <v>0.9828032620528453</v>
       </c>
       <c r="M7">
-        <v>0.989486947486102</v>
+        <v>0.9894869474861017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9437611480763459</v>
+        <v>0.9437611480763463</v>
       </c>
       <c r="D8">
-        <v>0.9569942037833933</v>
+        <v>0.9569942037833942</v>
       </c>
       <c r="E8">
-        <v>0.95725908696109</v>
+        <v>0.9572590869610907</v>
       </c>
       <c r="F8">
-        <v>0.9621010378132923</v>
+        <v>0.9621010378132934</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037032763839834</v>
       </c>
       <c r="J8">
-        <v>0.9671367655360281</v>
+        <v>0.9671367655360289</v>
       </c>
       <c r="K8">
-        <v>0.9687900458068566</v>
+        <v>0.9687900458068575</v>
       </c>
       <c r="L8">
-        <v>0.9690509199887041</v>
+        <v>0.9690509199887047</v>
       </c>
       <c r="M8">
-        <v>0.973820082963174</v>
+        <v>0.9738200829631749</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9074414020470859</v>
+        <v>0.907441402047085</v>
       </c>
       <c r="D9">
-        <v>0.9248007097542491</v>
+        <v>0.9248007097542483</v>
       </c>
       <c r="E9">
-        <v>0.92675570663183</v>
+        <v>0.9267557066318293</v>
       </c>
       <c r="F9">
-        <v>0.9275855042578622</v>
+        <v>0.9275855042578612</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02859035940552</v>
       </c>
       <c r="J9">
-        <v>0.936746686888695</v>
+        <v>0.9367466868886942</v>
       </c>
       <c r="K9">
-        <v>0.9392442789886792</v>
+        <v>0.9392442789886782</v>
       </c>
       <c r="L9">
-        <v>0.9411605206678354</v>
+        <v>0.9411605206678347</v>
       </c>
       <c r="M9">
-        <v>0.9419739335207796</v>
+        <v>0.9419739335207786</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8785295721786367</v>
+        <v>0.8785295721786365</v>
       </c>
       <c r="D10">
-        <v>0.8992827727124518</v>
+        <v>0.8992827727124512</v>
       </c>
       <c r="E10">
-        <v>0.9026081991653041</v>
+        <v>0.9026081991653039</v>
       </c>
       <c r="F10">
-        <v>0.9001796691608432</v>
+        <v>0.9001796691608427</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021736818833843</v>
       </c>
       <c r="J10">
-        <v>0.912555256970083</v>
+        <v>0.9125552569700824</v>
       </c>
       <c r="K10">
-        <v>0.9157443688909094</v>
+        <v>0.915744368890909</v>
       </c>
       <c r="L10">
-        <v>0.9189907084719374</v>
+        <v>0.918990708471937</v>
       </c>
       <c r="M10">
-        <v>0.916619857710894</v>
+        <v>0.9166198577108936</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8643553049887746</v>
+        <v>0.8643553049887742</v>
       </c>
       <c r="D11">
-        <v>0.8868130975639654</v>
+        <v>0.886813097563965</v>
       </c>
       <c r="E11">
-        <v>0.8908178952040855</v>
+        <v>0.8908178952040847</v>
       </c>
       <c r="F11">
         <v>0.886779192882206</v>
@@ -781,16 +781,16 @@
         <v>1.018358697523652</v>
       </c>
       <c r="J11">
-        <v>0.900705959437489</v>
+        <v>0.9007059594374884</v>
       </c>
       <c r="K11">
-        <v>0.9042396805447555</v>
+        <v>0.9042396805447549</v>
       </c>
       <c r="L11">
-        <v>0.9081411433867684</v>
+        <v>0.9081411433867679</v>
       </c>
       <c r="M11">
-        <v>0.9042066560941363</v>
+        <v>0.9042066560941362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8587687162193132</v>
+        <v>0.8587687162193148</v>
       </c>
       <c r="D12">
-        <v>0.8819063473943207</v>
+        <v>0.8819063473943222</v>
       </c>
       <c r="E12">
-        <v>0.8861802198359282</v>
+        <v>0.8861802198359295</v>
       </c>
       <c r="F12">
-        <v>0.8815053791087588</v>
+        <v>0.8815053791087606</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017026286165973</v>
+        <v>1.017026286165974</v>
       </c>
       <c r="J12">
-        <v>0.8960387616251946</v>
+        <v>0.8960387616251959</v>
       </c>
       <c r="K12">
-        <v>0.8997092611787992</v>
+        <v>0.8997092611788008</v>
       </c>
       <c r="L12">
-        <v>0.9038693886506165</v>
+        <v>0.9038693886506178</v>
       </c>
       <c r="M12">
-        <v>0.8993190412123682</v>
+        <v>0.8993190412123696</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8599831659427957</v>
+        <v>0.8599831659427972</v>
       </c>
       <c r="D13">
-        <v>0.8829726123103292</v>
+        <v>0.8829726123103306</v>
       </c>
       <c r="E13">
-        <v>0.8871879291792343</v>
+        <v>0.8871879291792353</v>
       </c>
       <c r="F13">
-        <v>0.8826514353029091</v>
+        <v>0.8826514353029102</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017315942769842</v>
       </c>
       <c r="J13">
-        <v>0.8970531824986554</v>
+        <v>0.8970531824986568</v>
       </c>
       <c r="K13">
-        <v>0.9006939030807815</v>
+        <v>0.9006939030807827</v>
       </c>
       <c r="L13">
-        <v>0.904797779891831</v>
+        <v>0.904797779891832</v>
       </c>
       <c r="M13">
-        <v>0.9003812762909994</v>
+        <v>0.9003812762910006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8639006221903838</v>
+        <v>0.8639006221903842</v>
       </c>
       <c r="D14">
-        <v>0.8864135723608649</v>
+        <v>0.8864135723608656</v>
       </c>
       <c r="E14">
-        <v>0.8904402420903299</v>
+        <v>0.8904402420903302</v>
       </c>
       <c r="F14">
-        <v>0.8863497927015415</v>
+        <v>0.8863497927015417</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018250261954513</v>
       </c>
       <c r="J14">
-        <v>0.9003260333277953</v>
+        <v>0.9003260333277958</v>
       </c>
       <c r="K14">
-        <v>0.9038708666795277</v>
+        <v>0.9038708666795283</v>
       </c>
       <c r="L14">
-        <v>0.9077933726700174</v>
+        <v>0.9077933726700179</v>
       </c>
       <c r="M14">
-        <v>0.9038087472187194</v>
+        <v>0.9038087472187198</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8662689203014163</v>
+        <v>0.8662689203014169</v>
       </c>
       <c r="D15">
-        <v>0.8884949043826601</v>
+        <v>0.8884949043826605</v>
       </c>
       <c r="E15">
-        <v>0.8924077028923133</v>
+        <v>0.8924077028923137</v>
       </c>
       <c r="F15">
-        <v>0.888586730070127</v>
+        <v>0.8885867300701276</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018815041471686</v>
       </c>
       <c r="J15">
-        <v>0.9023050787242408</v>
+        <v>0.9023050787242413</v>
       </c>
       <c r="K15">
-        <v>0.9057920708745364</v>
+        <v>0.9057920708745369</v>
       </c>
       <c r="L15">
-        <v>0.9096049880359376</v>
+        <v>0.909604988035938</v>
       </c>
       <c r="M15">
-        <v>0.9058815389067972</v>
+        <v>0.9058815389067978</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.879429879792535</v>
+        <v>0.8794298797925338</v>
       </c>
       <c r="D16">
-        <v>0.9000757585358121</v>
+        <v>0.900075758535811</v>
       </c>
       <c r="E16">
-        <v>0.9033581965772542</v>
+        <v>0.9033581965772534</v>
       </c>
       <c r="F16">
-        <v>0.9010317140578955</v>
+        <v>0.9010317140578946</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021951153899586</v>
       </c>
       <c r="J16">
-        <v>0.9133082067189763</v>
+        <v>0.9133082067189751</v>
       </c>
       <c r="K16">
-        <v>0.9164755500364083</v>
+        <v>0.9164755500364069</v>
       </c>
       <c r="L16">
-        <v>0.9196803388380748</v>
+        <v>0.9196803388380737</v>
       </c>
       <c r="M16">
-        <v>0.917408813213446</v>
+        <v>0.9174088132134451</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8871999449191942</v>
+        <v>0.8871999449191933</v>
       </c>
       <c r="D17">
-        <v>0.9069241151068097</v>
+        <v>0.9069241151068093</v>
       </c>
       <c r="E17">
-        <v>0.9098363671869675</v>
+        <v>0.9098363671869669</v>
       </c>
       <c r="F17">
-        <v>0.9083892531320159</v>
+        <v>0.9083892531320151</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023799147722369</v>
+        <v>1.023799147722368</v>
       </c>
       <c r="J17">
-        <v>0.9198077693081745</v>
+        <v>0.9198077693081737</v>
       </c>
       <c r="K17">
-        <v>0.9227878505591021</v>
+        <v>0.9227878505591014</v>
       </c>
       <c r="L17">
-        <v>0.9256343645681886</v>
+        <v>0.9256343645681878</v>
       </c>
       <c r="M17">
-        <v>0.9242198458633691</v>
+        <v>0.9242198458633681</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8915785420171991</v>
+        <v>0.8915785420171984</v>
       </c>
       <c r="D18">
-        <v>0.9107868045116958</v>
+        <v>0.9107868045116952</v>
       </c>
       <c r="E18">
-        <v>0.9134911059199524</v>
+        <v>0.9134911059199518</v>
       </c>
       <c r="F18">
         <v>0.9125383649726726</v>
@@ -1047,16 +1047,16 @@
         <v>1.024838785382403</v>
       </c>
       <c r="J18">
-        <v>0.9234712648912554</v>
+        <v>0.923471264891255</v>
       </c>
       <c r="K18">
-        <v>0.9263463101650904</v>
+        <v>0.9263463101650898</v>
       </c>
       <c r="L18">
-        <v>0.9289911994517238</v>
+        <v>0.9289911994517231</v>
       </c>
       <c r="M18">
-        <v>0.9280593363314492</v>
+        <v>0.9280593363314488</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8930472192742781</v>
+        <v>0.8930472192742773</v>
       </c>
       <c r="D19">
-        <v>0.9120829859295824</v>
+        <v>0.9120829859295817</v>
       </c>
       <c r="E19">
-        <v>0.9147176433904604</v>
+        <v>0.9147176433904595</v>
       </c>
       <c r="F19">
-        <v>0.9139305190320309</v>
+        <v>0.9139305190320305</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025187166437323</v>
       </c>
       <c r="J19">
-        <v>0.9247001948056118</v>
+        <v>0.9247001948056111</v>
       </c>
       <c r="K19">
-        <v>0.9275400892498651</v>
+        <v>0.9275400892498644</v>
       </c>
       <c r="L19">
-        <v>0.9301173950239358</v>
+        <v>0.9301173950239349</v>
       </c>
       <c r="M19">
-        <v>0.9293473589342164</v>
+        <v>0.9293473589342161</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8863826010500986</v>
+        <v>0.8863826010500995</v>
       </c>
       <c r="D20">
-        <v>0.906203350310223</v>
+        <v>0.9062033503102238</v>
       </c>
       <c r="E20">
-        <v>0.9091544728674563</v>
+        <v>0.9091544728674569</v>
       </c>
       <c r="F20">
-        <v>0.9076149772614084</v>
+        <v>0.9076149772614087</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023604927738732</v>
       </c>
       <c r="J20">
-        <v>0.919123974006622</v>
+        <v>0.9191239740066228</v>
       </c>
       <c r="K20">
-        <v>0.922123701589579</v>
+        <v>0.9221237015895797</v>
       </c>
       <c r="L20">
-        <v>0.9250078746226491</v>
+        <v>0.9250078746226498</v>
       </c>
       <c r="M20">
-        <v>0.923503231721294</v>
+        <v>0.9235032317212946</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8627566657145592</v>
+        <v>0.8627566657145599</v>
       </c>
       <c r="D21">
-        <v>0.8854085241992002</v>
+        <v>0.8854085241992005</v>
       </c>
       <c r="E21">
-        <v>0.8894902444400127</v>
+        <v>0.8894902444400129</v>
       </c>
       <c r="F21">
-        <v>0.8852695800428709</v>
+        <v>0.8852695800428714</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017977435778627</v>
       </c>
       <c r="J21">
-        <v>0.8993702146683271</v>
+        <v>0.8993702146683276</v>
       </c>
       <c r="K21">
-        <v>0.9029430214702704</v>
+        <v>0.9029430214702708</v>
       </c>
       <c r="L21">
-        <v>0.9069184781043175</v>
+        <v>0.9069184781043178</v>
       </c>
       <c r="M21">
-        <v>0.902807717975065</v>
+        <v>0.9028077179750654</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>0.8459748674239743</v>
+        <v>0.8459748674239791</v>
       </c>
       <c r="D22">
-        <v>0.8706874069253625</v>
+        <v>0.8706874069253672</v>
       </c>
       <c r="E22">
-        <v>0.8755802261522804</v>
+        <v>0.8755802261522845</v>
       </c>
       <c r="F22">
-        <v>0.8694464099059099</v>
+        <v>0.8694464099059138</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013975789205301</v>
+        <v>1.013975789205302</v>
       </c>
       <c r="J22">
-        <v>0.8853583867284388</v>
+        <v>0.8853583867284432</v>
       </c>
       <c r="K22">
-        <v>0.8893441003952615</v>
+        <v>0.8893441003952659</v>
       </c>
       <c r="L22">
-        <v>0.8940974505993458</v>
+        <v>0.8940974505993494</v>
       </c>
       <c r="M22">
-        <v>0.8881388197784764</v>
+        <v>0.8881388197784805</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8550885821947348</v>
+        <v>0.8550885821947338</v>
       </c>
       <c r="D23">
-        <v>0.8786766243922973</v>
+        <v>0.8786766243922967</v>
       </c>
       <c r="E23">
-        <v>0.8831281474342488</v>
+        <v>0.8831281474342479</v>
       </c>
       <c r="F23">
-        <v>0.878033899070588</v>
+        <v>0.878033899070587</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016148577884353</v>
       </c>
       <c r="J23">
-        <v>0.8929653672266914</v>
+        <v>0.8929653672266904</v>
       </c>
       <c r="K23">
-        <v>0.8967262577016304</v>
+        <v>0.8967262577016297</v>
       </c>
       <c r="L23">
-        <v>0.9010569076944849</v>
+        <v>0.9010569076944839</v>
       </c>
       <c r="M23">
-        <v>0.8961011223973768</v>
+        <v>0.896101122397376</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.886752393020151</v>
+        <v>0.8867523930201555</v>
       </c>
       <c r="D24">
-        <v>0.9065294360505012</v>
+        <v>0.9065294360505055</v>
       </c>
       <c r="E24">
-        <v>0.9094629703389164</v>
+        <v>0.9094629703389204</v>
       </c>
       <c r="F24">
-        <v>0.9079652747326843</v>
+        <v>0.907965274732688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023692804531867</v>
+        <v>1.023692804531868</v>
       </c>
       <c r="J24">
-        <v>0.9194333418373583</v>
+        <v>0.9194333418373624</v>
       </c>
       <c r="K24">
-        <v>0.9224241792753676</v>
+        <v>0.9224241792753717</v>
       </c>
       <c r="L24">
-        <v>0.9252913133378141</v>
+        <v>0.9252913133378182</v>
       </c>
       <c r="M24">
-        <v>0.9238274463947598</v>
+        <v>0.9238274463947636</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.917522080431016</v>
+        <v>0.9175220804310182</v>
       </c>
       <c r="D25">
-        <v>0.9337218954400531</v>
+        <v>0.9337218954400552</v>
       </c>
       <c r="E25">
-        <v>0.9352041264799021</v>
+        <v>0.935204126479904</v>
       </c>
       <c r="F25">
-        <v>0.9371584605202636</v>
+        <v>0.937158460520265</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030958228118989</v>
+        <v>1.03095822811899</v>
       </c>
       <c r="J25">
-        <v>0.9451839660062198</v>
+        <v>0.9451839660062216</v>
       </c>
       <c r="K25">
-        <v>0.9474443108943563</v>
+        <v>0.9474443108943581</v>
       </c>
       <c r="L25">
-        <v>0.9488991327144664</v>
+        <v>0.9488991327144682</v>
       </c>
       <c r="M25">
-        <v>0.9508175000813017</v>
+        <v>0.9508175000813029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388685249519497</v>
+        <v>0.9388685249519494</v>
       </c>
       <c r="D2">
-        <v>0.9526494840346601</v>
+        <v>0.9526494840346595</v>
       </c>
       <c r="E2">
-        <v>0.9531398457626287</v>
+        <v>0.9531398457626282</v>
       </c>
       <c r="F2">
         <v>0.9574483746524478</v>
@@ -439,16 +439,16 @@
         <v>1.035912032281259</v>
       </c>
       <c r="J2">
-        <v>0.9630451709914017</v>
+        <v>0.9630451709914014</v>
       </c>
       <c r="K2">
-        <v>0.9648104267525169</v>
+        <v>0.9648104267525165</v>
       </c>
       <c r="L2">
-        <v>0.9652930656161069</v>
+        <v>0.9652930656161064</v>
       </c>
       <c r="M2">
-        <v>0.9695341727913889</v>
+        <v>0.9695341727913888</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9530001763524644</v>
+        <v>0.9530001763524646</v>
       </c>
       <c r="D3">
         <v>0.9652047430049697</v>
       </c>
       <c r="E3">
-        <v>0.9650458409855318</v>
+        <v>0.9650458409855319</v>
       </c>
       <c r="F3">
-        <v>0.9708877213658386</v>
+        <v>0.9708877213658383</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>0.9763030842206586</v>
       </c>
       <c r="L3">
-        <v>0.9761464050269346</v>
+        <v>0.9761464050269347</v>
       </c>
       <c r="M3">
-        <v>0.9819071683009621</v>
+        <v>0.9819071683009619</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9616229102857354</v>
+        <v>0.9616229102857351</v>
       </c>
       <c r="D4">
-        <v>0.9728745002290928</v>
+        <v>0.9728745002290926</v>
       </c>
       <c r="E4">
-        <v>0.9723225398353492</v>
+        <v>0.972322539835349</v>
       </c>
       <c r="F4">
-        <v>0.9790880204455824</v>
+        <v>0.9790880204455821</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041063655474036</v>
+        <v>1.041063655474035</v>
       </c>
       <c r="J4">
-        <v>0.9820619967013314</v>
+        <v>0.9820619967013312</v>
       </c>
       <c r="K4">
-        <v>0.9833117194512188</v>
+        <v>0.9833117194512185</v>
       </c>
       <c r="L4">
-        <v>0.9827668984650029</v>
+        <v>0.9827668984650026</v>
       </c>
       <c r="M4">
-        <v>0.9894455637403999</v>
+        <v>0.9894455637403997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9651363581406256</v>
+        <v>0.965136358140626</v>
       </c>
       <c r="D5">
-        <v>0.9760014665053919</v>
+        <v>0.9760014665053921</v>
       </c>
       <c r="E5">
-        <v>0.9752900588988189</v>
+        <v>0.9752900588988195</v>
       </c>
       <c r="F5">
-        <v>0.9824289400463903</v>
+        <v>0.9824289400463905</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.041843536806222</v>
       </c>
       <c r="J5">
-        <v>0.9849949345899702</v>
+        <v>0.9849949345899707</v>
       </c>
       <c r="K5">
-        <v>0.9861663096741725</v>
+        <v>0.9861663096741727</v>
       </c>
       <c r="L5">
-        <v>0.9854638013558283</v>
+        <v>0.985463801355829</v>
       </c>
       <c r="M5">
-        <v>0.992514106335088</v>
+        <v>0.9925141063350881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9657200823504549</v>
+        <v>0.9657200823504545</v>
       </c>
       <c r="D6">
-        <v>0.9765210797924772</v>
+        <v>0.9765210797924768</v>
       </c>
       <c r="E6">
-        <v>0.9757832225055288</v>
+        <v>0.9757832225055284</v>
       </c>
       <c r="F6">
         <v>0.9829839663286525</v>
@@ -591,13 +591,13 @@
         <v>1.041972639724243</v>
       </c>
       <c r="J6">
-        <v>0.9854821026397081</v>
+        <v>0.9854821026397077</v>
       </c>
       <c r="K6">
-        <v>0.9866404958776287</v>
+        <v>0.9866404958776284</v>
       </c>
       <c r="L6">
-        <v>0.9859118167932355</v>
+        <v>0.9859118167932353</v>
       </c>
       <c r="M6">
         <v>0.9930237229175723</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616702796795717</v>
+        <v>0.9616702796795724</v>
       </c>
       <c r="D7">
-        <v>0.9729166520867658</v>
+        <v>0.9729166520867663</v>
       </c>
       <c r="E7">
-        <v>0.9723625391943229</v>
+        <v>0.9723625391943234</v>
       </c>
       <c r="F7">
-        <v>0.9791330658415013</v>
+        <v>0.9791330658415015</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041074201400328</v>
       </c>
       <c r="J7">
-        <v>0.9821015468043135</v>
+        <v>0.9821015468043139</v>
       </c>
       <c r="K7">
-        <v>0.9833502108816766</v>
+        <v>0.9833502108816768</v>
       </c>
       <c r="L7">
-        <v>0.9828032620528453</v>
+        <v>0.9828032620528456</v>
       </c>
       <c r="M7">
-        <v>0.9894869474861017</v>
+        <v>0.989486947486102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9437611480763463</v>
+        <v>0.9437611480763459</v>
       </c>
       <c r="D8">
-        <v>0.9569942037833942</v>
+        <v>0.9569942037833933</v>
       </c>
       <c r="E8">
-        <v>0.9572590869610907</v>
+        <v>0.95725908696109</v>
       </c>
       <c r="F8">
-        <v>0.9621010378132934</v>
+        <v>0.9621010378132923</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.037032763839834</v>
       </c>
       <c r="J8">
-        <v>0.9671367655360289</v>
+        <v>0.9671367655360281</v>
       </c>
       <c r="K8">
-        <v>0.9687900458068575</v>
+        <v>0.9687900458068566</v>
       </c>
       <c r="L8">
-        <v>0.9690509199887047</v>
+        <v>0.9690509199887041</v>
       </c>
       <c r="M8">
-        <v>0.9738200829631749</v>
+        <v>0.973820082963174</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.907441402047085</v>
+        <v>0.9074414020470859</v>
       </c>
       <c r="D9">
-        <v>0.9248007097542483</v>
+        <v>0.9248007097542491</v>
       </c>
       <c r="E9">
-        <v>0.9267557066318293</v>
+        <v>0.92675570663183</v>
       </c>
       <c r="F9">
-        <v>0.9275855042578612</v>
+        <v>0.9275855042578622</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.02859035940552</v>
       </c>
       <c r="J9">
-        <v>0.9367466868886942</v>
+        <v>0.936746686888695</v>
       </c>
       <c r="K9">
-        <v>0.9392442789886782</v>
+        <v>0.9392442789886792</v>
       </c>
       <c r="L9">
-        <v>0.9411605206678347</v>
+        <v>0.9411605206678354</v>
       </c>
       <c r="M9">
-        <v>0.9419739335207786</v>
+        <v>0.9419739335207796</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8785295721786365</v>
+        <v>0.8785295721786367</v>
       </c>
       <c r="D10">
-        <v>0.8992827727124512</v>
+        <v>0.8992827727124518</v>
       </c>
       <c r="E10">
-        <v>0.9026081991653039</v>
+        <v>0.9026081991653041</v>
       </c>
       <c r="F10">
-        <v>0.9001796691608427</v>
+        <v>0.9001796691608432</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021736818833843</v>
       </c>
       <c r="J10">
-        <v>0.9125552569700824</v>
+        <v>0.912555256970083</v>
       </c>
       <c r="K10">
-        <v>0.915744368890909</v>
+        <v>0.9157443688909094</v>
       </c>
       <c r="L10">
-        <v>0.918990708471937</v>
+        <v>0.9189907084719374</v>
       </c>
       <c r="M10">
-        <v>0.9166198577108936</v>
+        <v>0.916619857710894</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,13 +763,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8643553049887742</v>
+        <v>0.8643553049887746</v>
       </c>
       <c r="D11">
-        <v>0.886813097563965</v>
+        <v>0.8868130975639654</v>
       </c>
       <c r="E11">
-        <v>0.8908178952040847</v>
+        <v>0.8908178952040855</v>
       </c>
       <c r="F11">
         <v>0.886779192882206</v>
@@ -781,16 +781,16 @@
         <v>1.018358697523652</v>
       </c>
       <c r="J11">
-        <v>0.9007059594374884</v>
+        <v>0.900705959437489</v>
       </c>
       <c r="K11">
-        <v>0.9042396805447549</v>
+        <v>0.9042396805447555</v>
       </c>
       <c r="L11">
-        <v>0.9081411433867679</v>
+        <v>0.9081411433867684</v>
       </c>
       <c r="M11">
-        <v>0.9042066560941362</v>
+        <v>0.9042066560941363</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8587687162193148</v>
+        <v>0.8587687162193132</v>
       </c>
       <c r="D12">
-        <v>0.8819063473943222</v>
+        <v>0.8819063473943207</v>
       </c>
       <c r="E12">
-        <v>0.8861802198359295</v>
+        <v>0.8861802198359282</v>
       </c>
       <c r="F12">
-        <v>0.8815053791087606</v>
+        <v>0.8815053791087588</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017026286165974</v>
+        <v>1.017026286165973</v>
       </c>
       <c r="J12">
-        <v>0.8960387616251959</v>
+        <v>0.8960387616251946</v>
       </c>
       <c r="K12">
-        <v>0.8997092611788008</v>
+        <v>0.8997092611787992</v>
       </c>
       <c r="L12">
-        <v>0.9038693886506178</v>
+        <v>0.9038693886506165</v>
       </c>
       <c r="M12">
-        <v>0.8993190412123696</v>
+        <v>0.8993190412123682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8599831659427972</v>
+        <v>0.8599831659427957</v>
       </c>
       <c r="D13">
-        <v>0.8829726123103306</v>
+        <v>0.8829726123103292</v>
       </c>
       <c r="E13">
-        <v>0.8871879291792353</v>
+        <v>0.8871879291792343</v>
       </c>
       <c r="F13">
-        <v>0.8826514353029102</v>
+        <v>0.8826514353029091</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.017315942769842</v>
       </c>
       <c r="J13">
-        <v>0.8970531824986568</v>
+        <v>0.8970531824986554</v>
       </c>
       <c r="K13">
-        <v>0.9006939030807827</v>
+        <v>0.9006939030807815</v>
       </c>
       <c r="L13">
-        <v>0.904797779891832</v>
+        <v>0.904797779891831</v>
       </c>
       <c r="M13">
-        <v>0.9003812762910006</v>
+        <v>0.9003812762909994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8639006221903842</v>
+        <v>0.8639006221903838</v>
       </c>
       <c r="D14">
-        <v>0.8864135723608656</v>
+        <v>0.8864135723608649</v>
       </c>
       <c r="E14">
-        <v>0.8904402420903302</v>
+        <v>0.8904402420903299</v>
       </c>
       <c r="F14">
-        <v>0.8863497927015417</v>
+        <v>0.8863497927015415</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018250261954513</v>
       </c>
       <c r="J14">
-        <v>0.9003260333277958</v>
+        <v>0.9003260333277953</v>
       </c>
       <c r="K14">
-        <v>0.9038708666795283</v>
+        <v>0.9038708666795277</v>
       </c>
       <c r="L14">
-        <v>0.9077933726700179</v>
+        <v>0.9077933726700174</v>
       </c>
       <c r="M14">
-        <v>0.9038087472187198</v>
+        <v>0.9038087472187194</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8662689203014169</v>
+        <v>0.8662689203014163</v>
       </c>
       <c r="D15">
-        <v>0.8884949043826605</v>
+        <v>0.8884949043826601</v>
       </c>
       <c r="E15">
-        <v>0.8924077028923137</v>
+        <v>0.8924077028923133</v>
       </c>
       <c r="F15">
-        <v>0.8885867300701276</v>
+        <v>0.888586730070127</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.018815041471686</v>
       </c>
       <c r="J15">
-        <v>0.9023050787242413</v>
+        <v>0.9023050787242408</v>
       </c>
       <c r="K15">
-        <v>0.9057920708745369</v>
+        <v>0.9057920708745364</v>
       </c>
       <c r="L15">
-        <v>0.909604988035938</v>
+        <v>0.9096049880359376</v>
       </c>
       <c r="M15">
-        <v>0.9058815389067978</v>
+        <v>0.9058815389067972</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8794298797925338</v>
+        <v>0.879429879792535</v>
       </c>
       <c r="D16">
-        <v>0.900075758535811</v>
+        <v>0.9000757585358121</v>
       </c>
       <c r="E16">
-        <v>0.9033581965772534</v>
+        <v>0.9033581965772542</v>
       </c>
       <c r="F16">
-        <v>0.9010317140578946</v>
+        <v>0.9010317140578955</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.021951153899586</v>
       </c>
       <c r="J16">
-        <v>0.9133082067189751</v>
+        <v>0.9133082067189763</v>
       </c>
       <c r="K16">
-        <v>0.9164755500364069</v>
+        <v>0.9164755500364083</v>
       </c>
       <c r="L16">
-        <v>0.9196803388380737</v>
+        <v>0.9196803388380748</v>
       </c>
       <c r="M16">
-        <v>0.9174088132134451</v>
+        <v>0.917408813213446</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8871999449191933</v>
+        <v>0.8871999449191942</v>
       </c>
       <c r="D17">
-        <v>0.9069241151068093</v>
+        <v>0.9069241151068097</v>
       </c>
       <c r="E17">
-        <v>0.9098363671869669</v>
+        <v>0.9098363671869675</v>
       </c>
       <c r="F17">
-        <v>0.9083892531320151</v>
+        <v>0.9083892531320159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023799147722368</v>
+        <v>1.023799147722369</v>
       </c>
       <c r="J17">
-        <v>0.9198077693081737</v>
+        <v>0.9198077693081745</v>
       </c>
       <c r="K17">
-        <v>0.9227878505591014</v>
+        <v>0.9227878505591021</v>
       </c>
       <c r="L17">
-        <v>0.9256343645681878</v>
+        <v>0.9256343645681886</v>
       </c>
       <c r="M17">
-        <v>0.9242198458633681</v>
+        <v>0.9242198458633691</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8915785420171984</v>
+        <v>0.8915785420171991</v>
       </c>
       <c r="D18">
-        <v>0.9107868045116952</v>
+        <v>0.9107868045116958</v>
       </c>
       <c r="E18">
-        <v>0.9134911059199518</v>
+        <v>0.9134911059199524</v>
       </c>
       <c r="F18">
         <v>0.9125383649726726</v>
@@ -1047,16 +1047,16 @@
         <v>1.024838785382403</v>
       </c>
       <c r="J18">
-        <v>0.923471264891255</v>
+        <v>0.9234712648912554</v>
       </c>
       <c r="K18">
-        <v>0.9263463101650898</v>
+        <v>0.9263463101650904</v>
       </c>
       <c r="L18">
-        <v>0.9289911994517231</v>
+        <v>0.9289911994517238</v>
       </c>
       <c r="M18">
-        <v>0.9280593363314488</v>
+        <v>0.9280593363314492</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8930472192742773</v>
+        <v>0.8930472192742781</v>
       </c>
       <c r="D19">
-        <v>0.9120829859295817</v>
+        <v>0.9120829859295824</v>
       </c>
       <c r="E19">
-        <v>0.9147176433904595</v>
+        <v>0.9147176433904604</v>
       </c>
       <c r="F19">
-        <v>0.9139305190320305</v>
+        <v>0.9139305190320309</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.025187166437323</v>
       </c>
       <c r="J19">
-        <v>0.9247001948056111</v>
+        <v>0.9247001948056118</v>
       </c>
       <c r="K19">
-        <v>0.9275400892498644</v>
+        <v>0.9275400892498651</v>
       </c>
       <c r="L19">
-        <v>0.9301173950239349</v>
+        <v>0.9301173950239358</v>
       </c>
       <c r="M19">
-        <v>0.9293473589342161</v>
+        <v>0.9293473589342164</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8863826010500995</v>
+        <v>0.8863826010500986</v>
       </c>
       <c r="D20">
-        <v>0.9062033503102238</v>
+        <v>0.906203350310223</v>
       </c>
       <c r="E20">
-        <v>0.9091544728674569</v>
+        <v>0.9091544728674563</v>
       </c>
       <c r="F20">
-        <v>0.9076149772614087</v>
+        <v>0.9076149772614084</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023604927738732</v>
       </c>
       <c r="J20">
-        <v>0.9191239740066228</v>
+        <v>0.919123974006622</v>
       </c>
       <c r="K20">
-        <v>0.9221237015895797</v>
+        <v>0.922123701589579</v>
       </c>
       <c r="L20">
-        <v>0.9250078746226498</v>
+        <v>0.9250078746226491</v>
       </c>
       <c r="M20">
-        <v>0.9235032317212946</v>
+        <v>0.923503231721294</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8627566657145599</v>
+        <v>0.8627566657145592</v>
       </c>
       <c r="D21">
-        <v>0.8854085241992005</v>
+        <v>0.8854085241992002</v>
       </c>
       <c r="E21">
-        <v>0.8894902444400129</v>
+        <v>0.8894902444400127</v>
       </c>
       <c r="F21">
-        <v>0.8852695800428714</v>
+        <v>0.8852695800428709</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.017977435778627</v>
       </c>
       <c r="J21">
-        <v>0.8993702146683276</v>
+        <v>0.8993702146683271</v>
       </c>
       <c r="K21">
-        <v>0.9029430214702708</v>
+        <v>0.9029430214702704</v>
       </c>
       <c r="L21">
-        <v>0.9069184781043178</v>
+        <v>0.9069184781043175</v>
       </c>
       <c r="M21">
-        <v>0.9028077179750654</v>
+        <v>0.902807717975065</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8459748674239791</v>
+        <v>0.8459748674239743</v>
       </c>
       <c r="D22">
-        <v>0.8706874069253672</v>
+        <v>0.8706874069253625</v>
       </c>
       <c r="E22">
-        <v>0.8755802261522845</v>
+        <v>0.8755802261522804</v>
       </c>
       <c r="F22">
-        <v>0.8694464099059138</v>
+        <v>0.8694464099059099</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013975789205302</v>
+        <v>1.013975789205301</v>
       </c>
       <c r="J22">
-        <v>0.8853583867284432</v>
+        <v>0.8853583867284388</v>
       </c>
       <c r="K22">
-        <v>0.8893441003952659</v>
+        <v>0.8893441003952615</v>
       </c>
       <c r="L22">
-        <v>0.8940974505993494</v>
+        <v>0.8940974505993458</v>
       </c>
       <c r="M22">
-        <v>0.8881388197784805</v>
+        <v>0.8881388197784764</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8550885821947338</v>
+        <v>0.8550885821947348</v>
       </c>
       <c r="D23">
-        <v>0.8786766243922967</v>
+        <v>0.8786766243922973</v>
       </c>
       <c r="E23">
-        <v>0.8831281474342479</v>
+        <v>0.8831281474342488</v>
       </c>
       <c r="F23">
-        <v>0.878033899070587</v>
+        <v>0.878033899070588</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.016148577884353</v>
       </c>
       <c r="J23">
-        <v>0.8929653672266904</v>
+        <v>0.8929653672266914</v>
       </c>
       <c r="K23">
-        <v>0.8967262577016297</v>
+        <v>0.8967262577016304</v>
       </c>
       <c r="L23">
-        <v>0.9010569076944839</v>
+        <v>0.9010569076944849</v>
       </c>
       <c r="M23">
-        <v>0.896101122397376</v>
+        <v>0.8961011223973768</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8867523930201555</v>
+        <v>0.886752393020151</v>
       </c>
       <c r="D24">
-        <v>0.9065294360505055</v>
+        <v>0.9065294360505012</v>
       </c>
       <c r="E24">
-        <v>0.9094629703389204</v>
+        <v>0.9094629703389164</v>
       </c>
       <c r="F24">
-        <v>0.907965274732688</v>
+        <v>0.9079652747326843</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023692804531868</v>
+        <v>1.023692804531867</v>
       </c>
       <c r="J24">
-        <v>0.9194333418373624</v>
+        <v>0.9194333418373583</v>
       </c>
       <c r="K24">
-        <v>0.9224241792753717</v>
+        <v>0.9224241792753676</v>
       </c>
       <c r="L24">
-        <v>0.9252913133378182</v>
+        <v>0.9252913133378141</v>
       </c>
       <c r="M24">
-        <v>0.9238274463947636</v>
+        <v>0.9238274463947598</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9175220804310182</v>
+        <v>0.917522080431016</v>
       </c>
       <c r="D25">
-        <v>0.9337218954400552</v>
+        <v>0.9337218954400531</v>
       </c>
       <c r="E25">
-        <v>0.935204126479904</v>
+        <v>0.9352041264799021</v>
       </c>
       <c r="F25">
-        <v>0.937158460520265</v>
+        <v>0.9371584605202636</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03095822811899</v>
+        <v>1.030958228118989</v>
       </c>
       <c r="J25">
-        <v>0.9451839660062216</v>
+        <v>0.9451839660062198</v>
       </c>
       <c r="K25">
-        <v>0.9474443108943581</v>
+        <v>0.9474443108943563</v>
       </c>
       <c r="L25">
-        <v>0.9488991327144682</v>
+        <v>0.9488991327144664</v>
       </c>
       <c r="M25">
-        <v>0.9508175000813029</v>
+        <v>0.9508175000813017</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9388685249519494</v>
+        <v>0.9421075119023322</v>
       </c>
       <c r="D2">
-        <v>0.9526494840346595</v>
+        <v>0.9556009059035487</v>
       </c>
       <c r="E2">
-        <v>0.9531398457626282</v>
+        <v>0.9559222274116776</v>
       </c>
       <c r="F2">
-        <v>0.9574483746524478</v>
+        <v>0.9601152204756809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035912032281259</v>
+        <v>1.036567554812133</v>
       </c>
       <c r="J2">
-        <v>0.9630451709914014</v>
+        <v>0.9661692935183692</v>
       </c>
       <c r="K2">
-        <v>0.9648104267525165</v>
+        <v>0.9677155188181644</v>
       </c>
       <c r="L2">
-        <v>0.9652930656161064</v>
+        <v>0.9680318184780626</v>
       </c>
       <c r="M2">
-        <v>0.9695341727913888</v>
+        <v>0.9721596738539435</v>
+      </c>
+      <c r="N2">
+        <v>0.9675413647363323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9530001763524646</v>
+        <v>0.9561841484287362</v>
       </c>
       <c r="D3">
-        <v>0.9652047430049697</v>
+        <v>0.9681114420647704</v>
       </c>
       <c r="E3">
-        <v>0.9650458409855319</v>
+        <v>0.9677862515079082</v>
       </c>
       <c r="F3">
-        <v>0.9708877213658383</v>
+        <v>0.9735027886499675</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039130619846619</v>
+        <v>1.039774218545565</v>
       </c>
       <c r="J3">
-        <v>0.9748596067474485</v>
+        <v>0.9779449831350155</v>
       </c>
       <c r="K3">
-        <v>0.9763030842206586</v>
+        <v>0.9791692848898287</v>
       </c>
       <c r="L3">
-        <v>0.9761464050269347</v>
+        <v>0.9788486098938112</v>
       </c>
       <c r="M3">
-        <v>0.9819071683009619</v>
+        <v>0.9844863215208128</v>
+      </c>
+      <c r="N3">
+        <v>0.9793337771829248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9616229102857351</v>
+        <v>0.9647770746577619</v>
       </c>
       <c r="D4">
-        <v>0.9728745002290926</v>
+        <v>0.9757570697684078</v>
       </c>
       <c r="E4">
-        <v>0.972322539835349</v>
+        <v>0.9750403050578725</v>
       </c>
       <c r="F4">
-        <v>0.9790880204455821</v>
+        <v>0.9816748517183481</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041063655474035</v>
+        <v>1.041700834543412</v>
       </c>
       <c r="J4">
-        <v>0.9820619967013312</v>
+        <v>0.9851268152111673</v>
       </c>
       <c r="K4">
-        <v>0.9833117194512185</v>
+        <v>0.9861571680770671</v>
       </c>
       <c r="L4">
-        <v>0.9827668984650026</v>
+        <v>0.9854496080221662</v>
       </c>
       <c r="M4">
-        <v>0.9894455637403997</v>
+        <v>0.9919995952545053</v>
+      </c>
+      <c r="N4">
+        <v>0.9865258082843922</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.965136358140626</v>
+        <v>0.9682791420003306</v>
       </c>
       <c r="D5">
-        <v>0.9760014665053921</v>
+        <v>0.9788748482643601</v>
       </c>
       <c r="E5">
-        <v>0.9752900588988195</v>
+        <v>0.9779992015878793</v>
       </c>
       <c r="F5">
-        <v>0.9824289400463905</v>
+        <v>0.9850049517818597</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041843536806222</v>
+        <v>1.04247827780875</v>
       </c>
       <c r="J5">
-        <v>0.9849949345899707</v>
+        <v>0.9880520064825129</v>
       </c>
       <c r="K5">
-        <v>0.9861663096741727</v>
+        <v>0.9890039110754665</v>
       </c>
       <c r="L5">
-        <v>0.985463801355829</v>
+        <v>0.9881391405126158</v>
       </c>
       <c r="M5">
-        <v>0.9925141063350881</v>
+        <v>0.9950585479850775</v>
+      </c>
+      <c r="N5">
+        <v>0.9894551536628673</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9657200823504545</v>
+        <v>0.9688610170993419</v>
       </c>
       <c r="D6">
-        <v>0.9765210797924768</v>
+        <v>0.9793929702003222</v>
       </c>
       <c r="E6">
-        <v>0.9757832225055284</v>
+        <v>0.9784909656050201</v>
       </c>
       <c r="F6">
-        <v>0.9829839663286525</v>
+        <v>0.9855582179036849</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041972639724243</v>
+        <v>1.042606985445775</v>
       </c>
       <c r="J6">
-        <v>0.9854821026397077</v>
+        <v>0.9885379218794593</v>
       </c>
       <c r="K6">
-        <v>0.9866404958776284</v>
+        <v>0.9894768267403268</v>
       </c>
       <c r="L6">
-        <v>0.9859118167932353</v>
+        <v>0.9885859627110631</v>
       </c>
       <c r="M6">
-        <v>0.9930237229175723</v>
+        <v>0.9955666066030214</v>
+      </c>
+      <c r="N6">
+        <v>0.9899417591154128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9616702796795724</v>
+        <v>0.9648242877303492</v>
       </c>
       <c r="D7">
-        <v>0.9729166520867663</v>
+        <v>0.9757990953220563</v>
       </c>
       <c r="E7">
-        <v>0.9723625391943234</v>
+        <v>0.9750801858825857</v>
       </c>
       <c r="F7">
-        <v>0.9791330658415015</v>
+        <v>0.9817197486524056</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041074201400328</v>
+        <v>1.041711346923741</v>
       </c>
       <c r="J7">
-        <v>0.9821015468043139</v>
+        <v>0.9851662584921315</v>
       </c>
       <c r="K7">
-        <v>0.9833502108816768</v>
+        <v>0.9861955514101959</v>
       </c>
       <c r="L7">
-        <v>0.9828032620528456</v>
+        <v>0.9854858700743736</v>
       </c>
       <c r="M7">
-        <v>0.989486947486102</v>
+        <v>0.9920408472636609</v>
+      </c>
+      <c r="N7">
+        <v>0.9865653075793396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9437611480763459</v>
+        <v>0.9469801803168552</v>
       </c>
       <c r="D8">
-        <v>0.9569942037833933</v>
+        <v>0.959929380554624</v>
       </c>
       <c r="E8">
-        <v>0.95725908696109</v>
+        <v>0.9600262232779275</v>
       </c>
       <c r="F8">
-        <v>0.9621010378132923</v>
+        <v>0.9647491485066791</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037032763839834</v>
+        <v>1.037683954100924</v>
       </c>
       <c r="J8">
-        <v>0.9671367655360281</v>
+        <v>0.9702467311312978</v>
       </c>
       <c r="K8">
-        <v>0.9687900458068566</v>
+        <v>0.971680956106304</v>
       </c>
       <c r="L8">
-        <v>0.9690509199887041</v>
+        <v>0.9717763441807109</v>
       </c>
       <c r="M8">
-        <v>0.973820082963174</v>
+        <v>0.9764287781067555</v>
+      </c>
+      <c r="N8">
+        <v>0.9716245927783597</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9074414020470859</v>
+        <v>0.9108347945083733</v>
       </c>
       <c r="D9">
-        <v>0.9248007097542491</v>
+        <v>0.9278784054698387</v>
       </c>
       <c r="E9">
-        <v>0.92675570663183</v>
+        <v>0.9296565739986612</v>
       </c>
       <c r="F9">
-        <v>0.9275855042578622</v>
+        <v>0.9303959394538251</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02859035940552</v>
+        <v>1.02927945117561</v>
       </c>
       <c r="J9">
-        <v>0.936746686888695</v>
+        <v>0.9399830748398447</v>
       </c>
       <c r="K9">
-        <v>0.9392442789886792</v>
+        <v>0.9422610604395603</v>
       </c>
       <c r="L9">
-        <v>0.9411605206678354</v>
+        <v>0.9440042764089491</v>
       </c>
       <c r="M9">
-        <v>0.9419739335207796</v>
+        <v>0.944729160128849</v>
+      </c>
+      <c r="N9">
+        <v>0.9413179586236829</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8785295721786367</v>
+        <v>0.8821149044096028</v>
       </c>
       <c r="D10">
-        <v>0.8992827727124518</v>
+        <v>0.9025181679919267</v>
       </c>
       <c r="E10">
-        <v>0.9026081991653041</v>
+        <v>0.9056569899845822</v>
       </c>
       <c r="F10">
-        <v>0.9001796691608432</v>
+        <v>0.9031661640944124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021736818833843</v>
+        <v>1.022467407656572</v>
       </c>
       <c r="J10">
-        <v>0.912555256970083</v>
+        <v>0.9159352336335301</v>
       </c>
       <c r="K10">
-        <v>0.9157443688909094</v>
+        <v>0.9189028081726406</v>
       </c>
       <c r="L10">
-        <v>0.9189907084719374</v>
+        <v>0.9219676748638754</v>
       </c>
       <c r="M10">
-        <v>0.916619857710894</v>
+        <v>0.9195354800859492</v>
+      </c>
+      <c r="N10">
+        <v>0.9172359667245297</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8643553049887746</v>
+        <v>0.8680576060192992</v>
       </c>
       <c r="D11">
-        <v>0.8868130975639654</v>
+        <v>0.8901447706210759</v>
       </c>
       <c r="E11">
-        <v>0.8908178952040855</v>
+        <v>0.8939569694602209</v>
       </c>
       <c r="F11">
-        <v>0.886779192882206</v>
+        <v>0.8898720527147365</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018358697523652</v>
+        <v>1.019114389883821</v>
       </c>
       <c r="J11">
-        <v>0.900705959437489</v>
+        <v>0.9041747058255963</v>
       </c>
       <c r="K11">
-        <v>0.9042396805447555</v>
+        <v>0.9074852993233897</v>
       </c>
       <c r="L11">
-        <v>0.9081411433867684</v>
+        <v>0.9112000953123253</v>
       </c>
       <c r="M11">
-        <v>0.9042066560941363</v>
+        <v>0.9072195927268348</v>
+      </c>
+      <c r="N11">
+        <v>0.9054587376181572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8587687162193132</v>
+        <v>0.8625221318113858</v>
       </c>
       <c r="D12">
-        <v>0.8819063473943207</v>
+        <v>0.8852801152207783</v>
       </c>
       <c r="E12">
-        <v>0.8861802198359282</v>
+        <v>0.8893587624431822</v>
       </c>
       <c r="F12">
-        <v>0.8815053791087588</v>
+        <v>0.884644544545752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017026286165973</v>
+        <v>1.017792905428933</v>
       </c>
       <c r="J12">
-        <v>0.8960387616251946</v>
+        <v>0.8995465116619916</v>
       </c>
       <c r="K12">
-        <v>0.8997092611787992</v>
+        <v>0.9029931155146855</v>
       </c>
       <c r="L12">
-        <v>0.9038693886506165</v>
+        <v>0.9069642982277437</v>
       </c>
       <c r="M12">
-        <v>0.8993190412123682</v>
+        <v>0.9023744120950243</v>
+      </c>
+      <c r="N12">
+        <v>0.9008239708879787</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8599831659427957</v>
+        <v>0.8637252091701417</v>
       </c>
       <c r="D13">
-        <v>0.8829726123103292</v>
+        <v>0.8863370136953052</v>
       </c>
       <c r="E13">
-        <v>0.8871879291792343</v>
+        <v>0.8903576900231475</v>
       </c>
       <c r="F13">
-        <v>0.8826514353029091</v>
+        <v>0.8857803067387852</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017315942769842</v>
+        <v>1.018080133129344</v>
       </c>
       <c r="J13">
-        <v>0.8970531824986554</v>
+        <v>0.9005522449623602</v>
       </c>
       <c r="K13">
-        <v>0.9006939030807815</v>
+        <v>0.9039692441723827</v>
       </c>
       <c r="L13">
-        <v>0.904797779891831</v>
+        <v>0.907884683414654</v>
       </c>
       <c r="M13">
-        <v>0.9003812762909994</v>
+        <v>0.9034272106307077</v>
+      </c>
+      <c r="N13">
+        <v>0.901831132444993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8639006221903838</v>
+        <v>0.8676069707048362</v>
       </c>
       <c r="D14">
-        <v>0.8864135723608649</v>
+        <v>0.8897485782826496</v>
       </c>
       <c r="E14">
-        <v>0.8904402420903299</v>
+        <v>0.8935824413822914</v>
       </c>
       <c r="F14">
-        <v>0.8863497927015415</v>
+        <v>0.8894463228448325</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018250261954513</v>
+        <v>1.019006820491141</v>
       </c>
       <c r="J14">
-        <v>0.9003260333277953</v>
+        <v>0.903797863977237</v>
       </c>
       <c r="K14">
-        <v>0.9038708666795277</v>
+        <v>0.9071195103831995</v>
       </c>
       <c r="L14">
-        <v>0.9077933726700174</v>
+        <v>0.9108551693114795</v>
       </c>
       <c r="M14">
-        <v>0.9038087472187194</v>
+        <v>0.9068250459335543</v>
+      </c>
+      <c r="N14">
+        <v>0.9050813606111486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8662689203014163</v>
+        <v>0.8699543985189412</v>
       </c>
       <c r="D15">
-        <v>0.8884949043826601</v>
+        <v>0.891812725654597</v>
       </c>
       <c r="E15">
-        <v>0.8924077028923133</v>
+        <v>0.8955337889015532</v>
       </c>
       <c r="F15">
-        <v>0.888586730070127</v>
+        <v>0.8916643278315793</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018815041471686</v>
+        <v>1.01956713193949</v>
       </c>
       <c r="J15">
-        <v>0.9023050787242408</v>
+        <v>0.9057610140341316</v>
       </c>
       <c r="K15">
-        <v>0.9057920708745364</v>
+        <v>0.9090251223311127</v>
       </c>
       <c r="L15">
-        <v>0.9096049880359376</v>
+        <v>0.9126521213336292</v>
       </c>
       <c r="M15">
-        <v>0.9058815389067972</v>
+        <v>0.9088804978375901</v>
+      </c>
+      <c r="N15">
+        <v>0.9070472985663005</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.879429879792535</v>
+        <v>0.8830083474608525</v>
       </c>
       <c r="D16">
-        <v>0.9000757585358121</v>
+        <v>0.9033055064594578</v>
       </c>
       <c r="E16">
-        <v>0.9033581965772542</v>
+        <v>0.9064016910698123</v>
       </c>
       <c r="F16">
-        <v>0.9010317140578955</v>
+        <v>0.9040119475643414</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021951153899586</v>
+        <v>1.022680265076505</v>
       </c>
       <c r="J16">
-        <v>0.9133082067189763</v>
+        <v>0.9166829981570213</v>
       </c>
       <c r="K16">
-        <v>0.9164755500364083</v>
+        <v>0.9196288891849623</v>
       </c>
       <c r="L16">
-        <v>0.9196803388380748</v>
+        <v>0.9226525089946249</v>
       </c>
       <c r="M16">
-        <v>0.917408813213446</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9203187149090463</v>
+      </c>
+      <c r="N16">
+        <v>0.9179847931594141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8871999449191942</v>
+        <v>0.8907217237350656</v>
       </c>
       <c r="D17">
-        <v>0.9069241151068097</v>
+        <v>0.9101072425924243</v>
       </c>
       <c r="E17">
-        <v>0.9098363671869675</v>
+        <v>0.9128361364937534</v>
       </c>
       <c r="F17">
-        <v>0.9083892531320159</v>
+        <v>0.9113176876864134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023799147722369</v>
+        <v>1.024516037403359</v>
       </c>
       <c r="J17">
-        <v>0.9198077693081745</v>
+        <v>0.9231398625990714</v>
       </c>
       <c r="K17">
-        <v>0.9227878505591021</v>
+        <v>0.9258991540220067</v>
       </c>
       <c r="L17">
-        <v>0.9256343645681886</v>
+        <v>0.9285670041833765</v>
       </c>
       <c r="M17">
-        <v>0.9242198458633691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9270824620709206</v>
+      </c>
+      <c r="N17">
+        <v>0.9244508270895843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8915785420171991</v>
+        <v>0.8950702933049488</v>
       </c>
       <c r="D18">
-        <v>0.9107868045116958</v>
+        <v>0.9139452515318732</v>
       </c>
       <c r="E18">
-        <v>0.9134911059199524</v>
+        <v>0.9164677255704085</v>
       </c>
       <c r="F18">
-        <v>0.9125383649726726</v>
+        <v>0.9154392921573035</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.024838785382403</v>
+        <v>1.025549187960195</v>
       </c>
       <c r="J18">
-        <v>0.9234712648912554</v>
+        <v>0.9267808387228704</v>
       </c>
       <c r="K18">
-        <v>0.9263463101650904</v>
+        <v>0.9294354135274361</v>
       </c>
       <c r="L18">
-        <v>0.9289911994517238</v>
+        <v>0.9319029623910468</v>
       </c>
       <c r="M18">
-        <v>0.9280593363314492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.930896873888268</v>
+      </c>
+      <c r="N18">
+        <v>0.928096973817105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8930472192742781</v>
+        <v>0.8965291924500406</v>
       </c>
       <c r="D19">
-        <v>0.9120829859295824</v>
+        <v>0.9152333984800121</v>
       </c>
       <c r="E19">
-        <v>0.9147176433904604</v>
+        <v>0.9176867266182257</v>
       </c>
       <c r="F19">
-        <v>0.9139305190320309</v>
+        <v>0.9168224775846925</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025187166437323</v>
+        <v>1.025895454585389</v>
       </c>
       <c r="J19">
-        <v>0.9247001948056118</v>
+        <v>0.9280024515234977</v>
       </c>
       <c r="K19">
-        <v>0.9275400892498651</v>
+        <v>0.9306219743579159</v>
       </c>
       <c r="L19">
-        <v>0.9301173950239358</v>
+        <v>0.9330223700929641</v>
       </c>
       <c r="M19">
-        <v>0.9293473589342164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9321767250090037</v>
+      </c>
+      <c r="N19">
+        <v>0.9293203214480301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8863826010500986</v>
+        <v>0.8899101340482001</v>
       </c>
       <c r="D20">
-        <v>0.906203350310223</v>
+        <v>0.9093912085127862</v>
       </c>
       <c r="E20">
-        <v>0.9091544728674563</v>
+        <v>0.9121586793147679</v>
       </c>
       <c r="F20">
-        <v>0.9076149772614084</v>
+        <v>0.9105486773334398</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023604927738732</v>
+        <v>1.024323059485009</v>
       </c>
       <c r="J20">
-        <v>0.919123974006622</v>
+        <v>0.9224603908089026</v>
       </c>
       <c r="K20">
-        <v>0.922123701589579</v>
+        <v>0.9252392647591352</v>
       </c>
       <c r="L20">
-        <v>0.9250078746226491</v>
+        <v>0.9279445200451019</v>
       </c>
       <c r="M20">
-        <v>0.923503231721294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9263706511892978</v>
+      </c>
+      <c r="N20">
+        <v>0.9237703903715373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8627566657145592</v>
+        <v>0.86647328422331</v>
       </c>
       <c r="D21">
-        <v>0.8854085241992002</v>
+        <v>0.8887519871781201</v>
       </c>
       <c r="E21">
-        <v>0.8894902444400127</v>
+        <v>0.8926403733362412</v>
       </c>
       <c r="F21">
-        <v>0.8852695800428709</v>
+        <v>0.88837542029841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017977435778627</v>
+        <v>1.018736191404505</v>
       </c>
       <c r="J21">
-        <v>0.8993702146683271</v>
+        <v>0.9028498746122223</v>
       </c>
       <c r="K21">
-        <v>0.9029430214702704</v>
+        <v>0.9061993427349521</v>
       </c>
       <c r="L21">
-        <v>0.9069184781043175</v>
+        <v>0.9099874949169454</v>
       </c>
       <c r="M21">
-        <v>0.902807717975065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9058325460413577</v>
+      </c>
+      <c r="N21">
+        <v>0.9041320249924999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8459748674239743</v>
+        <v>0.8498576491219877</v>
       </c>
       <c r="D22">
-        <v>0.8706874069253625</v>
+        <v>0.8741677477448503</v>
       </c>
       <c r="E22">
-        <v>0.8755802261522804</v>
+        <v>0.8788586786395104</v>
       </c>
       <c r="F22">
-        <v>0.8694464099059099</v>
+        <v>0.8727023647974704</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013975789205301</v>
+        <v>1.014769953821959</v>
       </c>
       <c r="J22">
-        <v>0.8853583867284388</v>
+        <v>0.8889653038956273</v>
       </c>
       <c r="K22">
-        <v>0.8893441003952615</v>
+        <v>0.8927250154089069</v>
       </c>
       <c r="L22">
-        <v>0.8940974505993458</v>
+        <v>0.897283637582173</v>
       </c>
       <c r="M22">
-        <v>0.8881388197784764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8913013630060731</v>
+      </c>
+      <c r="N22">
+        <v>0.8902277365929048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8550885821947348</v>
+        <v>0.8588773808051594</v>
       </c>
       <c r="D23">
-        <v>0.8786766243922973</v>
+        <v>0.8820795368936004</v>
       </c>
       <c r="E23">
-        <v>0.8831281474342488</v>
+        <v>0.8863340144399422</v>
       </c>
       <c r="F23">
-        <v>0.878033899070588</v>
+        <v>0.8812050629162197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016148577884353</v>
+        <v>1.016922746353947</v>
       </c>
       <c r="J23">
-        <v>0.8929653672266914</v>
+        <v>0.8965001803268712</v>
       </c>
       <c r="K23">
-        <v>0.8967262577016304</v>
+        <v>0.9000366208286723</v>
       </c>
       <c r="L23">
-        <v>0.9010569076944849</v>
+        <v>0.9041767467094836</v>
       </c>
       <c r="M23">
-        <v>0.8961011223973768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8991858371409847</v>
+      </c>
+      <c r="N23">
+        <v>0.8977733134129432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.886752393020151</v>
+        <v>0.8902773167314195</v>
       </c>
       <c r="D24">
-        <v>0.9065294360505012</v>
+        <v>0.9097151490209772</v>
       </c>
       <c r="E24">
-        <v>0.9094629703389164</v>
+        <v>0.9124651646879182</v>
       </c>
       <c r="F24">
-        <v>0.9079652747326843</v>
+        <v>0.9108965873303011</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023692804531867</v>
+        <v>1.024410373094732</v>
       </c>
       <c r="J24">
-        <v>0.9194333418373583</v>
+        <v>0.9227677977919354</v>
       </c>
       <c r="K24">
-        <v>0.9224241792753676</v>
+        <v>0.9255378106308518</v>
       </c>
       <c r="L24">
-        <v>0.9252913133378141</v>
+        <v>0.9282261420904715</v>
       </c>
       <c r="M24">
-        <v>0.9238274463947598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9266926878815153</v>
+      </c>
+      <c r="N24">
+        <v>0.9240782339077457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.917522080431016</v>
+        <v>0.9208605879902133</v>
       </c>
       <c r="D25">
-        <v>0.9337218954400531</v>
+        <v>0.9367546164991172</v>
       </c>
       <c r="E25">
-        <v>0.9352041264799021</v>
+        <v>0.9380627969618089</v>
       </c>
       <c r="F25">
-        <v>0.9371584605202636</v>
+        <v>0.9399181010346351</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030958228118989</v>
+        <v>1.031635394077928</v>
       </c>
       <c r="J25">
-        <v>0.9451839660062198</v>
+        <v>0.9483799987631254</v>
       </c>
       <c r="K25">
-        <v>0.9474443108943563</v>
+        <v>0.9504210721965962</v>
       </c>
       <c r="L25">
-        <v>0.9488991327144664</v>
+        <v>0.9517052595689307</v>
       </c>
       <c r="M25">
-        <v>0.9508175000813017</v>
+        <v>0.9535266849031774</v>
+      </c>
+      <c r="N25">
+        <v>0.9497268071420755</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9421075119023322</v>
+        <v>0.9366841634667672</v>
       </c>
       <c r="D2">
-        <v>0.9556009059035487</v>
+        <v>0.945794691074794</v>
       </c>
       <c r="E2">
-        <v>0.9559222274116776</v>
+        <v>0.9505958784799806</v>
       </c>
       <c r="F2">
-        <v>0.9601152204756809</v>
+        <v>0.9560504756711423</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036567554812133</v>
+        <v>1.034830759547712</v>
       </c>
       <c r="J2">
-        <v>0.9661692935183692</v>
+        <v>0.9609389025550217</v>
       </c>
       <c r="K2">
-        <v>0.9677155188181644</v>
+        <v>0.9580646674561816</v>
       </c>
       <c r="L2">
-        <v>0.9680318184780626</v>
+        <v>0.962789274943907</v>
       </c>
       <c r="M2">
-        <v>0.9721596738539435</v>
+        <v>0.9681580635847525</v>
       </c>
       <c r="N2">
-        <v>0.9675413647363323</v>
+        <v>0.9623035460178825</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9561841484287362</v>
+        <v>0.9494387842727973</v>
       </c>
       <c r="D3">
-        <v>0.9681114420647704</v>
+        <v>0.9577194921188015</v>
       </c>
       <c r="E3">
-        <v>0.9677862515079082</v>
+        <v>0.9614078121991051</v>
       </c>
       <c r="F3">
-        <v>0.9735027886499675</v>
+        <v>0.9678714339957074</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039774218545565</v>
+        <v>1.036670127753966</v>
       </c>
       <c r="J3">
-        <v>0.9779449831350155</v>
+        <v>0.9714095813553156</v>
       </c>
       <c r="K3">
-        <v>0.9791692848898287</v>
+        <v>0.9689235553512882</v>
       </c>
       <c r="L3">
-        <v>0.9788486098938112</v>
+        <v>0.9725595213937962</v>
       </c>
       <c r="M3">
-        <v>0.9844863215208128</v>
+        <v>0.9789326091768156</v>
       </c>
       <c r="N3">
-        <v>0.9793337771829248</v>
+        <v>0.9727890943830764</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9647770746577619</v>
+        <v>0.9572728737327969</v>
       </c>
       <c r="D4">
-        <v>0.9757570697684078</v>
+        <v>0.9650527053124076</v>
       </c>
       <c r="E4">
-        <v>0.9750403050578725</v>
+        <v>0.9680581617702694</v>
       </c>
       <c r="F4">
-        <v>0.9816748517183481</v>
+        <v>0.9751412198406181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041700834543412</v>
+        <v>1.037781393542522</v>
       </c>
       <c r="J4">
-        <v>0.9851268152111673</v>
+        <v>0.9778365043201924</v>
       </c>
       <c r="K4">
-        <v>0.9861571680770671</v>
+        <v>0.9755920522373996</v>
       </c>
       <c r="L4">
-        <v>0.9854496080221662</v>
+        <v>0.9785580223952934</v>
       </c>
       <c r="M4">
-        <v>0.9919995952545053</v>
+        <v>0.9855492258390919</v>
       </c>
       <c r="N4">
-        <v>0.9865258082843922</v>
+        <v>0.979225144315742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9682791420003306</v>
+        <v>0.9604757396910155</v>
       </c>
       <c r="D5">
-        <v>0.9788748482643601</v>
+        <v>0.9680526822252985</v>
       </c>
       <c r="E5">
-        <v>0.9779992015878793</v>
+        <v>0.9707790490072988</v>
       </c>
       <c r="F5">
-        <v>0.9850049517818597</v>
+        <v>0.9781151299258705</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04247827780875</v>
+        <v>1.038231078822097</v>
       </c>
       <c r="J5">
-        <v>0.9880520064825129</v>
+        <v>0.9804628328543918</v>
       </c>
       <c r="K5">
-        <v>0.9890039110754665</v>
+        <v>0.9783178885454142</v>
       </c>
       <c r="L5">
-        <v>0.9881391405126158</v>
+        <v>0.9810096004381873</v>
       </c>
       <c r="M5">
-        <v>0.9950585479850775</v>
+        <v>0.9882536275504744</v>
       </c>
       <c r="N5">
-        <v>0.9894551536628673</v>
+        <v>0.981855202537704</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9688610170993419</v>
+        <v>0.9610084571882923</v>
       </c>
       <c r="D6">
-        <v>0.9793929702003222</v>
+        <v>0.9685517593007832</v>
       </c>
       <c r="E6">
-        <v>0.9784909656050201</v>
+        <v>0.9712317098352045</v>
       </c>
       <c r="F6">
-        <v>0.9855582179036849</v>
+        <v>0.9786098576106922</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042606985445775</v>
+        <v>1.038305594100143</v>
       </c>
       <c r="J6">
-        <v>0.9885379218794593</v>
+        <v>0.9808995796946356</v>
       </c>
       <c r="K6">
-        <v>0.9894768267403268</v>
+        <v>0.9787712296108756</v>
       </c>
       <c r="L6">
-        <v>0.9885859627110631</v>
+        <v>0.9814173049740833</v>
       </c>
       <c r="M6">
-        <v>0.9955666066030214</v>
+        <v>0.9887033848309981</v>
       </c>
       <c r="N6">
-        <v>0.9899417591154128</v>
+        <v>0.982292569608556</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9648242877303492</v>
+        <v>0.9573160148198712</v>
       </c>
       <c r="D7">
-        <v>0.9757990953220563</v>
+        <v>0.9650931063535351</v>
       </c>
       <c r="E7">
-        <v>0.9750801858825857</v>
+        <v>0.9680948033347725</v>
       </c>
       <c r="F7">
-        <v>0.9817197486524056</v>
+        <v>0.9751812705821685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041711346923741</v>
+        <v>1.037787469291152</v>
       </c>
       <c r="J7">
-        <v>0.9851662584921315</v>
+        <v>0.977871884871967</v>
       </c>
       <c r="K7">
-        <v>0.9861955514101959</v>
+        <v>0.9756287701659982</v>
       </c>
       <c r="L7">
-        <v>0.9854858700743736</v>
+        <v>0.9785910475655748</v>
       </c>
       <c r="M7">
-        <v>0.9920408472636609</v>
+        <v>0.9855856561973314</v>
       </c>
       <c r="N7">
-        <v>0.9865653075793396</v>
+        <v>0.9792605751119579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9469801803168552</v>
+        <v>0.9410877879718753</v>
       </c>
       <c r="D8">
-        <v>0.959929380554624</v>
+        <v>0.9499097728352316</v>
       </c>
       <c r="E8">
-        <v>0.9600262232779275</v>
+        <v>0.9543265407168976</v>
       </c>
       <c r="F8">
-        <v>0.9647491485066791</v>
+        <v>0.9601294801986221</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037683954100924</v>
+        <v>1.035469645395127</v>
       </c>
       <c r="J8">
-        <v>0.9702467311312978</v>
+        <v>0.9645547753403326</v>
       </c>
       <c r="K8">
-        <v>0.971680956106304</v>
+        <v>0.9618138965388398</v>
       </c>
       <c r="L8">
-        <v>0.9717763441807109</v>
+        <v>0.9661629159013031</v>
       </c>
       <c r="M8">
-        <v>0.9764287781067555</v>
+        <v>0.9718780505180014</v>
       </c>
       <c r="N8">
-        <v>0.9716245927783597</v>
+        <v>0.9659245537572952</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9108347945083733</v>
+        <v>0.9087375368500222</v>
       </c>
       <c r="D9">
-        <v>0.9278784054698387</v>
+        <v>0.9197316572232578</v>
       </c>
       <c r="E9">
-        <v>0.9296565739986612</v>
+        <v>0.9269795365990587</v>
       </c>
       <c r="F9">
-        <v>0.9303959394538251</v>
+        <v>0.9302299957545564</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02927945117561</v>
+        <v>1.030702605019746</v>
       </c>
       <c r="J9">
-        <v>0.9399830748398447</v>
+        <v>0.9379826536271322</v>
       </c>
       <c r="K9">
-        <v>0.9422610604395603</v>
+        <v>0.9342767241312222</v>
       </c>
       <c r="L9">
-        <v>0.9440042764089491</v>
+        <v>0.9413799272043831</v>
       </c>
       <c r="M9">
-        <v>0.944729160128849</v>
+        <v>0.9445664640913559</v>
       </c>
       <c r="N9">
-        <v>0.9413179586236829</v>
+        <v>0.9393146965833971</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8821149044096028</v>
+        <v>0.883635734057009</v>
       </c>
       <c r="D10">
-        <v>0.9025181679919267</v>
+        <v>0.8964042086471092</v>
       </c>
       <c r="E10">
-        <v>0.9056569899845822</v>
+        <v>0.9058645530854063</v>
       </c>
       <c r="F10">
-        <v>0.9031661640944124</v>
+        <v>0.9071555794657379</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022467407656572</v>
+        <v>1.026921607786358</v>
       </c>
       <c r="J10">
-        <v>0.9159352336335301</v>
+        <v>0.9173696909984713</v>
       </c>
       <c r="K10">
-        <v>0.9189028081726406</v>
+        <v>0.9129349008014678</v>
       </c>
       <c r="L10">
-        <v>0.9219676748638754</v>
+        <v>0.9221703716625689</v>
       </c>
       <c r="M10">
-        <v>0.9195354800859492</v>
+        <v>0.9234311969507878</v>
       </c>
       <c r="N10">
-        <v>0.9172359667245297</v>
+        <v>0.9186724611834634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8680576060192992</v>
+        <v>0.8715896326352116</v>
       </c>
       <c r="D11">
-        <v>0.8901447706210759</v>
+        <v>0.8852396139856755</v>
       </c>
       <c r="E11">
-        <v>0.8939569694602209</v>
+        <v>0.8957682926776263</v>
       </c>
       <c r="F11">
-        <v>0.8898720527147365</v>
+        <v>0.8961295614072023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.019114389883821</v>
+        <v>1.025093750138155</v>
       </c>
       <c r="J11">
-        <v>0.9041747058255963</v>
+        <v>0.9074866403154696</v>
       </c>
       <c r="K11">
-        <v>0.9074852993233897</v>
+        <v>0.9027071439325018</v>
       </c>
       <c r="L11">
-        <v>0.9112000953123253</v>
+        <v>0.9129655309538071</v>
       </c>
       <c r="M11">
-        <v>0.9072195927268348</v>
+        <v>0.91331767735736</v>
       </c>
       <c r="N11">
-        <v>0.9054587376181572</v>
+        <v>0.9087753754348898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8625221318113858</v>
+        <v>0.8668961631142659</v>
       </c>
       <c r="D12">
-        <v>0.8852801152207783</v>
+        <v>0.8808951621209574</v>
       </c>
       <c r="E12">
-        <v>0.8893587624431822</v>
+        <v>0.8918414255876722</v>
       </c>
       <c r="F12">
-        <v>0.884644544545752</v>
+        <v>0.891842684970571</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017792905428933</v>
+        <v>1.024380272019879</v>
       </c>
       <c r="J12">
-        <v>0.8995465116619916</v>
+        <v>0.90363821578897</v>
       </c>
       <c r="K12">
-        <v>0.9029931155146855</v>
+        <v>0.8987252071751738</v>
       </c>
       <c r="L12">
-        <v>0.9069642982277437</v>
+        <v>0.9093821997520617</v>
       </c>
       <c r="M12">
-        <v>0.9023744120950243</v>
+        <v>0.9093834264072079</v>
       </c>
       <c r="N12">
-        <v>0.9008239708879787</v>
+        <v>0.9049214857041421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8637252091701417</v>
+        <v>0.8679136917042615</v>
       </c>
       <c r="D13">
-        <v>0.8863370136953052</v>
+        <v>0.8818367545781767</v>
       </c>
       <c r="E13">
-        <v>0.8903576900231475</v>
+        <v>0.8926924203914673</v>
       </c>
       <c r="F13">
-        <v>0.8857803067387852</v>
+        <v>0.8927716146492086</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018080133129344</v>
+        <v>1.024534996379638</v>
       </c>
       <c r="J13">
-        <v>0.9005522449623602</v>
+        <v>0.9044724214491588</v>
       </c>
       <c r="K13">
-        <v>0.9039692441723827</v>
+        <v>0.899588321555393</v>
       </c>
       <c r="L13">
-        <v>0.907884683414654</v>
+        <v>0.9101588934406708</v>
       </c>
       <c r="M13">
-        <v>0.9034272106307077</v>
+        <v>0.9102360423564492</v>
       </c>
       <c r="N13">
-        <v>0.901831132444993</v>
+        <v>0.9057568760320536</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8676069707048362</v>
+        <v>0.8712064376049845</v>
       </c>
       <c r="D14">
-        <v>0.8897485782826496</v>
+        <v>0.8848847954389313</v>
       </c>
       <c r="E14">
-        <v>0.8935824413822914</v>
+        <v>0.8954475384000486</v>
       </c>
       <c r="F14">
-        <v>0.8894463228448325</v>
+        <v>0.8957793647375435</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.019006820491141</v>
+        <v>1.025035519984424</v>
       </c>
       <c r="J14">
-        <v>0.903797863977237</v>
+        <v>0.9071723865237118</v>
       </c>
       <c r="K14">
-        <v>0.9071195103831995</v>
+        <v>0.9023819734686325</v>
       </c>
       <c r="L14">
-        <v>0.9108551693114795</v>
+        <v>0.9126729026212748</v>
       </c>
       <c r="M14">
-        <v>0.9068250459335543</v>
+        <v>0.9129963302165229</v>
       </c>
       <c r="N14">
-        <v>0.9050813606111486</v>
+        <v>0.9084606753667026</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8699543985189412</v>
+        <v>0.8732046573955937</v>
       </c>
       <c r="D15">
-        <v>0.891812725654597</v>
+        <v>0.8867352726136841</v>
       </c>
       <c r="E15">
-        <v>0.8955337889015532</v>
+        <v>0.8971204389258562</v>
       </c>
       <c r="F15">
-        <v>0.8916643278315793</v>
+        <v>0.8976058910822865</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01956713193949</v>
+        <v>1.025339121229558</v>
       </c>
       <c r="J15">
-        <v>0.9057610140341316</v>
+        <v>0.9088112005137805</v>
       </c>
       <c r="K15">
-        <v>0.9090251223311127</v>
+        <v>0.9040777459391062</v>
       </c>
       <c r="L15">
-        <v>0.9126521213336292</v>
+        <v>0.914198982709422</v>
       </c>
       <c r="M15">
-        <v>0.9088804978375901</v>
+        <v>0.9146722990139367</v>
       </c>
       <c r="N15">
-        <v>0.9070472985663005</v>
+        <v>0.9101018166606116</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8830083474608525</v>
+        <v>0.8844071307513722</v>
       </c>
       <c r="D16">
-        <v>0.9033055064594578</v>
+        <v>0.8971198400335257</v>
       </c>
       <c r="E16">
-        <v>0.9064016910698123</v>
+        <v>0.9065119301898763</v>
       </c>
       <c r="F16">
-        <v>0.9040119475643414</v>
+        <v>0.9078627578893669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022680265076505</v>
+        <v>1.027038442718973</v>
       </c>
       <c r="J16">
-        <v>0.9166829981570213</v>
+        <v>0.9180028211809299</v>
       </c>
       <c r="K16">
-        <v>0.9196288891849623</v>
+        <v>0.9135902095682461</v>
       </c>
       <c r="L16">
-        <v>0.9226525089946249</v>
+        <v>0.9227601766883426</v>
       </c>
       <c r="M16">
-        <v>0.9203187149090463</v>
+        <v>0.9240795629575768</v>
       </c>
       <c r="N16">
-        <v>0.9179847931594141</v>
+        <v>0.9193064904834021</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8907217237350656</v>
+        <v>0.8910936557373494</v>
       </c>
       <c r="D17">
-        <v>0.9101072425924243</v>
+        <v>0.9033263497966536</v>
       </c>
       <c r="E17">
-        <v>0.9128361364937534</v>
+        <v>0.9121275548239356</v>
       </c>
       <c r="F17">
-        <v>0.9113176876864134</v>
+        <v>0.9139979517112031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024516037403359</v>
+        <v>1.028049778286983</v>
       </c>
       <c r="J17">
-        <v>0.9231398625990714</v>
+        <v>0.9234918894178733</v>
       </c>
       <c r="K17">
-        <v>0.9258991540220067</v>
+        <v>0.9192720792521569</v>
       </c>
       <c r="L17">
-        <v>0.9285670041833765</v>
+        <v>0.927874226306567</v>
       </c>
       <c r="M17">
-        <v>0.9270824620709206</v>
+        <v>0.9297029775305944</v>
       </c>
       <c r="N17">
-        <v>0.9244508270895843</v>
+        <v>0.9248033538268471</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8950702933049488</v>
+        <v>0.8948837155963519</v>
       </c>
       <c r="D18">
-        <v>0.9139452515318732</v>
+        <v>0.9068469667348139</v>
       </c>
       <c r="E18">
-        <v>0.9164677255704085</v>
+        <v>0.9153138175388212</v>
       </c>
       <c r="F18">
-        <v>0.9154392921573035</v>
+        <v>0.9174796235572468</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025549187960195</v>
+        <v>1.028621759755071</v>
       </c>
       <c r="J18">
-        <v>0.9267808387228704</v>
+        <v>0.9266039432828146</v>
       </c>
       <c r="K18">
-        <v>0.9294354135274361</v>
+        <v>0.9224938732886724</v>
       </c>
       <c r="L18">
-        <v>0.9319029623910468</v>
+        <v>0.9307741300380562</v>
       </c>
       <c r="M18">
-        <v>0.930896873888268</v>
+        <v>0.9328929396201908</v>
       </c>
       <c r="N18">
-        <v>0.928096973817105</v>
+        <v>0.9279198271652341</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8965291924500406</v>
+        <v>0.8961584092592361</v>
       </c>
       <c r="D19">
-        <v>0.9152333984800121</v>
+        <v>0.9080314627437384</v>
       </c>
       <c r="E19">
-        <v>0.9176867266182257</v>
+        <v>0.9163859505361384</v>
       </c>
       <c r="F19">
-        <v>0.9168224775846925</v>
+        <v>0.9186512482691608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025895454585389</v>
+        <v>1.028813899712883</v>
       </c>
       <c r="J19">
-        <v>0.9280024515234977</v>
+        <v>0.9276507093803481</v>
       </c>
       <c r="K19">
-        <v>0.9306219743579159</v>
+        <v>0.9235776244274472</v>
       </c>
       <c r="L19">
-        <v>0.9330223700929641</v>
+        <v>0.9317496124021223</v>
       </c>
       <c r="M19">
-        <v>0.9321767250090037</v>
+        <v>0.9339661841080008</v>
       </c>
       <c r="N19">
-        <v>0.9293203214480301</v>
+        <v>0.9289680797906918</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8899101340482001</v>
+        <v>0.8903878988559338</v>
       </c>
       <c r="D20">
-        <v>0.9093912085127862</v>
+        <v>0.9026709759137731</v>
       </c>
       <c r="E20">
-        <v>0.9121586793147679</v>
+        <v>0.9115344865601624</v>
       </c>
       <c r="F20">
-        <v>0.9105486773334398</v>
+        <v>0.9133499446766139</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024323059485009</v>
+        <v>1.027943160589436</v>
       </c>
       <c r="J20">
-        <v>0.9224603908089026</v>
+        <v>0.9229124405352165</v>
       </c>
       <c r="K20">
-        <v>0.9252392647591352</v>
+        <v>0.9186722324311977</v>
       </c>
       <c r="L20">
-        <v>0.9279445200451019</v>
+        <v>0.9273343158019465</v>
       </c>
       <c r="M20">
-        <v>0.9263706511892978</v>
+        <v>0.9291091591479964</v>
       </c>
       <c r="N20">
-        <v>0.9237703903715373</v>
+        <v>0.9242230820603131</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.86647328422331</v>
+        <v>0.8702432701576971</v>
       </c>
       <c r="D21">
-        <v>0.8887519871781201</v>
+        <v>0.8839930456516739</v>
       </c>
       <c r="E21">
-        <v>0.8926403733362412</v>
+        <v>0.8946414324053567</v>
       </c>
       <c r="F21">
-        <v>0.88837542029841</v>
+        <v>0.894899293268391</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018736191404505</v>
+        <v>1.024889139536555</v>
       </c>
       <c r="J21">
-        <v>0.9028498746122223</v>
+        <v>0.9063825439236695</v>
       </c>
       <c r="K21">
-        <v>0.9061993427349521</v>
+        <v>0.9015647044174812</v>
       </c>
       <c r="L21">
-        <v>0.9099874949169454</v>
+        <v>0.9119374300171594</v>
       </c>
       <c r="M21">
-        <v>0.9058325460413577</v>
+        <v>0.9121887254069463</v>
       </c>
       <c r="N21">
-        <v>0.9041320249924999</v>
+        <v>0.9076697110995721</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8498576491219877</v>
+        <v>0.8562760822978069</v>
       </c>
       <c r="D22">
-        <v>0.8741677477448503</v>
+        <v>0.8710767544555958</v>
       </c>
       <c r="E22">
-        <v>0.8788586786395104</v>
+        <v>0.8829709011192035</v>
       </c>
       <c r="F22">
-        <v>0.8727023647974704</v>
+        <v>0.8821627312186235</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014769953821959</v>
+        <v>1.022764435969704</v>
       </c>
       <c r="J22">
-        <v>0.8889653038956273</v>
+        <v>0.8949358500633121</v>
       </c>
       <c r="K22">
-        <v>0.8927250154089069</v>
+        <v>0.8897222710602135</v>
       </c>
       <c r="L22">
-        <v>0.897283637582173</v>
+        <v>0.9012814504774419</v>
       </c>
       <c r="M22">
-        <v>0.8913013630060731</v>
+        <v>0.9004956504721253</v>
       </c>
       <c r="N22">
-        <v>0.8902277365929048</v>
+        <v>0.8962067616209787</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8588773808051594</v>
+        <v>0.8638224355868492</v>
       </c>
       <c r="D23">
-        <v>0.8820795368936004</v>
+        <v>0.8780517389582</v>
       </c>
       <c r="E23">
-        <v>0.8863340144399422</v>
+        <v>0.8892719071070916</v>
       </c>
       <c r="F23">
-        <v>0.8812050629162197</v>
+        <v>0.8890381371548016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016922746353947</v>
+        <v>1.023912761151996</v>
       </c>
       <c r="J23">
-        <v>0.8965001803268712</v>
+        <v>0.90111868938261</v>
       </c>
       <c r="K23">
-        <v>0.9000366208286723</v>
+        <v>0.8961184735720114</v>
       </c>
       <c r="L23">
-        <v>0.9041767467094836</v>
+        <v>0.907036541488271</v>
       </c>
       <c r="M23">
-        <v>0.8991858371409847</v>
+        <v>0.9068089601776315</v>
       </c>
       <c r="N23">
-        <v>0.8977733134129432</v>
+        <v>0.9023983812812916</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8902773167314195</v>
+        <v>0.8907071371852425</v>
       </c>
       <c r="D24">
-        <v>0.9097151490209772</v>
+        <v>0.902967416080924</v>
       </c>
       <c r="E24">
-        <v>0.9124651646879182</v>
+        <v>0.9118027419692426</v>
       </c>
       <c r="F24">
-        <v>0.9108965873303011</v>
+        <v>0.9136430480077529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024410373094732</v>
+        <v>1.027991391476637</v>
       </c>
       <c r="J24">
-        <v>0.9227677977919354</v>
+        <v>0.9231745431308588</v>
       </c>
       <c r="K24">
-        <v>0.9255378106308518</v>
+        <v>0.9189435602973602</v>
       </c>
       <c r="L24">
-        <v>0.9282261420904715</v>
+        <v>0.927578532518611</v>
       </c>
       <c r="M24">
-        <v>0.9266926878815153</v>
+        <v>0.9293777561331308</v>
       </c>
       <c r="N24">
-        <v>0.9240782339077457</v>
+        <v>0.9244855568717049</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9208605879902133</v>
+        <v>0.9176340056277117</v>
       </c>
       <c r="D25">
-        <v>0.9367546164991172</v>
+        <v>0.9280184231693674</v>
       </c>
       <c r="E25">
-        <v>0.9380627969618089</v>
+        <v>0.9344858671264727</v>
       </c>
       <c r="F25">
-        <v>0.9399181010346351</v>
+        <v>0.9384361748482623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031635394077928</v>
+        <v>1.03202853733639</v>
       </c>
       <c r="J25">
-        <v>0.9483799987631254</v>
+        <v>0.9452910906983171</v>
       </c>
       <c r="K25">
-        <v>0.9504210721965962</v>
+        <v>0.941847373321814</v>
       </c>
       <c r="L25">
-        <v>0.9517052595689307</v>
+        <v>0.9481941411623429</v>
       </c>
       <c r="M25">
-        <v>0.9535266849031774</v>
+        <v>0.9520718053786783</v>
       </c>
       <c r="N25">
-        <v>0.9497268071420755</v>
+        <v>0.9466335124735122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9366841634667672</v>
+        <v>0.9696069654806985</v>
       </c>
       <c r="D2">
-        <v>0.945794691074794</v>
+        <v>0.9797170837273235</v>
       </c>
       <c r="E2">
-        <v>0.9505958784799806</v>
+        <v>0.9853371803107579</v>
       </c>
       <c r="F2">
-        <v>0.9560504756711423</v>
+        <v>0.9864538976859745</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034830759547712</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.9609389025550217</v>
+        <v>0.9927363497540769</v>
       </c>
       <c r="K2">
-        <v>0.9580646674561816</v>
+        <v>0.9914664158474567</v>
       </c>
       <c r="L2">
-        <v>0.962789274943907</v>
+        <v>0.9970046431290084</v>
       </c>
       <c r="M2">
-        <v>0.9681580635847525</v>
+        <v>0.9981052337738676</v>
       </c>
       <c r="N2">
-        <v>0.9623035460178825</v>
+        <v>0.9941461492391783</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9494387842727973</v>
+        <v>0.9763335181888453</v>
       </c>
       <c r="D3">
-        <v>0.9577194921188015</v>
+        <v>0.9854158156656182</v>
       </c>
       <c r="E3">
-        <v>0.9614078121991051</v>
+        <v>0.9912405287132535</v>
       </c>
       <c r="F3">
-        <v>0.9678714339957074</v>
+        <v>0.9931286263097678</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036670127753966</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.9714095813553156</v>
+        <v>0.9974908279561275</v>
       </c>
       <c r="K3">
-        <v>0.9689235553512882</v>
+        <v>0.9962387688038423</v>
       </c>
       <c r="L3">
-        <v>0.9725595213937962</v>
+        <v>1.001986729264594</v>
       </c>
       <c r="M3">
-        <v>0.9789326091768156</v>
+        <v>1.003850189264242</v>
       </c>
       <c r="N3">
-        <v>0.9727890943830764</v>
+        <v>0.9989073793456223</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9572728737327969</v>
+        <v>0.9805692451462666</v>
       </c>
       <c r="D4">
-        <v>0.9650527053124076</v>
+        <v>0.9890109230574786</v>
       </c>
       <c r="E4">
-        <v>0.9680581617702694</v>
+        <v>0.9949647933261452</v>
       </c>
       <c r="F4">
-        <v>0.9751412198406181</v>
+        <v>0.9973404415239473</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037781393542522</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.9778365043201924</v>
+        <v>1.000483398898873</v>
       </c>
       <c r="K4">
-        <v>0.9755920522373996</v>
+        <v>0.9992438112915577</v>
       </c>
       <c r="L4">
-        <v>0.9785580223952934</v>
+        <v>1.00512437115986</v>
       </c>
       <c r="M4">
-        <v>0.9855492258390919</v>
+        <v>1.007471071411997</v>
       </c>
       <c r="N4">
-        <v>0.979225144315742</v>
+        <v>1.001904200082359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9604757396910155</v>
+        <v>0.9823234712691308</v>
       </c>
       <c r="D5">
-        <v>0.9680526822252985</v>
+        <v>0.9905013310534155</v>
       </c>
       <c r="E5">
-        <v>0.9707790490072988</v>
+        <v>0.9965087704455767</v>
       </c>
       <c r="F5">
-        <v>0.9781151299258705</v>
+        <v>0.9990867947609436</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038231078822097</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.9804628328543918</v>
+        <v>1.001722386966615</v>
       </c>
       <c r="K5">
-        <v>0.9783178885454142</v>
+        <v>1.000488248400798</v>
       </c>
       <c r="L5">
-        <v>0.9810096004381873</v>
+        <v>1.006423851824923</v>
       </c>
       <c r="M5">
-        <v>0.9882536275504744</v>
+        <v>1.008971376629581</v>
       </c>
       <c r="N5">
-        <v>0.981855202537704</v>
+        <v>1.003144947655271</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9610084571882923</v>
+        <v>0.9826165023294411</v>
       </c>
       <c r="D6">
-        <v>0.9685517593007832</v>
+        <v>0.9907503785434465</v>
       </c>
       <c r="E6">
-        <v>0.9712317098352045</v>
+        <v>0.9967667710281115</v>
       </c>
       <c r="F6">
-        <v>0.9786098576106922</v>
+        <v>0.9993786283540792</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038305594100143</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>0.9808995796946356</v>
+        <v>1.001929326709022</v>
       </c>
       <c r="K6">
-        <v>0.9787712296108756</v>
+        <v>1.000696114848285</v>
       </c>
       <c r="L6">
-        <v>0.9814173049740833</v>
+        <v>1.00664092041993</v>
       </c>
       <c r="M6">
-        <v>0.9887033848309981</v>
+        <v>1.009222032286702</v>
       </c>
       <c r="N6">
-        <v>0.982292569608556</v>
+        <v>1.003352181275849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9573160148198712</v>
+        <v>0.9805927873390339</v>
       </c>
       <c r="D7">
-        <v>0.9650931063535351</v>
+        <v>0.9890309189419154</v>
       </c>
       <c r="E7">
-        <v>0.9680948033347725</v>
+        <v>0.9949855078060245</v>
       </c>
       <c r="F7">
-        <v>0.9751812705821685</v>
+        <v>0.9973638701095862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037787469291152</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.977871884871967</v>
+        <v>1.000500028061965</v>
       </c>
       <c r="K7">
-        <v>0.9756287701659982</v>
+        <v>0.9992605124689754</v>
       </c>
       <c r="L7">
-        <v>0.9785910475655748</v>
+        <v>1.005141810531847</v>
       </c>
       <c r="M7">
-        <v>0.9855856561973314</v>
+        <v>1.007491203166525</v>
       </c>
       <c r="N7">
-        <v>0.9792605751119579</v>
+        <v>1.00192085286077</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9410877879718753</v>
+        <v>0.9719053539760709</v>
       </c>
       <c r="D8">
-        <v>0.9499097728352316</v>
+        <v>0.9816628297194111</v>
       </c>
       <c r="E8">
-        <v>0.9543265407168976</v>
+        <v>0.9873527789637697</v>
       </c>
       <c r="F8">
-        <v>0.9601294801986221</v>
+        <v>0.9887327013389022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035469645395127</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9645547753403326</v>
+        <v>0.994361142691998</v>
       </c>
       <c r="K8">
-        <v>0.9618138965388398</v>
+        <v>0.9930970553648331</v>
       </c>
       <c r="L8">
-        <v>0.9661629159013031</v>
+        <v>0.9987068347274217</v>
       </c>
       <c r="M8">
-        <v>0.9718780505180014</v>
+        <v>1.000067489824349</v>
       </c>
       <c r="N8">
-        <v>0.9659245537572952</v>
+        <v>0.9957732495694377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9087375368500222</v>
+        <v>0.9556288962569091</v>
       </c>
       <c r="D9">
-        <v>0.9197316572232578</v>
+        <v>0.9679161554726835</v>
       </c>
       <c r="E9">
-        <v>0.9269795365990587</v>
+        <v>0.9731125728772061</v>
       </c>
       <c r="F9">
-        <v>0.9302299957545564</v>
+        <v>0.9726353356386743</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030702605019746</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9379826536271322</v>
+        <v>0.9828520484017856</v>
       </c>
       <c r="K9">
-        <v>0.9342767241312222</v>
+        <v>0.9815521418671833</v>
       </c>
       <c r="L9">
-        <v>0.9413799272043831</v>
+        <v>0.9866574824338795</v>
       </c>
       <c r="M9">
-        <v>0.9445664640913559</v>
+        <v>0.9861885571128984</v>
       </c>
       <c r="N9">
-        <v>0.9393146965833971</v>
+        <v>0.984247811045222</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.883635734057009</v>
+        <v>0.9440124074524224</v>
       </c>
       <c r="D10">
-        <v>0.8964042086471092</v>
+        <v>0.9581518334429978</v>
       </c>
       <c r="E10">
-        <v>0.9058645530854063</v>
+        <v>0.9629972568142952</v>
       </c>
       <c r="F10">
-        <v>0.9071555794657379</v>
+        <v>0.961201996982578</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026921607786358</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9173696909984713</v>
+        <v>0.9746380199364333</v>
       </c>
       <c r="K10">
-        <v>0.9129349008014678</v>
+        <v>0.9733201390135021</v>
       </c>
       <c r="L10">
-        <v>0.9221703716625689</v>
+        <v>0.9780683688586368</v>
       </c>
       <c r="M10">
-        <v>0.9234311969507878</v>
+        <v>0.9763089695092022</v>
       </c>
       <c r="N10">
-        <v>0.9186724611834634</v>
+        <v>0.9760221177172863</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8715896326352116</v>
+        <v>0.9387711034653237</v>
       </c>
       <c r="D11">
-        <v>0.8852396139856755</v>
+        <v>0.9537591416940787</v>
       </c>
       <c r="E11">
-        <v>0.8957682926776263</v>
+        <v>0.958446416291686</v>
       </c>
       <c r="F11">
-        <v>0.8961295614072023</v>
+        <v>0.9560577977624909</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025093750138155</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9074866403154696</v>
+        <v>0.9709331829041037</v>
       </c>
       <c r="K11">
-        <v>0.9027071439325018</v>
+        <v>0.9696091553519303</v>
       </c>
       <c r="L11">
-        <v>0.9129655309538071</v>
+        <v>0.9741969532527296</v>
       </c>
       <c r="M11">
-        <v>0.91331767735736</v>
+        <v>0.9718588662892412</v>
       </c>
       <c r="N11">
-        <v>0.9087753754348898</v>
+        <v>0.9723120193914203</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8668961631142659</v>
+        <v>0.936789610984592</v>
       </c>
       <c r="D12">
-        <v>0.8808951621209574</v>
+        <v>0.9521005868818304</v>
       </c>
       <c r="E12">
-        <v>0.8918414255876722</v>
+        <v>0.9567280986495031</v>
       </c>
       <c r="F12">
-        <v>0.891842684970571</v>
+        <v>0.954115316860919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024380272019879</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.90363821578897</v>
+        <v>0.9695328743099331</v>
       </c>
       <c r="K12">
-        <v>0.8987252071751738</v>
+        <v>0.968206833220485</v>
       </c>
       <c r="L12">
-        <v>0.9093821997520617</v>
+        <v>0.9727340843832203</v>
       </c>
       <c r="M12">
-        <v>0.9093834264072079</v>
+        <v>0.9701777529665736</v>
       </c>
       <c r="N12">
-        <v>0.9049214857041421</v>
+        <v>0.9709097221984281</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8679136917042615</v>
+        <v>0.9372162657039612</v>
       </c>
       <c r="D13">
-        <v>0.8818367545781767</v>
+        <v>0.9524576081384862</v>
       </c>
       <c r="E13">
-        <v>0.8926924203914673</v>
+        <v>0.9570979869802573</v>
       </c>
       <c r="F13">
-        <v>0.8927716146492086</v>
+        <v>0.9545334655714044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024534996379638</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>0.9044724214491588</v>
+        <v>0.9698343721487249</v>
       </c>
       <c r="K13">
-        <v>0.899588321555393</v>
+        <v>0.9685087503502902</v>
       </c>
       <c r="L13">
-        <v>0.9101588934406708</v>
+        <v>0.9730490336702156</v>
       </c>
       <c r="M13">
-        <v>0.9102360423564492</v>
+        <v>0.970539670778071</v>
       </c>
       <c r="N13">
-        <v>0.9057568760320536</v>
+        <v>0.9712116481987335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8712064376049845</v>
+        <v>0.9386080373049903</v>
       </c>
       <c r="D14">
-        <v>0.8848847954389313</v>
+        <v>0.9536226075491845</v>
       </c>
       <c r="E14">
-        <v>0.8954475384000486</v>
+        <v>0.9583049635047385</v>
       </c>
       <c r="F14">
-        <v>0.8957793647375435</v>
+        <v>0.9558978945934332</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025035519984424</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.9071723865237118</v>
+        <v>0.9708179378564813</v>
       </c>
       <c r="K14">
-        <v>0.9023819734686325</v>
+        <v>0.9694937382151658</v>
       </c>
       <c r="L14">
-        <v>0.9126729026212748</v>
+        <v>0.9740765513082571</v>
       </c>
       <c r="M14">
-        <v>0.9129963302165229</v>
+        <v>0.9717204932772964</v>
       </c>
       <c r="N14">
-        <v>0.9084606753667026</v>
+        <v>0.9721966106826113</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8732046573955937</v>
+        <v>0.9394608711292786</v>
       </c>
       <c r="D15">
-        <v>0.8867352726136841</v>
+        <v>0.9543367664546296</v>
       </c>
       <c r="E15">
-        <v>0.8971204389258562</v>
+        <v>0.959044847850556</v>
       </c>
       <c r="F15">
-        <v>0.8976058910822865</v>
+        <v>0.9567342803571728</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025339121229558</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9088112005137805</v>
+        <v>0.9714206815749008</v>
       </c>
       <c r="K15">
-        <v>0.9040777459391062</v>
+        <v>0.9700973946654319</v>
       </c>
       <c r="L15">
-        <v>0.914198982709422</v>
+        <v>0.9747062825141085</v>
       </c>
       <c r="M15">
-        <v>0.9146722990139367</v>
+        <v>0.9724442344531168</v>
       </c>
       <c r="N15">
-        <v>0.9101018166606116</v>
+        <v>0.9728002103662469</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8844071307513722</v>
+        <v>0.944355564707026</v>
       </c>
       <c r="D16">
-        <v>0.8971198400335257</v>
+        <v>0.9584397126873173</v>
       </c>
       <c r="E16">
-        <v>0.9065119301898763</v>
+        <v>0.9632954942788751</v>
       </c>
       <c r="F16">
-        <v>0.9078627578893669</v>
+        <v>0.9615391067712165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027038442718973</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9180028211809299</v>
+        <v>0.9748806188999422</v>
       </c>
       <c r="K16">
-        <v>0.9135902095682461</v>
+        <v>0.9735631823341544</v>
       </c>
       <c r="L16">
-        <v>0.9227601766883426</v>
+        <v>0.9783219303839877</v>
       </c>
       <c r="M16">
-        <v>0.9240795629575768</v>
+        <v>0.9766004921671335</v>
       </c>
       <c r="N16">
-        <v>0.9193064904834021</v>
+        <v>0.9762650611991499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8910936557373494</v>
+        <v>0.9473673720257126</v>
       </c>
       <c r="D17">
-        <v>0.9033263497966536</v>
+        <v>0.9609678382383449</v>
       </c>
       <c r="E17">
-        <v>0.9121275548239356</v>
+        <v>0.9659145552426733</v>
       </c>
       <c r="F17">
-        <v>0.9139979517112031</v>
+        <v>0.9644994859774306</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028049778286983</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.9234918894178733</v>
+        <v>0.97701001037948</v>
       </c>
       <c r="K17">
-        <v>0.9192720792521569</v>
+        <v>0.9756966973942688</v>
       </c>
       <c r="L17">
-        <v>0.927874226306567</v>
+        <v>0.9805478397133393</v>
       </c>
       <c r="M17">
-        <v>0.9297029775305944</v>
+        <v>0.9791599796428493</v>
       </c>
       <c r="N17">
-        <v>0.9248033538268471</v>
+        <v>0.9783974766588331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8948837155963519</v>
+        <v>0.9491039352110101</v>
       </c>
       <c r="D18">
-        <v>0.9068469667348139</v>
+        <v>0.9624267218665479</v>
       </c>
       <c r="E18">
-        <v>0.9153138175388212</v>
+        <v>0.9674258918671855</v>
       </c>
       <c r="F18">
-        <v>0.9174796235572468</v>
+        <v>0.9662077493679624</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028621759755071</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9266039432828146</v>
+        <v>0.9782378988623102</v>
       </c>
       <c r="K18">
-        <v>0.9224938732886724</v>
+        <v>0.9769271472034704</v>
       </c>
       <c r="L18">
-        <v>0.9307741300380562</v>
+        <v>0.9818316280047528</v>
       </c>
       <c r="M18">
-        <v>0.9328929396201908</v>
+        <v>0.9806364403414942</v>
       </c>
       <c r="N18">
-        <v>0.9279198271652341</v>
+        <v>0.9796271088841498</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8961584092592361</v>
+        <v>0.9496927190060628</v>
       </c>
       <c r="D19">
-        <v>0.9080314627437384</v>
+        <v>0.9629215574310379</v>
       </c>
       <c r="E19">
-        <v>0.9163859505361384</v>
+        <v>0.9679385154409633</v>
       </c>
       <c r="F19">
-        <v>0.9186512482691608</v>
+        <v>0.9667871640273579</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028813899712883</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>0.9276507093803481</v>
+        <v>0.978654231639974</v>
       </c>
       <c r="K19">
-        <v>0.9235776244274472</v>
+        <v>0.9773443791407149</v>
       </c>
       <c r="L19">
-        <v>0.9317496124021223</v>
+        <v>0.982266955481878</v>
       </c>
       <c r="M19">
-        <v>0.9339661841080008</v>
+        <v>0.9811371508247066</v>
       </c>
       <c r="N19">
-        <v>0.9289680797906918</v>
+        <v>0.9800440329021118</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8903878988559338</v>
+        <v>0.9470463400101841</v>
       </c>
       <c r="D20">
-        <v>0.9026709759137731</v>
+        <v>0.9606982361321218</v>
       </c>
       <c r="E20">
-        <v>0.9115344865601624</v>
+        <v>0.9656352580924339</v>
       </c>
       <c r="F20">
-        <v>0.9133499446766139</v>
+        <v>0.9641837943291005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027943160589436</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.9229124405352165</v>
+        <v>0.9767830235021816</v>
       </c>
       <c r="K20">
-        <v>0.9186722324311977</v>
+        <v>0.9754692517878844</v>
       </c>
       <c r="L20">
-        <v>0.9273343158019465</v>
+        <v>0.9803105389042676</v>
       </c>
       <c r="M20">
-        <v>0.9291091591479964</v>
+        <v>0.9788870874625165</v>
       </c>
       <c r="N20">
-        <v>0.9242230820603131</v>
+        <v>0.9781701674341338</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8702432701576971</v>
+        <v>0.9381991764910416</v>
       </c>
       <c r="D21">
-        <v>0.8839930456516739</v>
+        <v>0.9532803059538857</v>
       </c>
       <c r="E21">
-        <v>0.8946414324053567</v>
+        <v>0.9579503296379068</v>
       </c>
       <c r="F21">
-        <v>0.894899293268391</v>
+        <v>0.9554970019078026</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024889139536555</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9063825439236695</v>
+        <v>0.9705289859399321</v>
       </c>
       <c r="K21">
-        <v>0.9015647044174812</v>
+        <v>0.9692043598582853</v>
       </c>
       <c r="L21">
-        <v>0.9119374300171594</v>
+        <v>0.9737746760826628</v>
       </c>
       <c r="M21">
-        <v>0.9121887254069463</v>
+        <v>0.9713735671499569</v>
       </c>
       <c r="N21">
-        <v>0.9076697110995721</v>
+        <v>0.9719072484211974</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8562760822978069</v>
+        <v>0.9324344990860652</v>
       </c>
       <c r="D22">
-        <v>0.8710767544555958</v>
+        <v>0.9484593717975471</v>
       </c>
       <c r="E22">
-        <v>0.8829709011192035</v>
+        <v>0.9529555707897371</v>
       </c>
       <c r="F22">
-        <v>0.8821627312186235</v>
+        <v>0.9498503437477738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022764435969704</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.8949358500633121</v>
+        <v>0.9664558763341889</v>
       </c>
       <c r="K22">
-        <v>0.8897222710602135</v>
+        <v>0.9651259999416173</v>
       </c>
       <c r="L22">
-        <v>0.9012814504774419</v>
+        <v>0.9695203706438141</v>
       </c>
       <c r="M22">
-        <v>0.9004956504721253</v>
+        <v>0.9664853322354898</v>
       </c>
       <c r="N22">
-        <v>0.8962067616209787</v>
+        <v>0.9678283545326218</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8638224355868492</v>
+        <v>0.9355106847126358</v>
       </c>
       <c r="D23">
-        <v>0.8780517389582</v>
+        <v>0.9510307164215467</v>
       </c>
       <c r="E23">
-        <v>0.8892719071070916</v>
+        <v>0.9556196615005353</v>
       </c>
       <c r="F23">
-        <v>0.8890381371548016</v>
+        <v>0.9528622357238504</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023912761151996</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.90111868938261</v>
+        <v>0.9686291709353395</v>
       </c>
       <c r="K23">
-        <v>0.8961184735720114</v>
+        <v>0.967301919722099</v>
       </c>
       <c r="L23">
-        <v>0.907036541488271</v>
+        <v>0.9717901215952712</v>
       </c>
       <c r="M23">
-        <v>0.9068089601776315</v>
+        <v>0.969093076143252</v>
       </c>
       <c r="N23">
-        <v>0.9023983812812916</v>
+        <v>0.9700047354613865</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8907071371852425</v>
+        <v>0.9471914626856696</v>
       </c>
       <c r="D24">
-        <v>0.902967416080924</v>
+        <v>0.9608201061663426</v>
       </c>
       <c r="E24">
-        <v>0.9118027419692426</v>
+        <v>0.9657615107102127</v>
       </c>
       <c r="F24">
-        <v>0.9136430480077529</v>
+        <v>0.9643264986972907</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027991391476637</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.9231745431308588</v>
+        <v>0.9768856326859936</v>
       </c>
       <c r="K24">
-        <v>0.9189435602973602</v>
+        <v>0.9755720677709819</v>
       </c>
       <c r="L24">
-        <v>0.927578532518611</v>
+        <v>0.9804178097336296</v>
       </c>
       <c r="M24">
-        <v>0.9293777561331308</v>
+        <v>0.9790104463437027</v>
       </c>
       <c r="N24">
-        <v>0.9244855568717049</v>
+        <v>0.9782729223347558</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9176340056277117</v>
+        <v>0.9599625361728353</v>
       </c>
       <c r="D25">
-        <v>0.9280184231693674</v>
+        <v>0.9715688273521512</v>
       </c>
       <c r="E25">
-        <v>0.9344858671264727</v>
+        <v>0.9768964137255627</v>
       </c>
       <c r="F25">
-        <v>0.9384361748482623</v>
+        <v>0.9769122495716146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03202853733639</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9452910906983171</v>
+        <v>0.9859167563958532</v>
       </c>
       <c r="K25">
-        <v>0.941847373321814</v>
+        <v>0.9846251404318854</v>
       </c>
       <c r="L25">
-        <v>0.9481941411623429</v>
+        <v>0.9898642937315892</v>
       </c>
       <c r="M25">
-        <v>0.9520718053786783</v>
+        <v>0.9898798685667902</v>
       </c>
       <c r="N25">
-        <v>0.9466335124735122</v>
+        <v>0.9873168712761679</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9696069654806985</v>
+        <v>1.027510331597459</v>
       </c>
       <c r="D2">
-        <v>0.9797170837273235</v>
+        <v>1.028816560393554</v>
       </c>
       <c r="E2">
-        <v>0.9853371803107579</v>
+        <v>1.036184467811835</v>
       </c>
       <c r="F2">
-        <v>0.9864538976859745</v>
+        <v>1.043970251305802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.9927363497540769</v>
+        <v>1.032667803777056</v>
       </c>
       <c r="K2">
-        <v>0.9914664158474567</v>
+        <v>1.031632276888562</v>
       </c>
       <c r="L2">
-        <v>0.9970046431290084</v>
+        <v>1.038978935124798</v>
       </c>
       <c r="M2">
-        <v>0.9981052337738676</v>
+        <v>1.046742618042306</v>
       </c>
       <c r="N2">
-        <v>0.9941461492391783</v>
+        <v>1.034134310507094</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9763335181888453</v>
+        <v>1.028893043923549</v>
       </c>
       <c r="D3">
-        <v>0.9854158156656182</v>
+        <v>1.030039968870523</v>
       </c>
       <c r="E3">
-        <v>0.9912405287132535</v>
+        <v>1.037455394122874</v>
       </c>
       <c r="F3">
-        <v>0.9931286263097678</v>
+        <v>1.045422046661947</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9974908279561275</v>
+        <v>1.033688507682869</v>
       </c>
       <c r="K3">
-        <v>0.9962387688038423</v>
+        <v>1.032662580953607</v>
       </c>
       <c r="L3">
-        <v>1.001986729264594</v>
+        <v>1.040058186330808</v>
       </c>
       <c r="M3">
-        <v>1.003850189264242</v>
+        <v>1.048003884081036</v>
       </c>
       <c r="N3">
-        <v>0.9989073793456223</v>
+        <v>1.035156463929508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9805692451462666</v>
+        <v>1.029787481076281</v>
       </c>
       <c r="D4">
-        <v>0.9890109230574786</v>
+        <v>1.030831580599395</v>
       </c>
       <c r="E4">
-        <v>0.9949647933261452</v>
+        <v>1.038277790879478</v>
       </c>
       <c r="F4">
-        <v>0.9973404415239473</v>
+        <v>1.046361769813064</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.000483398898873</v>
+        <v>1.034348301310005</v>
       </c>
       <c r="K4">
-        <v>0.9992438112915577</v>
+        <v>1.033328686352143</v>
       </c>
       <c r="L4">
-        <v>1.00512437115986</v>
+        <v>1.040756008892513</v>
       </c>
       <c r="M4">
-        <v>1.007471071411997</v>
+        <v>1.048819810016611</v>
       </c>
       <c r="N4">
-        <v>1.001904200082359</v>
+        <v>1.035817194539274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9823234712691308</v>
+        <v>1.030163442453253</v>
       </c>
       <c r="D5">
-        <v>0.9905013310534155</v>
+        <v>1.031164373793181</v>
       </c>
       <c r="E5">
-        <v>0.9965087704455767</v>
+        <v>1.038623535380957</v>
       </c>
       <c r="F5">
-        <v>0.9990867947609436</v>
+        <v>1.046756909016546</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.001722386966615</v>
+        <v>1.034625521237688</v>
       </c>
       <c r="K5">
-        <v>1.000488248400798</v>
+        <v>1.033608583556463</v>
       </c>
       <c r="L5">
-        <v>1.006423851824923</v>
+        <v>1.041049250978025</v>
       </c>
       <c r="M5">
-        <v>1.008971376629581</v>
+        <v>1.049162781780916</v>
       </c>
       <c r="N5">
-        <v>1.003144947655271</v>
+        <v>1.036094808151051</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9826165023294411</v>
+        <v>1.030226564640103</v>
       </c>
       <c r="D6">
-        <v>0.9907503785434465</v>
+        <v>1.031220251308486</v>
       </c>
       <c r="E6">
-        <v>0.9967667710281115</v>
+        <v>1.038681588028801</v>
       </c>
       <c r="F6">
-        <v>0.9993786283540792</v>
+        <v>1.046823259419736</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.001929326709022</v>
+        <v>1.034672058548404</v>
       </c>
       <c r="K6">
-        <v>1.000696114848285</v>
+        <v>1.03365557178718</v>
       </c>
       <c r="L6">
-        <v>1.00664092041993</v>
+        <v>1.041098480522787</v>
       </c>
       <c r="M6">
-        <v>1.009222032286702</v>
+        <v>1.049220365808535</v>
       </c>
       <c r="N6">
-        <v>1.003352181275849</v>
+        <v>1.036141411550087</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9805927873390339</v>
+        <v>1.029792504920548</v>
       </c>
       <c r="D7">
-        <v>0.9890309189419154</v>
+        <v>1.030836027395722</v>
       </c>
       <c r="E7">
-        <v>0.9949855078060245</v>
+        <v>1.038282410695053</v>
       </c>
       <c r="F7">
-        <v>0.9973638701095862</v>
+        <v>1.04636704936435</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.000500028061965</v>
+        <v>1.03435200615054</v>
       </c>
       <c r="K7">
-        <v>0.9992605124689754</v>
+        <v>1.033332426873142</v>
       </c>
       <c r="L7">
-        <v>1.005141810531847</v>
+        <v>1.040759927685062</v>
       </c>
       <c r="M7">
-        <v>1.007491203166525</v>
+        <v>1.048824392988327</v>
       </c>
       <c r="N7">
-        <v>1.00192085286077</v>
+        <v>1.035820904641107</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9719053539760709</v>
+        <v>1.027977684463045</v>
       </c>
       <c r="D8">
-        <v>0.9816628297194111</v>
+        <v>1.029230022185553</v>
       </c>
       <c r="E8">
-        <v>0.9873527789637697</v>
+        <v>1.036613980787313</v>
       </c>
       <c r="F8">
-        <v>0.9887327013389022</v>
+        <v>1.044460829820963</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.994361142691998</v>
+        <v>1.033012896046095</v>
       </c>
       <c r="K8">
-        <v>0.9930970553648331</v>
+        <v>1.031980592852108</v>
       </c>
       <c r="L8">
-        <v>0.9987068347274217</v>
+        <v>1.039343783782488</v>
       </c>
       <c r="M8">
-        <v>1.000067489824349</v>
+        <v>1.047168911987313</v>
       </c>
       <c r="N8">
-        <v>0.9957732495694377</v>
+        <v>1.034479892846716</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9556288962569091</v>
+        <v>1.02477746014151</v>
       </c>
       <c r="D9">
-        <v>0.9679161554726835</v>
+        <v>1.026399770131655</v>
       </c>
       <c r="E9">
-        <v>0.9731125728772061</v>
+        <v>1.03367400778006</v>
       </c>
       <c r="F9">
-        <v>0.9726353356386743</v>
+        <v>1.041104043147697</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9828520484017856</v>
+        <v>1.030647942229689</v>
       </c>
       <c r="K9">
-        <v>0.9815521418671833</v>
+        <v>1.029593986455951</v>
       </c>
       <c r="L9">
-        <v>0.9866574824338795</v>
+        <v>1.036844191959806</v>
       </c>
       <c r="M9">
-        <v>0.9861885571128984</v>
+        <v>1.044250060285979</v>
       </c>
       <c r="N9">
-        <v>0.984247811045222</v>
+        <v>1.032111580524626</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9440124074524224</v>
+        <v>1.022642151200193</v>
       </c>
       <c r="D10">
-        <v>0.9581518334429978</v>
+        <v>1.024512548296931</v>
       </c>
       <c r="E10">
-        <v>0.9629972568142952</v>
+        <v>1.031713812199101</v>
       </c>
       <c r="F10">
-        <v>0.961201996982578</v>
+        <v>1.038867404259756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9746380199364333</v>
+        <v>1.029067567110577</v>
       </c>
       <c r="K10">
-        <v>0.9733201390135021</v>
+        <v>1.02799969860244</v>
       </c>
       <c r="L10">
-        <v>0.9780683688586368</v>
+        <v>1.0351747950427</v>
       </c>
       <c r="M10">
-        <v>0.9763089695092022</v>
+        <v>1.042302789122537</v>
       </c>
       <c r="N10">
-        <v>0.9760221177172863</v>
+        <v>1.030528961091574</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9387711034653237</v>
+        <v>1.021717040028187</v>
       </c>
       <c r="D11">
-        <v>0.9537591416940787</v>
+        <v>1.023695221703368</v>
       </c>
       <c r="E11">
-        <v>0.958446416291686</v>
+        <v>1.030864925184076</v>
       </c>
       <c r="F11">
-        <v>0.9560577977624909</v>
+        <v>1.037899143375256</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9709331829041037</v>
+        <v>1.028382316426071</v>
       </c>
       <c r="K11">
-        <v>0.9696091553519303</v>
+        <v>1.027308548652398</v>
       </c>
       <c r="L11">
-        <v>0.9741969532527296</v>
+        <v>1.034451170293381</v>
       </c>
       <c r="M11">
-        <v>0.9718588662892412</v>
+        <v>1.041459220739038</v>
       </c>
       <c r="N11">
-        <v>0.9723120193914203</v>
+        <v>1.029842737272496</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.936789610984592</v>
+        <v>1.021373330462032</v>
       </c>
       <c r="D12">
-        <v>0.9521005868818304</v>
+        <v>1.023391604010615</v>
       </c>
       <c r="E12">
-        <v>0.9567280986495031</v>
+        <v>1.0305495899387</v>
       </c>
       <c r="F12">
-        <v>0.954115316860919</v>
+        <v>1.037539515714689</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9695328743099331</v>
+        <v>1.028127639064291</v>
       </c>
       <c r="K12">
-        <v>0.968206833220485</v>
+        <v>1.027051698930342</v>
       </c>
       <c r="L12">
-        <v>0.9727340843832203</v>
+        <v>1.034182264958065</v>
       </c>
       <c r="M12">
-        <v>0.9701777529665736</v>
+        <v>1.041145819046869</v>
       </c>
       <c r="N12">
-        <v>0.9709097221984281</v>
+        <v>1.029587698239651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9372162657039612</v>
+        <v>1.021447061137352</v>
       </c>
       <c r="D13">
-        <v>0.9524576081384862</v>
+        <v>1.023456732288299</v>
       </c>
       <c r="E13">
-        <v>0.9570979869802573</v>
+        <v>1.030617231431484</v>
       </c>
       <c r="F13">
-        <v>0.9545334655714044</v>
+        <v>1.037616655907344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9698343721487249</v>
+        <v>1.028182274834975</v>
       </c>
       <c r="K13">
-        <v>0.9685087503502902</v>
+        <v>1.027106799823218</v>
       </c>
       <c r="L13">
-        <v>0.9730490336702156</v>
+        <v>1.034239951509002</v>
       </c>
       <c r="M13">
-        <v>0.970539670778071</v>
+        <v>1.041213047692358</v>
       </c>
       <c r="N13">
-        <v>0.9712116481987335</v>
+        <v>1.029642411599396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9386080373049903</v>
+        <v>1.021688630595918</v>
       </c>
       <c r="D14">
-        <v>0.9536226075491845</v>
+        <v>1.023670125128551</v>
       </c>
       <c r="E14">
-        <v>0.9583049635047385</v>
+        <v>1.030838859924248</v>
       </c>
       <c r="F14">
-        <v>0.9558978945934332</v>
+        <v>1.03786941590941</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9708179378564813</v>
+        <v>1.028361267691008</v>
       </c>
       <c r="K14">
-        <v>0.9694937382151658</v>
+        <v>1.027287319963414</v>
       </c>
       <c r="L14">
-        <v>0.9740765513082571</v>
+        <v>1.034428944942706</v>
       </c>
       <c r="M14">
-        <v>0.9717204932772964</v>
+        <v>1.041433316166309</v>
       </c>
       <c r="N14">
-        <v>0.9721966106826113</v>
+        <v>1.029821658645816</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9394608711292786</v>
+        <v>1.02183745846347</v>
       </c>
       <c r="D15">
-        <v>0.9543367664546296</v>
+        <v>1.02380159990479</v>
       </c>
       <c r="E15">
-        <v>0.959044847850556</v>
+        <v>1.030975409664376</v>
       </c>
       <c r="F15">
-        <v>0.9567342803571728</v>
+        <v>1.038025153180162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9714206815749008</v>
+        <v>1.028471531801368</v>
       </c>
       <c r="K15">
-        <v>0.9700973946654319</v>
+        <v>1.027398527590114</v>
       </c>
       <c r="L15">
-        <v>0.9747062825141085</v>
+        <v>1.034545374162416</v>
       </c>
       <c r="M15">
-        <v>0.9724442344531168</v>
+        <v>1.041569022376538</v>
       </c>
       <c r="N15">
-        <v>0.9728002103662469</v>
+        <v>1.029932079343859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.944355564707026</v>
+        <v>1.022703536584787</v>
       </c>
       <c r="D16">
-        <v>0.9584397126873173</v>
+        <v>1.024566788122119</v>
       </c>
       <c r="E16">
-        <v>0.9632954942788751</v>
+        <v>1.031770147356644</v>
       </c>
       <c r="F16">
-        <v>0.9615391067712165</v>
+        <v>1.038931668698935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9748806188999422</v>
+        <v>1.029113024854575</v>
       </c>
       <c r="K16">
-        <v>0.9735631823341544</v>
+        <v>1.028045550504569</v>
       </c>
       <c r="L16">
-        <v>0.9783219303839877</v>
+        <v>1.035222803180625</v>
       </c>
       <c r="M16">
-        <v>0.9766004921671335</v>
+        <v>1.042358765423203</v>
       </c>
       <c r="N16">
-        <v>0.9762650611991499</v>
+        <v>1.030574483390782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9473673720257126</v>
+        <v>1.023246664388997</v>
       </c>
       <c r="D17">
-        <v>0.9609678382383449</v>
+        <v>1.025046728201883</v>
       </c>
       <c r="E17">
-        <v>0.9659145552426733</v>
+        <v>1.032268632942378</v>
       </c>
       <c r="F17">
-        <v>0.9644994859774306</v>
+        <v>1.039500356710896</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.97701001037948</v>
+        <v>1.029515162702889</v>
       </c>
       <c r="K17">
-        <v>0.9756966973942688</v>
+        <v>1.028451190638781</v>
       </c>
       <c r="L17">
-        <v>0.9805478397133393</v>
+        <v>1.035647528930459</v>
       </c>
       <c r="M17">
-        <v>0.9791599796428493</v>
+        <v>1.042854043434038</v>
       </c>
       <c r="N17">
-        <v>0.9783974766588331</v>
+        <v>1.030977192320967</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9491039352110101</v>
+        <v>1.023563412991789</v>
       </c>
       <c r="D18">
-        <v>0.9624267218665479</v>
+        <v>1.025326655217996</v>
       </c>
       <c r="E18">
-        <v>0.9674258918671855</v>
+        <v>1.032559380893347</v>
       </c>
       <c r="F18">
-        <v>0.9662077493679624</v>
+        <v>1.039832084249132</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9782378988623102</v>
+        <v>1.029749632680743</v>
       </c>
       <c r="K18">
-        <v>0.9769271472034704</v>
+        <v>1.028687715498334</v>
       </c>
       <c r="L18">
-        <v>0.9818316280047528</v>
+        <v>1.035895190745699</v>
       </c>
       <c r="M18">
-        <v>0.9806364403414942</v>
+        <v>1.043142893684338</v>
       </c>
       <c r="N18">
-        <v>0.9796271088841498</v>
+        <v>1.031211995273084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9496927190060628</v>
+        <v>1.023671407999188</v>
       </c>
       <c r="D19">
-        <v>0.9629215574310379</v>
+        <v>1.02542210086033</v>
       </c>
       <c r="E19">
-        <v>0.9679385154409633</v>
+        <v>1.032658516822929</v>
       </c>
       <c r="F19">
-        <v>0.9667871640273579</v>
+        <v>1.039945198563256</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.978654231639974</v>
+        <v>1.029829565696023</v>
       </c>
       <c r="K19">
-        <v>0.9773443791407149</v>
+        <v>1.028768351217202</v>
       </c>
       <c r="L19">
-        <v>0.982266955481878</v>
+        <v>1.035979624672343</v>
       </c>
       <c r="M19">
-        <v>0.9811371508247066</v>
+        <v>1.043241378014305</v>
       </c>
       <c r="N19">
-        <v>0.9800440329021118</v>
+        <v>1.031292041802413</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9470463400101841</v>
+        <v>1.023188396991427</v>
       </c>
       <c r="D20">
-        <v>0.9606982361321218</v>
+        <v>1.02499523664348</v>
       </c>
       <c r="E20">
-        <v>0.9656352580924339</v>
+        <v>1.032215151250651</v>
       </c>
       <c r="F20">
-        <v>0.9641837943291005</v>
+        <v>1.039439339691132</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9767830235021816</v>
+        <v>1.029472026479032</v>
       </c>
       <c r="K20">
-        <v>0.9754692517878844</v>
+        <v>1.02840767740486</v>
       </c>
       <c r="L20">
-        <v>0.9803105389042676</v>
+        <v>1.035601967512463</v>
       </c>
       <c r="M20">
-        <v>0.9788870874625165</v>
+        <v>1.042800908656557</v>
       </c>
       <c r="N20">
-        <v>0.9781701674341338</v>
+        <v>1.030933994838725</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9381991764910416</v>
+        <v>1.021617496723348</v>
       </c>
       <c r="D21">
-        <v>0.9532803059538857</v>
+        <v>1.023607287012213</v>
       </c>
       <c r="E21">
-        <v>0.9579503296379068</v>
+        <v>1.030773596466804</v>
       </c>
       <c r="F21">
-        <v>0.9554970019078026</v>
+        <v>1.037794983670888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9705289859399321</v>
+        <v>1.028308562782892</v>
       </c>
       <c r="K21">
-        <v>0.9692043598582853</v>
+        <v>1.0272341647859</v>
       </c>
       <c r="L21">
-        <v>0.9737746760826628</v>
+        <v>1.034373294400773</v>
       </c>
       <c r="M21">
-        <v>0.9713735671499569</v>
+        <v>1.041368454362953</v>
       </c>
       <c r="N21">
-        <v>0.9719072484211974</v>
+        <v>1.029768878890684</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9324344990860652</v>
+        <v>1.020629331602537</v>
       </c>
       <c r="D22">
-        <v>0.9484593717975471</v>
+        <v>1.022734474334227</v>
       </c>
       <c r="E22">
-        <v>0.9529555707897371</v>
+        <v>1.029867111170914</v>
       </c>
       <c r="F22">
-        <v>0.9498503437477738</v>
+        <v>1.036761268503874</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9664558763341889</v>
+        <v>1.027576207601987</v>
       </c>
       <c r="K22">
-        <v>0.9651259999416173</v>
+        <v>1.026495600789229</v>
       </c>
       <c r="L22">
-        <v>0.9695203706438141</v>
+        <v>1.033600089044928</v>
       </c>
       <c r="M22">
-        <v>0.9664853322354898</v>
+        <v>1.040467447624599</v>
       </c>
       <c r="N22">
-        <v>0.9678283545326218</v>
+        <v>1.029035483681421</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9355106847126358</v>
+        <v>1.021153223831285</v>
       </c>
       <c r="D23">
-        <v>0.9510307164215467</v>
+        <v>1.023197184788923</v>
       </c>
       <c r="E23">
-        <v>0.9556196615005353</v>
+        <v>1.03034766926263</v>
       </c>
       <c r="F23">
-        <v>0.9528622357238504</v>
+        <v>1.037309247385818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9686291709353395</v>
+        <v>1.02796452379171</v>
       </c>
       <c r="K23">
-        <v>0.967301919722099</v>
+        <v>1.02688719799077</v>
       </c>
       <c r="L23">
-        <v>0.9717901215952712</v>
+        <v>1.034010046548583</v>
       </c>
       <c r="M23">
-        <v>0.969093076143252</v>
+        <v>1.040945124589174</v>
       </c>
       <c r="N23">
-        <v>0.9700047354613865</v>
+        <v>1.029424351324673</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9471914626856696</v>
+        <v>1.023214725670281</v>
       </c>
       <c r="D24">
-        <v>0.9608201061663426</v>
+        <v>1.025018503505079</v>
       </c>
       <c r="E24">
-        <v>0.9657615107102127</v>
+        <v>1.032239317356519</v>
       </c>
       <c r="F24">
-        <v>0.9643264986972907</v>
+        <v>1.039466910589367</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9768856326859936</v>
+        <v>1.029491518160384</v>
       </c>
       <c r="K24">
-        <v>0.9755720677709819</v>
+        <v>1.02842733940359</v>
       </c>
       <c r="L24">
-        <v>0.9804178097336296</v>
+        <v>1.035622554983063</v>
       </c>
       <c r="M24">
-        <v>0.9790104463437027</v>
+        <v>1.042824918089508</v>
       </c>
       <c r="N24">
-        <v>0.9782729223347558</v>
+        <v>1.030953514200499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9599625361728353</v>
+        <v>1.025605095095596</v>
       </c>
       <c r="D25">
-        <v>0.9715688273521512</v>
+        <v>1.027131511033062</v>
       </c>
       <c r="E25">
-        <v>0.9768964137255627</v>
+        <v>1.034434082541934</v>
       </c>
       <c r="F25">
-        <v>0.9769122495716146</v>
+        <v>1.041971618222792</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9859167563958532</v>
+        <v>1.031259984173877</v>
       </c>
       <c r="K25">
-        <v>0.9846251404318854</v>
+        <v>1.030211534456443</v>
       </c>
       <c r="L25">
-        <v>0.9898642937315892</v>
+        <v>1.037490910712362</v>
       </c>
       <c r="M25">
-        <v>0.9898798685667902</v>
+        <v>1.045004877348884</v>
       </c>
       <c r="N25">
-        <v>0.9873168712761679</v>
+        <v>1.032724491638578</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027510331597459</v>
+        <v>0.9696069654806982</v>
       </c>
       <c r="D2">
-        <v>1.028816560393554</v>
+        <v>0.9797170837273234</v>
       </c>
       <c r="E2">
-        <v>1.036184467811835</v>
+        <v>0.9853371803107579</v>
       </c>
       <c r="F2">
-        <v>1.043970251305802</v>
+        <v>0.9864538976859744</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.032667803777056</v>
+        <v>0.9927363497540765</v>
       </c>
       <c r="K2">
-        <v>1.031632276888562</v>
+        <v>0.9914664158474563</v>
       </c>
       <c r="L2">
-        <v>1.038978935124798</v>
+        <v>0.9970046431290083</v>
       </c>
       <c r="M2">
-        <v>1.046742618042306</v>
+        <v>0.9981052337738676</v>
       </c>
       <c r="N2">
-        <v>1.034134310507094</v>
+        <v>0.9941461492391783</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028893043923549</v>
+        <v>0.9763335181888461</v>
       </c>
       <c r="D3">
-        <v>1.030039968870523</v>
+        <v>0.985415815665619</v>
       </c>
       <c r="E3">
-        <v>1.037455394122874</v>
+        <v>0.9912405287132542</v>
       </c>
       <c r="F3">
-        <v>1.045422046661947</v>
+        <v>0.9931286263097686</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.033688507682869</v>
+        <v>0.9974908279561283</v>
       </c>
       <c r="K3">
-        <v>1.032662580953607</v>
+        <v>0.9962387688038432</v>
       </c>
       <c r="L3">
-        <v>1.040058186330808</v>
+        <v>1.001986729264595</v>
       </c>
       <c r="M3">
-        <v>1.048003884081036</v>
+        <v>1.003850189264242</v>
       </c>
       <c r="N3">
-        <v>1.035156463929508</v>
+        <v>0.9989073793456229</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029787481076281</v>
+        <v>0.980569245146267</v>
       </c>
       <c r="D4">
-        <v>1.030831580599395</v>
+        <v>0.9890109230574788</v>
       </c>
       <c r="E4">
-        <v>1.038277790879478</v>
+        <v>0.9949647933261454</v>
       </c>
       <c r="F4">
-        <v>1.046361769813064</v>
+        <v>0.9973404415239476</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.034348301310005</v>
+        <v>1.000483398898873</v>
       </c>
       <c r="K4">
-        <v>1.033328686352143</v>
+        <v>0.9992438112915578</v>
       </c>
       <c r="L4">
-        <v>1.040756008892513</v>
+        <v>1.00512437115986</v>
       </c>
       <c r="M4">
-        <v>1.048819810016611</v>
+        <v>1.007471071411997</v>
       </c>
       <c r="N4">
-        <v>1.035817194539274</v>
+        <v>1.001904200082359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030163442453253</v>
+        <v>0.9823234712691309</v>
       </c>
       <c r="D5">
-        <v>1.031164373793181</v>
+        <v>0.9905013310534155</v>
       </c>
       <c r="E5">
-        <v>1.038623535380957</v>
+        <v>0.9965087704455766</v>
       </c>
       <c r="F5">
-        <v>1.046756909016546</v>
+        <v>0.9990867947609433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.034625521237688</v>
+        <v>1.001722386966615</v>
       </c>
       <c r="K5">
-        <v>1.033608583556463</v>
+        <v>1.000488248400798</v>
       </c>
       <c r="L5">
-        <v>1.041049250978025</v>
+        <v>1.006423851824923</v>
       </c>
       <c r="M5">
-        <v>1.049162781780916</v>
+        <v>1.008971376629581</v>
       </c>
       <c r="N5">
-        <v>1.036094808151051</v>
+        <v>1.003144947655272</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030226564640103</v>
+        <v>0.9826165023294416</v>
       </c>
       <c r="D6">
-        <v>1.031220251308486</v>
+        <v>0.9907503785434475</v>
       </c>
       <c r="E6">
-        <v>1.038681588028801</v>
+        <v>0.996766771028112</v>
       </c>
       <c r="F6">
-        <v>1.046823259419736</v>
+        <v>0.9993786283540798</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.034672058548404</v>
+        <v>1.001929326709022</v>
       </c>
       <c r="K6">
-        <v>1.03365557178718</v>
+        <v>1.000696114848286</v>
       </c>
       <c r="L6">
-        <v>1.041098480522787</v>
+        <v>1.006640920419931</v>
       </c>
       <c r="M6">
-        <v>1.049220365808535</v>
+        <v>1.009222032286703</v>
       </c>
       <c r="N6">
-        <v>1.036141411550087</v>
+        <v>1.003352181275849</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029792504920548</v>
+        <v>0.980592787339033</v>
       </c>
       <c r="D7">
-        <v>1.030836027395722</v>
+        <v>0.9890309189419147</v>
       </c>
       <c r="E7">
-        <v>1.038282410695053</v>
+        <v>0.9949855078060237</v>
       </c>
       <c r="F7">
-        <v>1.04636704936435</v>
+        <v>0.9973638701095855</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.03435200615054</v>
+        <v>1.000500028061964</v>
       </c>
       <c r="K7">
-        <v>1.033332426873142</v>
+        <v>0.9992605124689746</v>
       </c>
       <c r="L7">
-        <v>1.040759927685062</v>
+        <v>1.005141810531847</v>
       </c>
       <c r="M7">
-        <v>1.048824392988327</v>
+        <v>1.007491203166524</v>
       </c>
       <c r="N7">
-        <v>1.035820904641107</v>
+        <v>1.00192085286077</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027977684463045</v>
+        <v>0.9719053539760714</v>
       </c>
       <c r="D8">
-        <v>1.029230022185553</v>
+        <v>0.9816628297194115</v>
       </c>
       <c r="E8">
-        <v>1.036613980787313</v>
+        <v>0.9873527789637704</v>
       </c>
       <c r="F8">
-        <v>1.044460829820963</v>
+        <v>0.9887327013389026</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.033012896046095</v>
+        <v>0.9943611426919985</v>
       </c>
       <c r="K8">
-        <v>1.031980592852108</v>
+        <v>0.9930970553648334</v>
       </c>
       <c r="L8">
-        <v>1.039343783782488</v>
+        <v>0.9987068347274222</v>
       </c>
       <c r="M8">
-        <v>1.047168911987313</v>
+        <v>1.000067489824349</v>
       </c>
       <c r="N8">
-        <v>1.034479892846716</v>
+        <v>0.9957732495694381</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02477746014151</v>
+        <v>0.9556288962569085</v>
       </c>
       <c r="D9">
-        <v>1.026399770131655</v>
+        <v>0.9679161554726832</v>
       </c>
       <c r="E9">
-        <v>1.03367400778006</v>
+        <v>0.9731125728772059</v>
       </c>
       <c r="F9">
-        <v>1.041104043147697</v>
+        <v>0.9726353356386738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.030647942229689</v>
+        <v>0.9828520484017852</v>
       </c>
       <c r="K9">
-        <v>1.029593986455951</v>
+        <v>0.9815521418671828</v>
       </c>
       <c r="L9">
-        <v>1.036844191959806</v>
+        <v>0.9866574824338793</v>
       </c>
       <c r="M9">
-        <v>1.044250060285979</v>
+        <v>0.9861885571128982</v>
       </c>
       <c r="N9">
-        <v>1.032111580524626</v>
+        <v>0.9842478110452215</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022642151200193</v>
+        <v>0.9440124074524228</v>
       </c>
       <c r="D10">
-        <v>1.024512548296931</v>
+        <v>0.9581518334429985</v>
       </c>
       <c r="E10">
-        <v>1.031713812199101</v>
+        <v>0.9629972568142952</v>
       </c>
       <c r="F10">
-        <v>1.038867404259756</v>
+        <v>0.9612019969825779</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.029067567110577</v>
+        <v>0.9746380199364336</v>
       </c>
       <c r="K10">
-        <v>1.02799969860244</v>
+        <v>0.9733201390135026</v>
       </c>
       <c r="L10">
-        <v>1.0351747950427</v>
+        <v>0.9780683688586368</v>
       </c>
       <c r="M10">
-        <v>1.042302789122537</v>
+        <v>0.9763089695092021</v>
       </c>
       <c r="N10">
-        <v>1.030528961091574</v>
+        <v>0.9760221177172868</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021717040028187</v>
+        <v>0.9387711034653243</v>
       </c>
       <c r="D11">
-        <v>1.023695221703368</v>
+        <v>0.9537591416940794</v>
       </c>
       <c r="E11">
-        <v>1.030864925184076</v>
+        <v>0.9584464162916866</v>
       </c>
       <c r="F11">
-        <v>1.037899143375256</v>
+        <v>0.9560577977624911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.028382316426071</v>
+        <v>0.9709331829041044</v>
       </c>
       <c r="K11">
-        <v>1.027308548652398</v>
+        <v>0.9696091553519308</v>
       </c>
       <c r="L11">
-        <v>1.034451170293381</v>
+        <v>0.9741969532527301</v>
       </c>
       <c r="M11">
-        <v>1.041459220739038</v>
+        <v>0.9718588662892412</v>
       </c>
       <c r="N11">
-        <v>1.029842737272496</v>
+        <v>0.972312019391421</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021373330462032</v>
+        <v>0.9367896109845923</v>
       </c>
       <c r="D12">
-        <v>1.023391604010615</v>
+        <v>0.9521005868818306</v>
       </c>
       <c r="E12">
-        <v>1.0305495899387</v>
+        <v>0.9567280986495031</v>
       </c>
       <c r="F12">
-        <v>1.037539515714689</v>
+        <v>0.9541153168609192</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.028127639064291</v>
+        <v>0.9695328743099333</v>
       </c>
       <c r="K12">
-        <v>1.027051698930342</v>
+        <v>0.9682068332204853</v>
       </c>
       <c r="L12">
-        <v>1.034182264958065</v>
+        <v>0.9727340843832202</v>
       </c>
       <c r="M12">
-        <v>1.041145819046869</v>
+        <v>0.9701777529665737</v>
       </c>
       <c r="N12">
-        <v>1.029587698239651</v>
+        <v>0.9709097221984283</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021447061137352</v>
+        <v>0.9372162657039624</v>
       </c>
       <c r="D13">
-        <v>1.023456732288299</v>
+        <v>0.9524576081384875</v>
       </c>
       <c r="E13">
-        <v>1.030617231431484</v>
+        <v>0.9570979869802586</v>
       </c>
       <c r="F13">
-        <v>1.037616655907344</v>
+        <v>0.9545334655714061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.028182274834975</v>
+        <v>0.9698343721487259</v>
       </c>
       <c r="K13">
-        <v>1.027106799823218</v>
+        <v>0.9685087503502913</v>
       </c>
       <c r="L13">
-        <v>1.034239951509002</v>
+        <v>0.9730490336702166</v>
       </c>
       <c r="M13">
-        <v>1.041213047692358</v>
+        <v>0.9705396707780725</v>
       </c>
       <c r="N13">
-        <v>1.029642411599396</v>
+        <v>0.9712116481987344</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021688630595918</v>
+        <v>0.9386080373049901</v>
       </c>
       <c r="D14">
-        <v>1.023670125128551</v>
+        <v>0.9536226075491839</v>
       </c>
       <c r="E14">
-        <v>1.030838859924248</v>
+        <v>0.9583049635047381</v>
       </c>
       <c r="F14">
-        <v>1.03786941590941</v>
+        <v>0.9558978945934328</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.028361267691008</v>
+        <v>0.9708179378564809</v>
       </c>
       <c r="K14">
-        <v>1.027287319963414</v>
+        <v>0.9694937382151655</v>
       </c>
       <c r="L14">
-        <v>1.034428944942706</v>
+        <v>0.9740765513082568</v>
       </c>
       <c r="M14">
-        <v>1.041433316166309</v>
+        <v>0.971720493277296</v>
       </c>
       <c r="N14">
-        <v>1.029821658645816</v>
+        <v>0.972196610682611</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02183745846347</v>
+        <v>0.9394608711292791</v>
       </c>
       <c r="D15">
-        <v>1.02380159990479</v>
+        <v>0.9543367664546301</v>
       </c>
       <c r="E15">
-        <v>1.030975409664376</v>
+        <v>0.9590448478505565</v>
       </c>
       <c r="F15">
-        <v>1.038025153180162</v>
+        <v>0.9567342803571732</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.028471531801368</v>
+        <v>0.9714206815749011</v>
       </c>
       <c r="K15">
-        <v>1.027398527590114</v>
+        <v>0.9700973946654323</v>
       </c>
       <c r="L15">
-        <v>1.034545374162416</v>
+        <v>0.9747062825141088</v>
       </c>
       <c r="M15">
-        <v>1.041569022376538</v>
+        <v>0.9724442344531171</v>
       </c>
       <c r="N15">
-        <v>1.029932079343859</v>
+        <v>0.9728002103662472</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022703536584787</v>
+        <v>0.944355564707026</v>
       </c>
       <c r="D16">
-        <v>1.024566788122119</v>
+        <v>0.9584397126873173</v>
       </c>
       <c r="E16">
-        <v>1.031770147356644</v>
+        <v>0.963295494278875</v>
       </c>
       <c r="F16">
-        <v>1.038931668698935</v>
+        <v>0.9615391067712165</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.029113024854575</v>
+        <v>0.9748806188999422</v>
       </c>
       <c r="K16">
-        <v>1.028045550504569</v>
+        <v>0.9735631823341543</v>
       </c>
       <c r="L16">
-        <v>1.035222803180625</v>
+        <v>0.9783219303839876</v>
       </c>
       <c r="M16">
-        <v>1.042358765423203</v>
+        <v>0.9766004921671335</v>
       </c>
       <c r="N16">
-        <v>1.030574483390782</v>
+        <v>0.9762650611991498</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023246664388997</v>
+        <v>0.9473673720257128</v>
       </c>
       <c r="D17">
-        <v>1.025046728201883</v>
+        <v>0.960967838238345</v>
       </c>
       <c r="E17">
-        <v>1.032268632942378</v>
+        <v>0.9659145552426731</v>
       </c>
       <c r="F17">
-        <v>1.039500356710896</v>
+        <v>0.9644994859774305</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.029515162702889</v>
+        <v>0.9770100103794802</v>
       </c>
       <c r="K17">
-        <v>1.028451190638781</v>
+        <v>0.9756966973942689</v>
       </c>
       <c r="L17">
-        <v>1.035647528930459</v>
+        <v>0.9805478397133391</v>
       </c>
       <c r="M17">
-        <v>1.042854043434038</v>
+        <v>0.9791599796428492</v>
       </c>
       <c r="N17">
-        <v>1.030977192320967</v>
+        <v>0.9783974766588336</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023563412991789</v>
+        <v>0.9491039352110104</v>
       </c>
       <c r="D18">
-        <v>1.025326655217996</v>
+        <v>0.9624267218665479</v>
       </c>
       <c r="E18">
-        <v>1.032559380893347</v>
+        <v>0.9674258918671857</v>
       </c>
       <c r="F18">
-        <v>1.039832084249132</v>
+        <v>0.9662077493679623</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.029749632680743</v>
+        <v>0.9782378988623105</v>
       </c>
       <c r="K18">
-        <v>1.028687715498334</v>
+        <v>0.9769271472034705</v>
       </c>
       <c r="L18">
-        <v>1.035895190745699</v>
+        <v>0.981831628004753</v>
       </c>
       <c r="M18">
-        <v>1.043142893684338</v>
+        <v>0.9806364403414943</v>
       </c>
       <c r="N18">
-        <v>1.031211995273084</v>
+        <v>0.9796271088841502</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023671407999188</v>
+        <v>0.9496927190060634</v>
       </c>
       <c r="D19">
-        <v>1.02542210086033</v>
+        <v>0.9629215574310386</v>
       </c>
       <c r="E19">
-        <v>1.032658516822929</v>
+        <v>0.9679385154409637</v>
       </c>
       <c r="F19">
-        <v>1.039945198563256</v>
+        <v>0.9667871640273583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.029829565696023</v>
+        <v>0.9786542316399744</v>
       </c>
       <c r="K19">
-        <v>1.028768351217202</v>
+        <v>0.9773443791407154</v>
       </c>
       <c r="L19">
-        <v>1.035979624672343</v>
+        <v>0.9822669554818786</v>
       </c>
       <c r="M19">
-        <v>1.043241378014305</v>
+        <v>0.981137150824707</v>
       </c>
       <c r="N19">
-        <v>1.031292041802413</v>
+        <v>0.9800440329021124</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023188396991427</v>
+        <v>0.9470463400101842</v>
       </c>
       <c r="D20">
-        <v>1.02499523664348</v>
+        <v>0.9606982361321222</v>
       </c>
       <c r="E20">
-        <v>1.032215151250651</v>
+        <v>0.9656352580924338</v>
       </c>
       <c r="F20">
-        <v>1.039439339691132</v>
+        <v>0.9641837943291004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.029472026479032</v>
+        <v>0.9767830235021817</v>
       </c>
       <c r="K20">
-        <v>1.02840767740486</v>
+        <v>0.9754692517878846</v>
       </c>
       <c r="L20">
-        <v>1.035601967512463</v>
+        <v>0.9803105389042676</v>
       </c>
       <c r="M20">
-        <v>1.042800908656557</v>
+        <v>0.9788870874625164</v>
       </c>
       <c r="N20">
-        <v>1.030933994838725</v>
+        <v>0.9781701674341337</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021617496723348</v>
+        <v>0.9381991764910409</v>
       </c>
       <c r="D21">
-        <v>1.023607287012213</v>
+        <v>0.9532803059538854</v>
       </c>
       <c r="E21">
-        <v>1.030773596466804</v>
+        <v>0.9579503296379063</v>
       </c>
       <c r="F21">
-        <v>1.037794983670888</v>
+        <v>0.9554970019078022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.028308562782892</v>
+        <v>0.9705289859399313</v>
       </c>
       <c r="K21">
-        <v>1.0272341647859</v>
+        <v>0.9692043598582849</v>
       </c>
       <c r="L21">
-        <v>1.034373294400773</v>
+        <v>0.9737746760826622</v>
       </c>
       <c r="M21">
-        <v>1.041368454362953</v>
+        <v>0.9713735671499564</v>
       </c>
       <c r="N21">
-        <v>1.029768878890684</v>
+        <v>0.9719072484211968</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020629331602537</v>
+        <v>0.9324344990860657</v>
       </c>
       <c r="D22">
-        <v>1.022734474334227</v>
+        <v>0.9484593717975477</v>
       </c>
       <c r="E22">
-        <v>1.029867111170914</v>
+        <v>0.9529555707897374</v>
       </c>
       <c r="F22">
-        <v>1.036761268503874</v>
+        <v>0.9498503437477739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.027576207601987</v>
+        <v>0.9664558763341893</v>
       </c>
       <c r="K22">
-        <v>1.026495600789229</v>
+        <v>0.965125999941618</v>
       </c>
       <c r="L22">
-        <v>1.033600089044928</v>
+        <v>0.9695203706438144</v>
       </c>
       <c r="M22">
-        <v>1.040467447624599</v>
+        <v>0.9664853322354899</v>
       </c>
       <c r="N22">
-        <v>1.029035483681421</v>
+        <v>0.9678283545326223</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021153223831285</v>
+        <v>0.9355106847126361</v>
       </c>
       <c r="D23">
-        <v>1.023197184788923</v>
+        <v>0.9510307164215467</v>
       </c>
       <c r="E23">
-        <v>1.03034766926263</v>
+        <v>0.9556196615005353</v>
       </c>
       <c r="F23">
-        <v>1.037309247385818</v>
+        <v>0.952862235723851</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.02796452379171</v>
+        <v>0.9686291709353397</v>
       </c>
       <c r="K23">
-        <v>1.02688719799077</v>
+        <v>0.9673019197220991</v>
       </c>
       <c r="L23">
-        <v>1.034010046548583</v>
+        <v>0.9717901215952712</v>
       </c>
       <c r="M23">
-        <v>1.040945124589174</v>
+        <v>0.9690930761432524</v>
       </c>
       <c r="N23">
-        <v>1.029424351324673</v>
+        <v>0.9700047354613867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023214725670281</v>
+        <v>0.9471914626856706</v>
       </c>
       <c r="D24">
-        <v>1.025018503505079</v>
+        <v>0.9608201061663435</v>
       </c>
       <c r="E24">
-        <v>1.032239317356519</v>
+        <v>0.965761510710213</v>
       </c>
       <c r="F24">
-        <v>1.039466910589367</v>
+        <v>0.9643264986972914</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.029491518160384</v>
+        <v>0.9768856326859947</v>
       </c>
       <c r="K24">
-        <v>1.02842733940359</v>
+        <v>0.9755720677709829</v>
       </c>
       <c r="L24">
-        <v>1.035622554983063</v>
+        <v>0.9804178097336301</v>
       </c>
       <c r="M24">
-        <v>1.042824918089508</v>
+        <v>0.9790104463437033</v>
       </c>
       <c r="N24">
-        <v>1.030953514200499</v>
+        <v>0.9782729223347567</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025605095095596</v>
+        <v>0.9599625361728341</v>
       </c>
       <c r="D25">
-        <v>1.027131511033062</v>
+        <v>0.9715688273521503</v>
       </c>
       <c r="E25">
-        <v>1.034434082541934</v>
+        <v>0.9768964137255615</v>
       </c>
       <c r="F25">
-        <v>1.041971618222792</v>
+        <v>0.9769122495716137</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.031259984173877</v>
+        <v>0.9859167563958522</v>
       </c>
       <c r="K25">
-        <v>1.030211534456443</v>
+        <v>0.9846251404318845</v>
       </c>
       <c r="L25">
-        <v>1.037490910712362</v>
+        <v>0.989864293731588</v>
       </c>
       <c r="M25">
-        <v>1.045004877348884</v>
+        <v>0.9898798685667896</v>
       </c>
       <c r="N25">
-        <v>1.032724491638578</v>
+        <v>0.987316871276167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9696069654806982</v>
+        <v>0.9985270016687718</v>
       </c>
       <c r="D2">
-        <v>0.9797170837273234</v>
+        <v>1.011542469134477</v>
       </c>
       <c r="E2">
-        <v>0.9853371803107579</v>
+        <v>1.005194373985498</v>
       </c>
       <c r="F2">
-        <v>0.9864538976859744</v>
+        <v>1.02455883434004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.043842659871584</v>
       </c>
       <c r="J2">
-        <v>0.9927363497540765</v>
+        <v>1.020751859300456</v>
       </c>
       <c r="K2">
-        <v>0.9914664158474563</v>
+        <v>1.022843307446424</v>
       </c>
       <c r="L2">
-        <v>0.9970046431290083</v>
+        <v>1.016581814178284</v>
       </c>
       <c r="M2">
-        <v>0.9981052337738676</v>
+        <v>1.03568630826532</v>
       </c>
       <c r="N2">
-        <v>0.9941461492391783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010839722023703</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036815700158301</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.02722221473029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9763335181888461</v>
+        <v>1.001946196784507</v>
       </c>
       <c r="D3">
-        <v>0.985415815665619</v>
+        <v>1.01399314750563</v>
       </c>
       <c r="E3">
-        <v>0.9912405287132542</v>
+        <v>1.007846258499231</v>
       </c>
       <c r="F3">
-        <v>0.9931286263097686</v>
+        <v>1.027120330111118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.044349848019425</v>
       </c>
       <c r="J3">
-        <v>0.9974908279561283</v>
+        <v>1.022383946754134</v>
       </c>
       <c r="K3">
-        <v>0.9962387688038432</v>
+        <v>1.024450060224963</v>
       </c>
       <c r="L3">
-        <v>1.001986729264595</v>
+        <v>1.018379719792203</v>
       </c>
       <c r="M3">
-        <v>1.003850189264242</v>
+        <v>1.037417573621539</v>
       </c>
       <c r="N3">
-        <v>0.9989073793456229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011394683454245</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038185886342883</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.028355658258037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.980569245146267</v>
+        <v>1.004122553438532</v>
       </c>
       <c r="D4">
-        <v>0.9890109230574788</v>
+        <v>1.015559818994419</v>
       </c>
       <c r="E4">
-        <v>0.9949647933261454</v>
+        <v>1.009540064661944</v>
       </c>
       <c r="F4">
-        <v>0.9973404415239476</v>
+        <v>1.028756341957522</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.044662042511943</v>
       </c>
       <c r="J4">
-        <v>1.000483398898873</v>
+        <v>1.023421388549054</v>
       </c>
       <c r="K4">
-        <v>0.9992438112915578</v>
+        <v>1.025474008950953</v>
       </c>
       <c r="L4">
-        <v>1.00512437115986</v>
+        <v>1.019524697101439</v>
       </c>
       <c r="M4">
-        <v>1.007471071411997</v>
+        <v>1.038519662289003</v>
       </c>
       <c r="N4">
-        <v>1.001904200082359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011747346575006</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039058117910761</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.029080609383074</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9823234712691309</v>
+        <v>1.005032583693988</v>
       </c>
       <c r="D5">
-        <v>0.9905013310534155</v>
+        <v>1.016219439495204</v>
       </c>
       <c r="E5">
-        <v>0.9965087704455766</v>
+        <v>1.010250093210842</v>
       </c>
       <c r="F5">
-        <v>0.9990867947609433</v>
+        <v>1.029440647137098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.044790773932601</v>
       </c>
       <c r="J5">
-        <v>1.001722386966615</v>
+        <v>1.023856573534295</v>
       </c>
       <c r="K5">
-        <v>1.000488248400798</v>
+        <v>1.025906179953</v>
       </c>
       <c r="L5">
-        <v>1.006423851824923</v>
+        <v>1.020004825122018</v>
       </c>
       <c r="M5">
-        <v>1.008971376629581</v>
+        <v>1.038980245814507</v>
       </c>
       <c r="N5">
-        <v>1.003144947655272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011895481960254</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039422639528456</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.029393474198504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9826165023294416</v>
+        <v>1.005189156485239</v>
       </c>
       <c r="D6">
-        <v>0.9907503785434475</v>
+        <v>1.016336563758597</v>
       </c>
       <c r="E6">
-        <v>0.996766771028112</v>
+        <v>1.01037281553335</v>
       </c>
       <c r="F6">
-        <v>0.9993786283540798</v>
+        <v>1.029557136472692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.04481372552124</v>
       </c>
       <c r="J6">
-        <v>1.001929326709022</v>
+        <v>1.023933547106213</v>
       </c>
       <c r="K6">
-        <v>1.000696114848286</v>
+        <v>1.025985084609021</v>
       </c>
       <c r="L6">
-        <v>1.006640920419931</v>
+        <v>1.020088952464513</v>
       </c>
       <c r="M6">
-        <v>1.009222032286703</v>
+        <v>1.039059194331401</v>
       </c>
       <c r="N6">
-        <v>1.003352181275849</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011921957169893</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039485122077088</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.029458138617279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.980592787339033</v>
+        <v>1.004146244039678</v>
       </c>
       <c r="D7">
-        <v>0.9890309189419147</v>
+        <v>1.015586467053406</v>
       </c>
       <c r="E7">
-        <v>0.9949855078060237</v>
+        <v>1.009559841134495</v>
       </c>
       <c r="F7">
-        <v>0.9973638701095855</v>
+        <v>1.028770591264793</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.044667985912146</v>
       </c>
       <c r="J7">
-        <v>1.000500028061964</v>
+        <v>1.02343842776916</v>
       </c>
       <c r="K7">
-        <v>0.9992605124689746</v>
+        <v>1.025497407915237</v>
       </c>
       <c r="L7">
-        <v>1.005141810531847</v>
+        <v>1.019541277266916</v>
       </c>
       <c r="M7">
-        <v>1.007491203166524</v>
+        <v>1.038530862072441</v>
       </c>
       <c r="N7">
-        <v>1.00192085286077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011753897112872</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039066981806151</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.029117559104815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9719053539760714</v>
+        <v>0.999704683304651</v>
       </c>
       <c r="D8">
-        <v>0.9816628297194115</v>
+        <v>1.012396924666408</v>
       </c>
       <c r="E8">
-        <v>0.9873527789637704</v>
+        <v>1.006108240439353</v>
       </c>
       <c r="F8">
-        <v>0.9887327013389026</v>
+        <v>1.025435471358704</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.044022729118907</v>
       </c>
       <c r="J8">
-        <v>0.9943611426919985</v>
+        <v>1.02132145554067</v>
       </c>
       <c r="K8">
-        <v>0.9930970553648334</v>
+        <v>1.023411549836693</v>
       </c>
       <c r="L8">
-        <v>0.9987068347274222</v>
+        <v>1.017206102580597</v>
       </c>
       <c r="M8">
-        <v>1.000067489824349</v>
+        <v>1.036281582227345</v>
       </c>
       <c r="N8">
-        <v>0.9957732495694381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01103440990782</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037286821855669</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.027647276920248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9556288962569085</v>
+        <v>0.9915720945573157</v>
       </c>
       <c r="D9">
-        <v>0.9679161554726832</v>
+        <v>1.006596500166294</v>
       </c>
       <c r="E9">
-        <v>0.9731125728772059</v>
+        <v>0.9998337495342818</v>
       </c>
       <c r="F9">
-        <v>0.9726353356386738</v>
+        <v>1.019380628002395</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.04275476998401</v>
       </c>
       <c r="J9">
-        <v>0.9828520484017852</v>
+        <v>1.017426014861753</v>
       </c>
       <c r="K9">
-        <v>0.9815521418671828</v>
+        <v>1.019583452745291</v>
       </c>
       <c r="L9">
-        <v>0.9866574824338793</v>
+        <v>1.012929524612243</v>
       </c>
       <c r="M9">
-        <v>0.9861885571128982</v>
+        <v>1.032166903346209</v>
       </c>
       <c r="N9">
-        <v>0.9842478110452215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009708492296252</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034030307327379</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024937249100548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440124074524228</v>
+        <v>0.9859923900793649</v>
       </c>
       <c r="D10">
-        <v>0.9581518334429985</v>
+        <v>1.002664915335974</v>
       </c>
       <c r="E10">
-        <v>0.9629972568142952</v>
+        <v>0.995569438323314</v>
       </c>
       <c r="F10">
-        <v>0.9612019969825779</v>
+        <v>1.015436639401148</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.041857813855056</v>
       </c>
       <c r="J10">
-        <v>0.9746380199364336</v>
+        <v>1.014773005109935</v>
       </c>
       <c r="K10">
-        <v>0.9733201390135026</v>
+        <v>1.016986220039968</v>
       </c>
       <c r="L10">
-        <v>0.9780683688586368</v>
+        <v>1.010019151374562</v>
       </c>
       <c r="M10">
-        <v>0.9763089695092021</v>
+        <v>1.029532663968974</v>
       </c>
       <c r="N10">
-        <v>0.9760221177172868</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008808754721543</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03199730755909</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023117872270283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9387711034653243</v>
+        <v>0.9839082459397117</v>
       </c>
       <c r="D11">
-        <v>0.9537591416940794</v>
+        <v>1.001265880490364</v>
       </c>
       <c r="E11">
-        <v>0.9584464162916866</v>
+        <v>0.9940350929908524</v>
       </c>
       <c r="F11">
-        <v>0.9560577977624911</v>
+        <v>1.015371571977898</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.041710262326879</v>
       </c>
       <c r="J11">
-        <v>0.9709331829041044</v>
+        <v>1.0139661290453</v>
       </c>
       <c r="K11">
-        <v>0.9696091553519308</v>
+        <v>1.016163963579212</v>
       </c>
       <c r="L11">
-        <v>0.9741969532527301</v>
+        <v>1.00907038228844</v>
       </c>
       <c r="M11">
-        <v>0.9718588662892412</v>
+        <v>1.030009310603066</v>
       </c>
       <c r="N11">
-        <v>0.972312019391421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008565080804755</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032813600852734</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022569880733698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9367896109845923</v>
+        <v>0.9832416708417647</v>
       </c>
       <c r="D12">
-        <v>0.9521005868818306</v>
+        <v>1.000833872222692</v>
       </c>
       <c r="E12">
-        <v>0.9567280986495031</v>
+        <v>0.9935651283359987</v>
       </c>
       <c r="F12">
-        <v>0.9541153168609192</v>
+        <v>1.015909425412684</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.041735291788593</v>
       </c>
       <c r="J12">
-        <v>0.9695328743099333</v>
+        <v>1.013772605857031</v>
       </c>
       <c r="K12">
-        <v>0.9682068332204853</v>
+        <v>1.015945113975233</v>
       </c>
       <c r="L12">
-        <v>0.9727340843832202</v>
+        <v>1.008816657508509</v>
       </c>
       <c r="M12">
-        <v>0.9701777529665737</v>
+        <v>1.030738043990278</v>
       </c>
       <c r="N12">
-        <v>0.9709097221984283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00852371988744</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03371813247591</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022415142023537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9372162657039624</v>
+        <v>0.9836358688912845</v>
       </c>
       <c r="D13">
-        <v>0.9524576081384875</v>
+        <v>1.001136637727266</v>
       </c>
       <c r="E13">
-        <v>0.9570979869802586</v>
+        <v>0.9938933367898829</v>
       </c>
       <c r="F13">
-        <v>0.9545334655714061</v>
+        <v>1.016973935177862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.041905422037819</v>
       </c>
       <c r="J13">
-        <v>0.9698343721487259</v>
+        <v>1.014054085049008</v>
       </c>
       <c r="K13">
-        <v>0.9685087503502913</v>
+        <v>1.016198133064219</v>
       </c>
       <c r="L13">
-        <v>0.9730490336702166</v>
+        <v>1.009094042815628</v>
       </c>
       <c r="M13">
-        <v>0.9705396707780725</v>
+        <v>1.031740042448261</v>
       </c>
       <c r="N13">
-        <v>0.9712116481987344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008641687144727</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034788235717688</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022591505477139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9386080373049901</v>
+        <v>0.9843913290365275</v>
       </c>
       <c r="D14">
-        <v>0.9536226075491839</v>
+        <v>1.001682435043206</v>
       </c>
       <c r="E14">
-        <v>0.9583049635047381</v>
+        <v>0.9944837995219213</v>
       </c>
       <c r="F14">
-        <v>0.9558978945934328</v>
+        <v>1.017945610212096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.04208792751677</v>
       </c>
       <c r="J14">
-        <v>0.9708179378564809</v>
+        <v>1.014464783953871</v>
       </c>
       <c r="K14">
-        <v>0.9694937382151655</v>
+        <v>1.016589620006831</v>
       </c>
       <c r="L14">
-        <v>0.9740765513082568</v>
+        <v>1.009527605028876</v>
       </c>
       <c r="M14">
-        <v>0.971720493277296</v>
+        <v>1.032553388194261</v>
       </c>
       <c r="N14">
-        <v>0.972196610682611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008796067787303</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035605072274199</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022869757226289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9394608711292791</v>
+        <v>0.9848137321273366</v>
       </c>
       <c r="D15">
-        <v>0.9543367664546301</v>
+        <v>1.001984733653827</v>
       </c>
       <c r="E15">
-        <v>0.9590448478505565</v>
+        <v>0.9948085117613427</v>
       </c>
       <c r="F15">
-        <v>0.9567342803571732</v>
+        <v>1.018329657967276</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.042169514818288</v>
       </c>
       <c r="J15">
-        <v>0.9714206815749011</v>
+        <v>1.014677209024089</v>
       </c>
       <c r="K15">
-        <v>0.9700973946654323</v>
+        <v>1.016797597570037</v>
       </c>
       <c r="L15">
-        <v>0.9747062825141088</v>
+        <v>1.009756524326771</v>
       </c>
       <c r="M15">
-        <v>0.9724442344531171</v>
+        <v>1.032843933732033</v>
       </c>
       <c r="N15">
-        <v>0.9728002103662472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008871617648011</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.03587236394665</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.023022778792593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.944355564707026</v>
+        <v>0.9870946436759779</v>
       </c>
       <c r="D16">
-        <v>0.9584397126873173</v>
+        <v>1.003585329957229</v>
       </c>
       <c r="E16">
-        <v>0.963295494278875</v>
+        <v>0.9965401968323429</v>
       </c>
       <c r="F16">
-        <v>0.9615391067712165</v>
+        <v>1.019843446217377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.042531620514619</v>
       </c>
       <c r="J16">
-        <v>0.9748806188999422</v>
+        <v>1.015751354285056</v>
       </c>
       <c r="K16">
-        <v>0.9735631823341543</v>
+        <v>1.017853662124334</v>
       </c>
       <c r="L16">
-        <v>0.9783219303839876</v>
+        <v>1.010935338988375</v>
       </c>
       <c r="M16">
-        <v>0.9766004921671335</v>
+        <v>1.033827777858642</v>
       </c>
       <c r="N16">
-        <v>0.9762650611991498</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009231761475355</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036611157787336</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.023772696866727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9473673720257128</v>
+        <v>0.9884539623829633</v>
       </c>
       <c r="D17">
-        <v>0.960967838238345</v>
+        <v>1.004533240432929</v>
       </c>
       <c r="E17">
-        <v>0.9659145552426731</v>
+        <v>0.9975652476547313</v>
       </c>
       <c r="F17">
-        <v>0.9644994859774305</v>
+        <v>1.020493976939933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.042712774606025</v>
       </c>
       <c r="J17">
-        <v>0.9770100103794802</v>
+        <v>1.016363184374232</v>
       </c>
       <c r="K17">
-        <v>0.9756966973942689</v>
+        <v>1.018462249667591</v>
       </c>
       <c r="L17">
-        <v>0.9805478397133391</v>
+        <v>1.011616102000466</v>
       </c>
       <c r="M17">
-        <v>0.9791599796428492</v>
+        <v>1.03415196730986</v>
       </c>
       <c r="N17">
-        <v>0.9783974766588336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009428057381326</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03673794747477</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024205634253127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9491039352110104</v>
+        <v>0.9891285048291605</v>
       </c>
       <c r="D18">
-        <v>0.9624267218665479</v>
+        <v>1.004982393727622</v>
       </c>
       <c r="E18">
-        <v>0.9674258918671857</v>
+        <v>0.9980574085414378</v>
       </c>
       <c r="F18">
-        <v>0.9662077493679623</v>
+        <v>1.020352842932407</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.042739624185371</v>
       </c>
       <c r="J18">
-        <v>0.9782378988623105</v>
+        <v>1.016608610398112</v>
       </c>
       <c r="K18">
-        <v>0.9769271472034705</v>
+        <v>1.018715675227429</v>
       </c>
       <c r="L18">
-        <v>0.981831628004753</v>
+        <v>1.011909758105084</v>
       </c>
       <c r="M18">
-        <v>0.9806364403414943</v>
+        <v>1.033829270348667</v>
       </c>
       <c r="N18">
-        <v>0.9796271088841502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009492141296042</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036244220791344</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024372992971123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9496927190060634</v>
+        <v>0.9891819623341327</v>
       </c>
       <c r="D19">
-        <v>0.9629215574310386</v>
+        <v>1.00499187637269</v>
       </c>
       <c r="E19">
-        <v>0.9679385154409637</v>
+        <v>0.9980664558137298</v>
       </c>
       <c r="F19">
-        <v>0.9667871640273583</v>
+        <v>1.019443401399495</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.042623108844262</v>
       </c>
       <c r="J19">
-        <v>0.9786542316399744</v>
+        <v>1.016522927175359</v>
       </c>
       <c r="K19">
-        <v>0.9773443791407154</v>
+        <v>1.018660912206423</v>
       </c>
       <c r="L19">
-        <v>0.9822669554818786</v>
+        <v>1.011853925287316</v>
       </c>
       <c r="M19">
-        <v>0.981137150824707</v>
+        <v>1.03287195861628</v>
       </c>
       <c r="N19">
-        <v>0.9800440329021124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009440008467109</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035160142481625</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.024340771389514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470463400101842</v>
+        <v>0.9874684664595552</v>
       </c>
       <c r="D20">
-        <v>0.9606982361321222</v>
+        <v>1.003726282324707</v>
       </c>
       <c r="E20">
-        <v>0.9656352580924338</v>
+        <v>0.9966991797118693</v>
       </c>
       <c r="F20">
-        <v>0.9641837943291004</v>
+        <v>1.016477715263647</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.042106360703764</v>
       </c>
       <c r="J20">
-        <v>0.9767830235021817</v>
+        <v>1.015491153495247</v>
       </c>
       <c r="K20">
-        <v>0.9754692517878846</v>
+        <v>1.0177039244854</v>
       </c>
       <c r="L20">
-        <v>0.9803105389042676</v>
+        <v>1.010800319448876</v>
       </c>
       <c r="M20">
-        <v>0.9788870874625164</v>
+        <v>1.030236882519024</v>
       </c>
       <c r="N20">
-        <v>0.9781701674341337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009054747097114</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032543994551921</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.023668107261582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9381991764910409</v>
+        <v>0.983209140491391</v>
       </c>
       <c r="D21">
-        <v>0.9532803059538854</v>
+        <v>1.000723249314104</v>
       </c>
       <c r="E21">
-        <v>0.9579503296379063</v>
+        <v>0.9934463066457673</v>
       </c>
       <c r="F21">
-        <v>0.9554970019078022</v>
+        <v>1.013206017097511</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.041364011529801</v>
       </c>
       <c r="J21">
-        <v>0.9705289859399313</v>
+        <v>1.013426050570666</v>
       </c>
       <c r="K21">
-        <v>0.9692043598582849</v>
+        <v>1.015690932458776</v>
       </c>
       <c r="L21">
-        <v>0.9737746760826622</v>
+        <v>1.008552913668027</v>
       </c>
       <c r="M21">
-        <v>0.9713735671499564</v>
+        <v>1.027941443509131</v>
       </c>
       <c r="N21">
-        <v>0.9719072484211968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008348709114546</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030686100824753</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022248084307103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9324344990860657</v>
+        <v>0.9804931838851553</v>
       </c>
       <c r="D22">
-        <v>0.9484593717975477</v>
+        <v>0.9988109314335366</v>
       </c>
       <c r="E22">
-        <v>0.9529555707897374</v>
+        <v>0.9913813731837964</v>
       </c>
       <c r="F22">
-        <v>0.9498503437477739</v>
+        <v>1.011220768505066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.040890214898924</v>
       </c>
       <c r="J22">
-        <v>0.9664558763341893</v>
+        <v>1.012114085394615</v>
       </c>
       <c r="K22">
-        <v>0.965125999941618</v>
+        <v>1.014405980864331</v>
       </c>
       <c r="L22">
-        <v>0.9695203706438144</v>
+        <v>1.007125522302188</v>
       </c>
       <c r="M22">
-        <v>0.9664853322354899</v>
+        <v>1.026573169579787</v>
       </c>
       <c r="N22">
-        <v>0.9678283545326223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007900821901015</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029603187893364</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021325800313118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9355106847126361</v>
+        <v>0.9819263652550585</v>
       </c>
       <c r="D23">
-        <v>0.9510307164215467</v>
+        <v>0.9998106683095307</v>
       </c>
       <c r="E23">
-        <v>0.9556196615005353</v>
+        <v>0.992468754909532</v>
       </c>
       <c r="F23">
-        <v>0.952862235723851</v>
+        <v>1.012270775293751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.041138991272651</v>
       </c>
       <c r="J23">
-        <v>0.9686291709353397</v>
+        <v>1.012801070493943</v>
       </c>
       <c r="K23">
-        <v>0.9673019197220991</v>
+        <v>1.01507297834683</v>
       </c>
       <c r="L23">
-        <v>0.9717901215952712</v>
+        <v>1.007874589047802</v>
       </c>
       <c r="M23">
-        <v>0.9690930761432524</v>
+        <v>1.027295728413619</v>
       </c>
       <c r="N23">
-        <v>0.9700047354613867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008134515218473</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030175053348211</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021787609006082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9471914626856706</v>
+        <v>0.987483681883533</v>
       </c>
       <c r="D24">
-        <v>0.9608201061663435</v>
+        <v>1.00371841454903</v>
       </c>
       <c r="E24">
-        <v>0.965761510710213</v>
+        <v>0.996703793466833</v>
       </c>
       <c r="F24">
-        <v>0.9643264986972914</v>
+        <v>1.016353925806375</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.042085860370702</v>
       </c>
       <c r="J24">
-        <v>0.9768856326859947</v>
+        <v>1.01547219831902</v>
       </c>
       <c r="K24">
-        <v>0.9755720677709829</v>
+        <v>1.017680543820111</v>
       </c>
       <c r="L24">
-        <v>0.9804178097336301</v>
+        <v>1.010789042513866</v>
       </c>
       <c r="M24">
-        <v>0.9790104463437033</v>
+        <v>1.03009980846917</v>
       </c>
       <c r="N24">
-        <v>0.9782729223347567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009044435988588</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032394323563022</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023623714223407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9599625361728341</v>
+        <v>0.9937290992748918</v>
       </c>
       <c r="D25">
-        <v>0.9715688273521503</v>
+        <v>1.00814315961054</v>
       </c>
       <c r="E25">
-        <v>0.9768964137255615</v>
+        <v>1.001494442377506</v>
       </c>
       <c r="F25">
-        <v>0.9769122495716137</v>
+        <v>1.020975274920653</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.043104455971751</v>
       </c>
       <c r="J25">
-        <v>0.9859167563958522</v>
+        <v>1.018469363043351</v>
       </c>
       <c r="K25">
-        <v>0.9846251404318845</v>
+        <v>1.020616365179094</v>
       </c>
       <c r="L25">
-        <v>0.989864293731588</v>
+        <v>1.014069603266342</v>
       </c>
       <c r="M25">
-        <v>0.9898798685667896</v>
+        <v>1.033256474558494</v>
       </c>
       <c r="N25">
-        <v>0.987316871276167</v>
+        <v>1.010065020523031</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034892637192864</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.02569664670034</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_27/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9985270016687718</v>
+        <v>0.9992559697127896</v>
       </c>
       <c r="D2">
-        <v>1.011542469134477</v>
+        <v>1.012338726821745</v>
       </c>
       <c r="E2">
-        <v>1.005194373985498</v>
+        <v>1.005831492007567</v>
       </c>
       <c r="F2">
-        <v>1.02455883434004</v>
+        <v>1.024868964596227</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043842659871584</v>
+        <v>1.04408839215385</v>
       </c>
       <c r="J2">
-        <v>1.020751859300456</v>
+        <v>1.021458957394859</v>
       </c>
       <c r="K2">
-        <v>1.022843307446424</v>
+        <v>1.023628798848417</v>
       </c>
       <c r="L2">
-        <v>1.016581814178284</v>
+        <v>1.017210178349206</v>
       </c>
       <c r="M2">
-        <v>1.03568630826532</v>
+        <v>1.03599237522371</v>
       </c>
       <c r="N2">
-        <v>1.010839722023703</v>
+        <v>1.01290646747213</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036815700158301</v>
+        <v>1.03705793283994</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.02722221473029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.027786547763085</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018377996160862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001946196784507</v>
+        <v>1.002529668866717</v>
       </c>
       <c r="D3">
-        <v>1.01399314750563</v>
+        <v>1.014569253233766</v>
       </c>
       <c r="E3">
-        <v>1.007846258499231</v>
+        <v>1.00835697854454</v>
       </c>
       <c r="F3">
-        <v>1.027120330111118</v>
+        <v>1.027368636461788</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044349848019425</v>
+        <v>1.044547413495228</v>
       </c>
       <c r="J3">
-        <v>1.022383946754134</v>
+        <v>1.022951609308238</v>
       </c>
       <c r="K3">
-        <v>1.024450060224963</v>
+        <v>1.02501905075706</v>
       </c>
       <c r="L3">
-        <v>1.018379719792203</v>
+        <v>1.018884035406664</v>
       </c>
       <c r="M3">
-        <v>1.037417573621539</v>
+        <v>1.037662908536505</v>
       </c>
       <c r="N3">
-        <v>1.011394683454245</v>
+        <v>1.01330922525527</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038185886342883</v>
+        <v>1.038380053078489</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.028355658258037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.028766622016671</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018657394742765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004122553438532</v>
+        <v>1.004614408009157</v>
       </c>
       <c r="D4">
-        <v>1.015559818994419</v>
+        <v>1.015996267051731</v>
       </c>
       <c r="E4">
-        <v>1.009540064661944</v>
+        <v>1.0099710686019</v>
       </c>
       <c r="F4">
-        <v>1.028756341957522</v>
+        <v>1.028965779152087</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044662042511943</v>
+        <v>1.044829194228307</v>
       </c>
       <c r="J4">
-        <v>1.023421388549054</v>
+        <v>1.023900808786093</v>
       </c>
       <c r="K4">
-        <v>1.025474008950953</v>
+        <v>1.025905389860268</v>
       </c>
       <c r="L4">
-        <v>1.019524697101439</v>
+        <v>1.019950622931692</v>
       </c>
       <c r="M4">
-        <v>1.038519662289003</v>
+        <v>1.038726743517055</v>
       </c>
       <c r="N4">
-        <v>1.011747346575006</v>
+        <v>1.013565321313739</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039058117910761</v>
+        <v>1.039222009128353</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.029080609383074</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.029394348078581</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018833306307366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005032583693988</v>
+        <v>1.005486262320729</v>
       </c>
       <c r="D5">
-        <v>1.016219439495204</v>
+        <v>1.016597522842954</v>
       </c>
       <c r="E5">
-        <v>1.010250093210842</v>
+        <v>1.010647848774587</v>
       </c>
       <c r="F5">
-        <v>1.029440647137098</v>
+        <v>1.02963390246368</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044790773932601</v>
+        <v>1.04494522917663</v>
       </c>
       <c r="J5">
-        <v>1.023856573534295</v>
+        <v>1.024299122371708</v>
       </c>
       <c r="K5">
-        <v>1.025906179953</v>
+        <v>1.026279990031093</v>
       </c>
       <c r="L5">
-        <v>1.020004825122018</v>
+        <v>1.02039801938431</v>
       </c>
       <c r="M5">
-        <v>1.038980245814507</v>
+        <v>1.039171384775804</v>
       </c>
       <c r="N5">
-        <v>1.011895481960254</v>
+        <v>1.013672955106908</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039422639528456</v>
+        <v>1.039573913411442</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.029393474198504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029667213409543</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018907689073059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005189156485239</v>
+        <v>1.005636164482934</v>
       </c>
       <c r="D6">
-        <v>1.016336563758597</v>
+        <v>1.016704518269706</v>
       </c>
       <c r="E6">
-        <v>1.01037281553335</v>
+        <v>1.010764753611008</v>
       </c>
       <c r="F6">
-        <v>1.029557136472692</v>
+        <v>1.029747564333313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04481372552124</v>
+        <v>1.044965954545235</v>
       </c>
       <c r="J6">
-        <v>1.023933547106213</v>
+        <v>1.024369644845203</v>
       </c>
       <c r="K6">
-        <v>1.025985084609021</v>
+        <v>1.026348899309867</v>
       </c>
       <c r="L6">
-        <v>1.020088952464513</v>
+        <v>1.02047641658963</v>
       </c>
       <c r="M6">
-        <v>1.039059194331401</v>
+        <v>1.039247546281743</v>
       </c>
       <c r="N6">
-        <v>1.011921957169893</v>
+        <v>1.013692223578281</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039485122077088</v>
+        <v>1.039634190211958</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.029458138617279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029725677623853</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018922036113566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004146244039678</v>
+        <v>1.004643397168348</v>
       </c>
       <c r="D7">
-        <v>1.015586467053406</v>
+        <v>1.016026368164774</v>
       </c>
       <c r="E7">
-        <v>1.009559841134495</v>
+        <v>1.00999558443173</v>
       </c>
       <c r="F7">
-        <v>1.028770591264793</v>
+        <v>1.028982397622939</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044667985912146</v>
+        <v>1.044837100944855</v>
       </c>
       <c r="J7">
-        <v>1.02343842776916</v>
+        <v>1.023923018100006</v>
       </c>
       <c r="K7">
-        <v>1.025497407915237</v>
+        <v>1.02593220385079</v>
       </c>
       <c r="L7">
-        <v>1.019541277266916</v>
+        <v>1.01997188861509</v>
       </c>
       <c r="M7">
-        <v>1.038530862072441</v>
+        <v>1.038740286695963</v>
       </c>
       <c r="N7">
-        <v>1.011753897112872</v>
+        <v>1.013597722002367</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039066981806151</v>
+        <v>1.039232727665383</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.029117559104815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.029435708542029</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018841099507463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.999704683304651</v>
+        <v>1.000403247942897</v>
       </c>
       <c r="D8">
-        <v>1.012396924666408</v>
+        <v>1.013133011436682</v>
       </c>
       <c r="E8">
-        <v>1.006108240439353</v>
+        <v>1.00671945266706</v>
       </c>
       <c r="F8">
-        <v>1.025435471358704</v>
+        <v>1.025733090725603</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044022729118907</v>
+        <v>1.044259134725095</v>
       </c>
       <c r="J8">
-        <v>1.02132145554067</v>
+        <v>1.021999759298332</v>
       </c>
       <c r="K8">
-        <v>1.023411549836693</v>
+        <v>1.024137978434793</v>
       </c>
       <c r="L8">
-        <v>1.017206102580597</v>
+        <v>1.01780916753099</v>
       </c>
       <c r="M8">
-        <v>1.036281582227345</v>
+        <v>1.03657541753086</v>
       </c>
       <c r="N8">
-        <v>1.01103440990782</v>
+        <v>1.013131645337138</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037286821855669</v>
+        <v>1.037519373802138</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.027647276920248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028172106734445</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018484947593519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9915720945573157</v>
+        <v>0.9926263198206148</v>
       </c>
       <c r="D9">
-        <v>1.006596500166294</v>
+        <v>1.007861907277504</v>
       </c>
       <c r="E9">
-        <v>0.9998337495342818</v>
+        <v>1.000753167630349</v>
       </c>
       <c r="F9">
-        <v>1.019380628002395</v>
+        <v>1.019829871900651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04275476998401</v>
+        <v>1.043108523330561</v>
       </c>
       <c r="J9">
-        <v>1.017426014861753</v>
+        <v>1.018442175973614</v>
       </c>
       <c r="K9">
-        <v>1.019583452745291</v>
+        <v>1.020828705435773</v>
       </c>
       <c r="L9">
-        <v>1.012929524612243</v>
+        <v>1.013834037022775</v>
       </c>
       <c r="M9">
-        <v>1.032166903346209</v>
+        <v>1.032609212139406</v>
       </c>
       <c r="N9">
-        <v>1.009708492296252</v>
+        <v>1.012180447631012</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034030307327379</v>
+        <v>1.034380368173716</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024937249100548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025828666220617</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017805731252625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9859923900793649</v>
+        <v>0.9873245667609164</v>
       </c>
       <c r="D10">
-        <v>1.002664915335974</v>
+        <v>1.004317650578613</v>
       </c>
       <c r="E10">
-        <v>0.995569438323314</v>
+        <v>0.9967293164521006</v>
       </c>
       <c r="F10">
-        <v>1.015436639401148</v>
+        <v>1.016005090942628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041857813855056</v>
+        <v>1.042303503273004</v>
       </c>
       <c r="J10">
-        <v>1.014773005109935</v>
+        <v>1.016050274050299</v>
       </c>
       <c r="K10">
-        <v>1.016986220039968</v>
+        <v>1.018609383660349</v>
       </c>
       <c r="L10">
-        <v>1.010019151374562</v>
+        <v>1.011157876274268</v>
       </c>
       <c r="M10">
-        <v>1.029532663968974</v>
+        <v>1.030091258961336</v>
       </c>
       <c r="N10">
-        <v>1.008808754721543</v>
+        <v>1.011654024648899</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03199730755909</v>
+        <v>1.032439375216371</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023117872270283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024278185062556</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017345906241619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9839082459397117</v>
+        <v>0.9853761315809887</v>
       </c>
       <c r="D11">
-        <v>1.001265880490364</v>
+        <v>1.0030825467264</v>
       </c>
       <c r="E11">
-        <v>0.9940350929908524</v>
+        <v>0.9953117401267974</v>
       </c>
       <c r="F11">
-        <v>1.015371571977898</v>
+        <v>1.015996228233429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041710262326879</v>
+        <v>1.042199468576766</v>
       </c>
       <c r="J11">
-        <v>1.0139661290453</v>
+        <v>1.015370194222535</v>
       </c>
       <c r="K11">
-        <v>1.016163963579212</v>
+        <v>1.017946563926644</v>
       </c>
       <c r="L11">
-        <v>1.00907038228844</v>
+        <v>1.01032261507553</v>
       </c>
       <c r="M11">
-        <v>1.030009310603066</v>
+        <v>1.030622655130135</v>
       </c>
       <c r="N11">
-        <v>1.008565080804755</v>
+        <v>1.011720705705313</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032813600852734</v>
+        <v>1.033298749215767</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022569880733698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.023846127593161</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017242071255159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9832416708417647</v>
+        <v>0.9847522527587215</v>
       </c>
       <c r="D12">
-        <v>1.000833872222692</v>
+        <v>1.002700359817406</v>
       </c>
       <c r="E12">
-        <v>0.9935651283359987</v>
+        <v>0.9948776345861655</v>
       </c>
       <c r="F12">
-        <v>1.015909425412684</v>
+        <v>1.016550383407044</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041735291788593</v>
+        <v>1.042236588867343</v>
       </c>
       <c r="J12">
-        <v>1.013772605857031</v>
+        <v>1.015216243018319</v>
       </c>
       <c r="K12">
-        <v>1.015945113975233</v>
+        <v>1.017776007413993</v>
       </c>
       <c r="L12">
-        <v>1.008816657508509</v>
+        <v>1.010103633450306</v>
       </c>
       <c r="M12">
-        <v>1.030738043990278</v>
+        <v>1.031367227841725</v>
       </c>
       <c r="N12">
-        <v>1.00852371988744</v>
+        <v>1.011797941986815</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03371813247591</v>
+        <v>1.034215639357237</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022415142023537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.02372553776513</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01722961594703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9836358688912845</v>
+        <v>0.9851095259447094</v>
       </c>
       <c r="D13">
-        <v>1.001136637727266</v>
+        <v>1.002959431242215</v>
       </c>
       <c r="E13">
-        <v>0.9938933367898829</v>
+        <v>0.9951723358269309</v>
       </c>
       <c r="F13">
-        <v>1.016973935177862</v>
+        <v>1.017596874929074</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041905422037819</v>
+        <v>1.042391788637827</v>
       </c>
       <c r="J13">
-        <v>1.014054085049008</v>
+        <v>1.015462744728692</v>
       </c>
       <c r="K13">
-        <v>1.016198133064219</v>
+        <v>1.017986307849985</v>
       </c>
       <c r="L13">
-        <v>1.009094042815628</v>
+        <v>1.010348267429058</v>
       </c>
       <c r="M13">
-        <v>1.031740042448261</v>
+        <v>1.032351608110254</v>
       </c>
       <c r="N13">
-        <v>1.008641687144727</v>
+        <v>1.011857270550419</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034788235717688</v>
+        <v>1.035271689191309</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022591505477139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023871451994844</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017291769064883</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9843913290365275</v>
+        <v>0.9858036029798546</v>
       </c>
       <c r="D14">
-        <v>1.001682435043206</v>
+        <v>1.003432818752739</v>
       </c>
       <c r="E14">
-        <v>0.9944837995219213</v>
+        <v>0.9957084831525154</v>
       </c>
       <c r="F14">
-        <v>1.017945610212096</v>
+        <v>1.01854079169184</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04208792751677</v>
+        <v>1.042551991721761</v>
       </c>
       <c r="J14">
-        <v>1.014464783953871</v>
+        <v>1.015815648341007</v>
       </c>
       <c r="K14">
-        <v>1.016589620006831</v>
+        <v>1.018307170506768</v>
       </c>
       <c r="L14">
-        <v>1.009527605028876</v>
+        <v>1.010728863323888</v>
       </c>
       <c r="M14">
-        <v>1.032553388194261</v>
+        <v>1.03313784800858</v>
       </c>
       <c r="N14">
-        <v>1.008796067787303</v>
+        <v>1.011891571379294</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035605072274199</v>
+        <v>1.036067035450846</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022869757226289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024099900630281</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017369566814991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9848137321273366</v>
+        <v>0.9861939467297987</v>
       </c>
       <c r="D15">
-        <v>1.001984733653827</v>
+        <v>1.003696923251847</v>
       </c>
       <c r="E15">
-        <v>0.9948085117613427</v>
+        <v>0.9960051170495418</v>
       </c>
       <c r="F15">
-        <v>1.018329657967276</v>
+        <v>1.018910748193181</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042169514818288</v>
+        <v>1.04262245333646</v>
       </c>
       <c r="J15">
-        <v>1.014677209024089</v>
+        <v>1.01599792842852</v>
       </c>
       <c r="K15">
-        <v>1.016797597570037</v>
+        <v>1.018477914213779</v>
       </c>
       <c r="L15">
-        <v>1.009756524326771</v>
+        <v>1.010930417264718</v>
       </c>
       <c r="M15">
-        <v>1.032843933732033</v>
+        <v>1.033414637603042</v>
       </c>
       <c r="N15">
-        <v>1.008871617648011</v>
+        <v>1.011901373316785</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03587236394665</v>
+        <v>1.036323442371834</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023022778792593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024227160870209</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017407670911306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9870946436759779</v>
+        <v>0.988319637729637</v>
       </c>
       <c r="D16">
-        <v>1.003585329957229</v>
+        <v>1.005107032929238</v>
       </c>
       <c r="E16">
-        <v>0.9965401968323429</v>
+        <v>0.9976021983084912</v>
       </c>
       <c r="F16">
-        <v>1.019843446217377</v>
+        <v>1.020357989631248</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042531620514619</v>
+        <v>1.042933001940784</v>
       </c>
       <c r="J16">
-        <v>1.015751354285056</v>
+        <v>1.016926172225439</v>
       </c>
       <c r="K16">
-        <v>1.017853662124334</v>
+        <v>1.019348277908051</v>
       </c>
       <c r="L16">
-        <v>1.010935338988375</v>
+        <v>1.011978075695029</v>
       </c>
       <c r="M16">
-        <v>1.033827777858642</v>
+        <v>1.03433352398373</v>
       </c>
       <c r="N16">
-        <v>1.009231761475355</v>
+        <v>1.011941699155679</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036611157787336</v>
+        <v>1.037010905685319</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.023772696866727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024846071530772</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017584167258937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9884539623829633</v>
+        <v>0.9895994186955038</v>
       </c>
       <c r="D17">
-        <v>1.004533240432929</v>
+        <v>1.005952263148613</v>
       </c>
       <c r="E17">
-        <v>0.9975652476547313</v>
+        <v>0.9985588340629697</v>
       </c>
       <c r="F17">
-        <v>1.020493976939933</v>
+        <v>1.020975213659221</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042712774606025</v>
+        <v>1.043088693923983</v>
       </c>
       <c r="J17">
-        <v>1.016363184374232</v>
+        <v>1.017463227659815</v>
       </c>
       <c r="K17">
-        <v>1.018462249667591</v>
+        <v>1.019856726371226</v>
       </c>
       <c r="L17">
-        <v>1.011616102000466</v>
+        <v>1.012592179411835</v>
       </c>
       <c r="M17">
-        <v>1.03415196730986</v>
+        <v>1.034625201932181</v>
       </c>
       <c r="N17">
-        <v>1.009428057381326</v>
+        <v>1.011984221252035</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03673794747477</v>
+        <v>1.037112035276827</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024205634253127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025208448558073</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017680733841785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891285048291605</v>
+        <v>0.9902437624419358</v>
       </c>
       <c r="D18">
-        <v>1.004982393727622</v>
+        <v>1.00635933447518</v>
       </c>
       <c r="E18">
-        <v>0.9980574085414378</v>
+        <v>0.9990257789341239</v>
       </c>
       <c r="F18">
-        <v>1.020352842932407</v>
+        <v>1.020822498276083</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042739624185371</v>
+        <v>1.043107158197062</v>
       </c>
       <c r="J18">
-        <v>1.016608610398112</v>
+        <v>1.01768048392434</v>
       </c>
       <c r="K18">
-        <v>1.018715675227429</v>
+        <v>1.020069193017495</v>
       </c>
       <c r="L18">
-        <v>1.011909758105084</v>
+        <v>1.012861349918463</v>
       </c>
       <c r="M18">
-        <v>1.033829270348667</v>
+        <v>1.034291233888094</v>
       </c>
       <c r="N18">
-        <v>1.009492141296042</v>
+        <v>1.011988123199779</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036244220791344</v>
+        <v>1.036609475486558</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024372992971123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025345715399073</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017708215063981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9891819623341327</v>
+        <v>0.9903053533847638</v>
       </c>
       <c r="D19">
-        <v>1.00499187637269</v>
+        <v>1.00637697597209</v>
       </c>
       <c r="E19">
-        <v>0.9980664558137298</v>
+        <v>0.9990430425222866</v>
       </c>
       <c r="F19">
-        <v>1.019443401399495</v>
+        <v>1.019918372341154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042623108844262</v>
+        <v>1.042995367474213</v>
       </c>
       <c r="J19">
-        <v>1.016522927175359</v>
+        <v>1.017602881187156</v>
       </c>
       <c r="K19">
-        <v>1.018660912206423</v>
+        <v>1.020022577175391</v>
       </c>
       <c r="L19">
-        <v>1.011853925287316</v>
+        <v>1.012813682523516</v>
       </c>
       <c r="M19">
-        <v>1.03287195861628</v>
+        <v>1.033339174518937</v>
       </c>
       <c r="N19">
-        <v>1.009440008467109</v>
+        <v>1.01193927401025</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035160142481625</v>
+        <v>1.035529671808474</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024340771389514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025319875627044</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017678022434474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874684664595552</v>
+        <v>0.9887069716109962</v>
       </c>
       <c r="D20">
-        <v>1.003726282324707</v>
+        <v>1.005260561699496</v>
       </c>
       <c r="E20">
-        <v>0.9966991797118693</v>
+        <v>0.997777462465038</v>
       </c>
       <c r="F20">
-        <v>1.016477715263647</v>
+        <v>1.017005507523947</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042106360703764</v>
+        <v>1.042520267739626</v>
       </c>
       <c r="J20">
-        <v>1.015491153495247</v>
+        <v>1.016680270325748</v>
       </c>
       <c r="K20">
-        <v>1.0177039244854</v>
+        <v>1.019211536904915</v>
       </c>
       <c r="L20">
-        <v>1.010800319448876</v>
+        <v>1.01185950542095</v>
       </c>
       <c r="M20">
-        <v>1.030236882519024</v>
+        <v>1.030755784203402</v>
       </c>
       <c r="N20">
-        <v>1.009054747097114</v>
+        <v>1.011727062837724</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032543994551921</v>
+        <v>1.032954654266474</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.023668107261582</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.024750795575478</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017474701405639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.983209140491391</v>
+        <v>0.9847554669179701</v>
       </c>
       <c r="D21">
-        <v>1.000723249314104</v>
+        <v>1.002629479813959</v>
       </c>
       <c r="E21">
-        <v>0.9934463066457673</v>
+        <v>0.9947936437569873</v>
       </c>
       <c r="F21">
-        <v>1.013206017097511</v>
+        <v>1.013869078331064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041364011529801</v>
+        <v>1.041884057473257</v>
       </c>
       <c r="J21">
-        <v>1.013426050570666</v>
+        <v>1.014904678244041</v>
       </c>
       <c r="K21">
-        <v>1.015690932458776</v>
+        <v>1.01756120654895</v>
       </c>
       <c r="L21">
-        <v>1.008552913668027</v>
+        <v>1.009874328065439</v>
       </c>
       <c r="M21">
-        <v>1.027941443509131</v>
+        <v>1.028592375949277</v>
       </c>
       <c r="N21">
-        <v>1.008348709114546</v>
+        <v>1.011662335297543</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030686100824753</v>
+        <v>1.031201277158349</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022248084307103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023587529211025</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01713083323623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9804931838851553</v>
+        <v>0.9822357751938731</v>
       </c>
       <c r="D22">
-        <v>0.9988109314335366</v>
+        <v>1.000953697659658</v>
       </c>
       <c r="E22">
-        <v>0.9913813731837964</v>
+        <v>0.992900117809747</v>
       </c>
       <c r="F22">
-        <v>1.011220768505066</v>
+        <v>1.011970470074038</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040890214898924</v>
+        <v>1.041478073451449</v>
       </c>
       <c r="J22">
-        <v>1.012114085394615</v>
+        <v>1.013775955030096</v>
       </c>
       <c r="K22">
-        <v>1.014405980864331</v>
+        <v>1.016506285258594</v>
       </c>
       <c r="L22">
-        <v>1.007125522302188</v>
+        <v>1.008613549162516</v>
       </c>
       <c r="M22">
-        <v>1.026573169579787</v>
+        <v>1.027308461868104</v>
       </c>
       <c r="N22">
-        <v>1.007900821901015</v>
+        <v>1.01161418575185</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029603187893364</v>
+        <v>1.030185131170729</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021325800313118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.022826604344681</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01690906121478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9819263652550585</v>
+        <v>0.9835547407176783</v>
       </c>
       <c r="D23">
-        <v>0.9998106683095307</v>
+        <v>1.001820236786909</v>
       </c>
       <c r="E23">
-        <v>0.992468754909532</v>
+        <v>0.9938874951734793</v>
       </c>
       <c r="F23">
-        <v>1.012270775293751</v>
+        <v>1.012969773415436</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041138991272651</v>
+        <v>1.041686999350989</v>
       </c>
       <c r="J23">
-        <v>1.012801070493943</v>
+        <v>1.014356220520175</v>
       </c>
       <c r="K23">
-        <v>1.01507297834683</v>
+        <v>1.017043742831798</v>
       </c>
       <c r="L23">
-        <v>1.007874589047802</v>
+        <v>1.009265377933384</v>
       </c>
       <c r="M23">
-        <v>1.027295728413619</v>
+        <v>1.027981636869542</v>
       </c>
       <c r="N23">
-        <v>1.008134515218473</v>
+        <v>1.011594727150418</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030175053348211</v>
+        <v>1.030717911614886</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021787609006082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023195880463195</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017019479460795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.987483681883533</v>
+        <v>0.9887229561829065</v>
       </c>
       <c r="D24">
-        <v>1.00371841454903</v>
+        <v>1.005253489575475</v>
       </c>
       <c r="E24">
-        <v>0.996703793466833</v>
+        <v>0.9977829130104552</v>
       </c>
       <c r="F24">
-        <v>1.016353925806375</v>
+        <v>1.016882310470956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042085860370702</v>
+        <v>1.042500291870087</v>
       </c>
       <c r="J24">
-        <v>1.01547219831902</v>
+        <v>1.016662125474784</v>
       </c>
       <c r="K24">
-        <v>1.017680543820111</v>
+        <v>1.019188971907554</v>
       </c>
       <c r="L24">
-        <v>1.010789042513866</v>
+        <v>1.011849075370467</v>
       </c>
       <c r="M24">
-        <v>1.03009980846917</v>
+        <v>1.030619301214175</v>
       </c>
       <c r="N24">
-        <v>1.009044435988588</v>
+        <v>1.011715385755047</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032394323563022</v>
+        <v>1.032805471811685</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.023623714223407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024704319681285</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017464494194009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9937290992748918</v>
+        <v>0.9946791767182598</v>
       </c>
       <c r="D25">
-        <v>1.00814315961054</v>
+        <v>1.009260671586471</v>
       </c>
       <c r="E25">
-        <v>1.001494442377506</v>
+        <v>1.002323502964753</v>
       </c>
       <c r="F25">
-        <v>1.020975274920653</v>
+        <v>1.021379876691364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043104455971751</v>
+        <v>1.043423585577569</v>
       </c>
       <c r="J25">
-        <v>1.018469363043351</v>
+        <v>1.019386944282251</v>
       </c>
       <c r="K25">
-        <v>1.020616365179094</v>
+        <v>1.021716908612388</v>
       </c>
       <c r="L25">
-        <v>1.014069603266342</v>
+        <v>1.01488585630554</v>
       </c>
       <c r="M25">
-        <v>1.033256474558494</v>
+        <v>1.033655121942082</v>
       </c>
       <c r="N25">
-        <v>1.010065020523031</v>
+        <v>1.012403721330205</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034892637192864</v>
+        <v>1.035208142277718</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.02569664670034</v>
+        <v>1.026488532514691</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017992247079508</v>
       </c>
     </row>
   </sheetData>
